--- a/jpl_ephem_transformed.xlsx
+++ b/jpl_ephem_transformed.xlsx
@@ -517,7 +517,7 @@
         <v>406277.359638383</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.129116953343972</v>
+        <v>3.154068353835615</v>
       </c>
       <c r="E5" t="n">
         <v>1.571799735254895</v>
@@ -534,7 +534,7 @@
         <v>403121.6236604178</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.422188088233337</v>
+        <v>3.860997218946249</v>
       </c>
       <c r="E6" t="n">
         <v>1.6314877435199</v>
@@ -551,7 +551,7 @@
         <v>392048.1050829296</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.690096938773934</v>
+        <v>4.593088368405652</v>
       </c>
       <c r="E7" t="n">
         <v>1.662063062826127</v>
@@ -568,7 +568,7 @@
         <v>373984.0952822996</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9023443785530092</v>
+        <v>5.380840928626577</v>
       </c>
       <c r="E8" t="n">
         <v>1.642872523610428</v>
@@ -585,7 +585,7 @@
         <v>359103.9289926424</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03823782202273929</v>
+        <v>6.244947485156847</v>
       </c>
       <c r="E9" t="n">
         <v>1.574232035449445</v>
@@ -653,7 +653,7 @@
         <v>405851.2327055014</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.117560720929171</v>
+        <v>3.165624586250415</v>
       </c>
       <c r="E13" t="n">
         <v>1.573528150569388</v>
@@ -670,7 +670,7 @@
         <v>402017.0678831593</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.408233147360534</v>
+        <v>3.874952159819053</v>
       </c>
       <c r="E14" t="n">
         <v>1.631711474625685</v>
@@ -687,7 +687,7 @@
         <v>392424.3460786238</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.670284201649933</v>
+        <v>4.612901105529653</v>
       </c>
       <c r="E15" t="n">
         <v>1.660055599883396</v>
@@ -704,7 +704,7 @@
         <v>378840.6649402705</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.8910263182358529</v>
+        <v>5.392158988943733</v>
       </c>
       <c r="E16" t="n">
         <v>1.639318297347227</v>
@@ -721,7 +721,7 @@
         <v>365137.2338425779</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05649710782863337</v>
+        <v>6.226688199350953</v>
       </c>
       <c r="E17" t="n">
         <v>1.573891393199344</v>
@@ -789,7 +789,7 @@
         <v>404894.054431599</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.112347117190875</v>
+        <v>3.170838189988712</v>
       </c>
       <c r="E21" t="n">
         <v>1.576984246607859</v>
@@ -806,7 +806,7 @@
         <v>400760.607655182</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.402896036449748</v>
+        <v>3.880289270729838</v>
       </c>
       <c r="E22" t="n">
         <v>1.632907910239723</v>
@@ -823,7 +823,7 @@
         <v>389966.4823511667</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.656519543124204</v>
+        <v>4.626665764055383</v>
       </c>
       <c r="E23" t="n">
         <v>1.658198289798998</v>
@@ -840,7 +840,7 @@
         <v>379066.6566677349</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.86801432936617</v>
+        <v>5.415170977813416</v>
       </c>
       <c r="E24" t="n">
         <v>1.633877368064254</v>
@@ -857,7 +857,7 @@
         <v>370238.7276646822</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.04552288598481669</v>
+        <v>6.23766242119477</v>
       </c>
       <c r="E25" t="n">
         <v>1.568739073622686</v>
@@ -925,7 +925,7 @@
         <v>403713.5618103363</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.114312210337819</v>
+        <v>3.168873096841767</v>
       </c>
       <c r="E29" t="n">
         <v>1.581575699345755</v>
@@ -942,7 +942,7 @@
         <v>400787.6006132445</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.406753333039898</v>
+        <v>3.876431974139688</v>
       </c>
       <c r="E30" t="n">
         <v>1.635874765427648</v>
@@ -959,7 +959,7 @@
         <v>387677.0205776214</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.659163026495107</v>
+        <v>4.624022280684478</v>
       </c>
       <c r="E31" t="n">
         <v>1.658383109890636</v>
@@ -976,7 +976,7 @@
         <v>375374.839884648</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.8551957482813091</v>
+        <v>5.427989558898277</v>
       </c>
       <c r="E32" t="n">
         <v>1.630015504553113</v>
@@ -993,7 +993,7 @@
         <v>370406.1456568925</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02101139998482848</v>
+        <v>6.262173907194757</v>
       </c>
       <c r="E33" t="n">
         <v>1.561894063898765</v>
@@ -1061,7 +1061,7 @@
         <v>402939.1949422857</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.119402190139221</v>
+        <v>3.163783117040365</v>
       </c>
       <c r="E37" t="n">
         <v>1.585424578423799</v>
@@ -1078,7 +1078,7 @@
         <v>402236.8724535957</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.413362311674669</v>
+        <v>3.869822995504918</v>
       </c>
       <c r="E38" t="n">
         <v>1.63955941686418</v>
@@ -1095,7 +1095,7 @@
         <v>388295.3991209236</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.674555307059266</v>
+        <v>4.60863000012032</v>
       </c>
       <c r="E39" t="n">
         <v>1.660599541193932</v>
@@ -1112,7 +1112,7 @@
         <v>371745.59064368</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.865901380791001</v>
+        <v>5.417283926388585</v>
       </c>
       <c r="E40" t="n">
         <v>1.629979956530146</v>
@@ -1129,7 +1129,7 @@
         <v>365887.3042148544</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.008613224882203507</v>
+        <v>6.274572082297382</v>
       </c>
       <c r="E41" t="n">
         <v>1.557665486229981</v>
@@ -1197,7 +1197,7 @@
         <v>403165.6866722713</v>
       </c>
       <c r="D45" t="n">
-        <v>-3.120749482041003</v>
+        <v>3.162435825138584</v>
       </c>
       <c r="E45" t="n">
         <v>1.587345023775692</v>
@@ -1214,7 +1214,7 @@
         <v>404157.7144528317</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.415009517472108</v>
+        <v>3.868175789707478</v>
       </c>
       <c r="E46" t="n">
         <v>1.642091580578094</v>
@@ -1231,7 +1231,7 @@
         <v>391845.0791217592</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.688608906210634</v>
+        <v>4.594576400968952</v>
       </c>
       <c r="E47" t="n">
         <v>1.66274934606825</v>
@@ -1248,7 +1248,7 @@
         <v>371990.6718271956</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.8930936221886849</v>
+        <v>5.390091684990901</v>
       </c>
       <c r="E48" t="n">
         <v>1.63252329945872</v>
@@ -1265,7 +1265,7 @@
         <v>360744.3233121235</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.02334588571592766</v>
+        <v>6.259839421463658</v>
       </c>
       <c r="E49" t="n">
         <v>1.558130713444813</v>
@@ -1333,7 +1333,7 @@
         <v>404188.2008276035</v>
       </c>
       <c r="D53" t="n">
-        <v>-3.113662744018248</v>
+        <v>3.169522563161339</v>
       </c>
       <c r="E53" t="n">
         <v>1.58808374693326</v>
@@ -1350,7 +1350,7 @@
         <v>405573.5313975224</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.408123338462154</v>
+        <v>3.875061968717432</v>
       </c>
       <c r="E54" t="n">
         <v>1.642744563996408</v>
@@ -1367,7 +1367,7 @@
         <v>396041.3642693251</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.690015930607023</v>
+        <v>4.593169376572563</v>
       </c>
       <c r="E55" t="n">
         <v>1.662846801458909</v>
@@ -1384,7 +1384,7 @@
         <v>376400.4263404452</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.9162539538600285</v>
+        <v>5.366931353319558</v>
       </c>
       <c r="E56" t="n">
         <v>1.634001422133363</v>
@@ -1401,7 +1401,7 @@
         <v>359441.4050427862</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.05753347121319718</v>
+        <v>6.225651835966389</v>
       </c>
       <c r="E57" t="n">
         <v>1.561319131979673</v>
@@ -1469,7 +1469,7 @@
         <v>404987.5710009263</v>
       </c>
       <c r="D61" t="n">
-        <v>-3.099416495937498</v>
+        <v>3.183768811242088</v>
       </c>
       <c r="E61" t="n">
         <v>1.589405137855565</v>
@@ -1486,7 +1486,7 @@
         <v>406027.3763449237</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.394545376670699</v>
+        <v>3.888639930508887</v>
       </c>
       <c r="E62" t="n">
         <v>1.642480601027021</v>
@@ -1503,7 +1503,7 @@
         <v>398596.5505087309</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.677840203008661</v>
+        <v>4.605345104170925</v>
       </c>
       <c r="E63" t="n">
         <v>1.660803545819917</v>
@@ -1520,7 +1520,7 @@
         <v>382010.2320928304</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.9204801785675407</v>
+        <v>5.362705128612046</v>
       </c>
       <c r="E64" t="n">
         <v>1.632059968163949</v>
@@ -1537,7 +1537,7 @@
         <v>363087.0504113082</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0879535552556292</v>
+        <v>6.195231751923957</v>
       </c>
       <c r="E65" t="n">
         <v>1.562957001106068</v>
@@ -1605,7 +1605,7 @@
         <v>404603.999392688</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.084160492643943</v>
+        <v>3.199024814535643</v>
       </c>
       <c r="E69" t="n">
         <v>1.592439021965318</v>
@@ -1622,7 +1622,7 @@
         <v>405581.5788294948</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.379637445350826</v>
+        <v>3.90354786182876</v>
       </c>
       <c r="E70" t="n">
         <v>1.642899248970213</v>
@@ -1639,7 +1639,7 @@
         <v>398688.2414011857</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.659352156947704</v>
+        <v>4.623833150231882</v>
       </c>
       <c r="E71" t="n">
         <v>1.658133000056519</v>
@@ -1656,7 +1656,7 @@
         <v>385543.6413553091</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.9060031861384932</v>
+        <v>5.377182121041093</v>
       </c>
       <c r="E72" t="n">
         <v>1.627289541457434</v>
@@ -1673,7 +1673,7 @@
         <v>368950.2137099184</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.09654146748983994</v>
+        <v>6.186643839689746</v>
       </c>
       <c r="E73" t="n">
         <v>1.56053847525299</v>
@@ -1741,7 +1741,7 @@
         <v>402878.9788312819</v>
       </c>
       <c r="D77" t="n">
-        <v>-3.074548084229892</v>
+        <v>3.208637222949694</v>
       </c>
       <c r="E77" t="n">
         <v>1.596893538201631</v>
@@ -1758,7 +1758,7 @@
         <v>404706.536670324</v>
       </c>
       <c r="D78" t="n">
-        <v>-2.369038155241181</v>
+        <v>3.914147151938405</v>
       </c>
       <c r="E78" t="n">
         <v>1.644942699239283</v>
@@ -1775,7 +1775,7 @@
         <v>397050.5960731056</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.644339336647513</v>
+        <v>4.638845970532073</v>
       </c>
       <c r="E79" t="n">
         <v>1.656650455126159</v>
@@ -1792,7 +1792,7 @@
         <v>385546.5821880145</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.8841396993916519</v>
+        <v>5.399045607787935</v>
       </c>
       <c r="E80" t="n">
         <v>1.622084653150492</v>
@@ -1809,7 +1809,7 @@
         <v>373183.1831588795</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.08237597233737937</v>
+        <v>6.200809334842207</v>
       </c>
       <c r="E81" t="n">
         <v>1.554973508005924</v>
@@ -1877,7 +1877,7 @@
         <v>400538.7620053783</v>
       </c>
       <c r="D85" t="n">
-        <v>-3.073659053999617</v>
+        <v>3.209526253179969</v>
       </c>
       <c r="E85" t="n">
         <v>1.601313127004322</v>
@@ -1894,7 +1894,7 @@
         <v>404046.4065336927</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.365506535262674</v>
+        <v>3.917678771916913</v>
       </c>
       <c r="E86" t="n">
         <v>1.648234934998551</v>
@@ -1911,7 +1911,7 @@
         <v>395389.5556702795</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.639726318108312</v>
+        <v>4.643458989071274</v>
       </c>
       <c r="E87" t="n">
         <v>1.657252102708872</v>
@@ -1928,7 +1928,7 @@
         <v>382838.8824250228</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.8693701593727705</v>
+        <v>5.413815147806815</v>
       </c>
       <c r="E88" t="n">
         <v>1.618927459569032</v>
@@ -1945,7 +1945,7 @@
         <v>373424.136417669</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.05853459231087577</v>
+        <v>6.22465071486871</v>
       </c>
       <c r="E89" t="n">
         <v>1.549137111832768</v>
@@ -2013,7 +2013,7 @@
         <v>398765.333793328</v>
       </c>
       <c r="D93" t="n">
-        <v>-3.07910746195443</v>
+        <v>3.204077845225156</v>
       </c>
       <c r="E93" t="n">
         <v>1.604092513747934</v>
@@ -2030,7 +2030,7 @@
         <v>404042.9131546381</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.367349689758356</v>
+        <v>3.915835617421231</v>
       </c>
       <c r="E94" t="n">
         <v>1.651301553097458</v>
@@ -2047,7 +2047,7 @@
         <v>395400.3981884575</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.645551069716851</v>
+        <v>4.637634237462736</v>
       </c>
       <c r="E95" t="n">
         <v>1.659204039450272</v>
@@ -2064,7 +2064,7 @@
         <v>380000.7709794471</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.8717015272641522</v>
+        <v>5.411483779915434</v>
       </c>
       <c r="E96" t="n">
         <v>1.618920277664519</v>
@@ -2081,7 +2081,7 @@
         <v>369907.2014623105</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.0435285251797155</v>
+        <v>6.239656781999871</v>
       </c>
       <c r="E97" t="n">
         <v>1.545889298912431</v>
@@ -2149,7 +2149,7 @@
         <v>398493.3708201948</v>
       </c>
       <c r="D101" t="n">
-        <v>-3.084122118352035</v>
+        <v>3.199063188827551</v>
       </c>
       <c r="E101" t="n">
         <v>1.604791780809026</v>
@@ -2166,7 +2166,7 @@
         <v>404677.1911691909</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.369455459274647</v>
+        <v>3.913729847904939</v>
       </c>
       <c r="E102" t="n">
         <v>1.652649425996766</v>
@@ -2183,7 +2183,7 @@
         <v>397602.5312843299</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.65448452262607</v>
+        <v>4.628700784553517</v>
       </c>
       <c r="E103" t="n">
         <v>1.660499641965912</v>
@@ -2200,7 +2200,7 @@
         <v>379955.719576049</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.8897371208865361</v>
+        <v>5.39344818629305</v>
       </c>
       <c r="E104" t="n">
         <v>1.620745545826305</v>
@@ -2217,7 +2217,7 @@
         <v>365509.5900417501</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.05162014270622839</v>
+        <v>6.231565164473357</v>
       </c>
       <c r="E105" t="n">
         <v>1.546422221919786</v>
@@ -2285,7 +2285,7 @@
         <v>399714.9787800054</v>
       </c>
       <c r="D109" t="n">
-        <v>-3.081645849801426</v>
+        <v>3.201539457378161</v>
       </c>
       <c r="E109" t="n">
         <v>1.604741114392777</v>
@@ -2302,7 +2302,7 @@
         <v>405564.3201968322</v>
       </c>
       <c r="D110" t="n">
-        <v>-2.366589529306381</v>
+        <v>3.916595777873205</v>
       </c>
       <c r="E110" t="n">
         <v>1.652069060279323</v>
@@ -2319,7 +2319,7 @@
         <v>400831.4559937252</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.656845161667491</v>
+        <v>4.626340145512096</v>
       </c>
       <c r="E111" t="n">
         <v>1.659467770051995</v>
@@ -2336,7 +2336,7 @@
         <v>383720.3432737407</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9095676189854145</v>
+        <v>5.373617688194171</v>
       </c>
       <c r="E112" t="n">
         <v>1.621271911121263</v>
@@ -2353,7 +2353,7 @@
         <v>364345.5378129097</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.08164894236120057</v>
+        <v>6.201536364818386</v>
       </c>
       <c r="E113" t="n">
         <v>1.548994925738336</v>
@@ -2421,7 +2421,7 @@
         <v>401257.0877884252</v>
       </c>
       <c r="D117" t="n">
-        <v>-3.069500899949144</v>
+        <v>3.213684407230442</v>
       </c>
       <c r="E117" t="n">
         <v>1.606091754076077</v>
@@ -2438,7 +2438,7 @@
         <v>406260.0601437479</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.356923159882659</v>
+        <v>3.926262147296927</v>
       </c>
       <c r="E118" t="n">
         <v>1.650991916551507</v>
@@ -2455,7 +2455,7 @@
         <v>403136.4661429437</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.648144411911123</v>
+        <v>4.635040895268463</v>
       </c>
       <c r="E119" t="n">
         <v>1.656327523713408</v>
@@ -2472,7 +2472,7 @@
         <v>389160.2062903846</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.9152468159249731</v>
+        <v>5.367938491254613</v>
       </c>
       <c r="E120" t="n">
         <v>1.618323442704147</v>
@@ -2489,7 +2489,7 @@
         <v>368385.5025835852</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.113346483446279</v>
+        <v>6.169838823733308</v>
       </c>
       <c r="E121" t="n">
         <v>1.549738455438658</v>
@@ -2557,7 +2557,7 @@
         <v>401386.2018217307</v>
       </c>
       <c r="D125" t="n">
-        <v>-3.052961288101804</v>
+        <v>3.230224019077783</v>
       </c>
       <c r="E125" t="n">
         <v>1.609941122740684</v>
@@ -2574,7 +2574,7 @@
         <v>406458.34876244</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.343382879525348</v>
+        <v>3.939802427654238</v>
       </c>
       <c r="E126" t="n">
         <v>1.651370101624324</v>
@@ -2591,7 +2591,7 @@
         <v>403410.2053694947</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.632523488672234</v>
+        <v>4.650661818507352</v>
       </c>
       <c r="E127" t="n">
         <v>1.653084231351028</v>
@@ -2608,7 +2608,7 @@
         <v>392722.4227141889</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9028265564372533</v>
+        <v>5.380358750742333</v>
       </c>
       <c r="E128" t="n">
         <v>1.612795027987241</v>
@@ -2625,7 +2625,7 @@
         <v>375013.6130590044</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.123882689634593</v>
+        <v>6.159302617544993</v>
       </c>
       <c r="E129" t="n">
         <v>1.54638539628227</v>
@@ -2693,7 +2693,7 @@
         <v>399077.9198074497</v>
       </c>
       <c r="D133" t="n">
-        <v>-3.042080315269131</v>
+        <v>3.241104991910455</v>
       </c>
       <c r="E133" t="n">
         <v>1.61518514152817</v>
@@ -2710,7 +2710,7 @@
         <v>405998.1173138356</v>
       </c>
       <c r="D134" t="n">
-        <v>-2.33185110342637</v>
+        <v>3.951334203753216</v>
       </c>
       <c r="E134" t="n">
         <v>1.653920792171851</v>
@@ -2727,7 +2727,7 @@
         <v>402211.663797475</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.61916866203556</v>
+        <v>4.664016645144025</v>
       </c>
       <c r="E135" t="n">
         <v>1.65183380432911</v>
@@ -2744,7 +2744,7 @@
         <v>392582.5194532102</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.8830338955555028</v>
+        <v>5.400151411624083</v>
       </c>
       <c r="E136" t="n">
         <v>1.607706374529514</v>
@@ -2761,7 +2761,7 @@
         <v>379383.3623728565</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1096394457060921</v>
+        <v>6.173545861473494</v>
       </c>
       <c r="E137" t="n">
         <v>1.540564220658091</v>
@@ -2829,7 +2829,7 @@
         <v>395169.5132926173</v>
       </c>
       <c r="D141" t="n">
-        <v>-3.04433516093358</v>
+        <v>3.238850146246006</v>
       </c>
       <c r="E141" t="n">
         <v>1.619218639821989</v>
@@ -2846,7 +2846,7 @@
         <v>404904.7844229708</v>
       </c>
       <c r="D142" t="n">
-        <v>-2.327244539211743</v>
+        <v>3.955940767967844</v>
       </c>
       <c r="E142" t="n">
         <v>1.65732519747525</v>
@@ -2863,7 +2863,7 @@
         <v>401101.4598124761</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.614874102493427</v>
+        <v>4.668311204686159</v>
       </c>
       <c r="E143" t="n">
         <v>1.652882887727745</v>
@@ -2880,7 +2880,7 @@
         <v>390014.3311528091</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.8714436679978221</v>
+        <v>5.411741639181765</v>
       </c>
       <c r="E144" t="n">
         <v>1.605549268709053</v>
@@ -2897,7 +2897,7 @@
         <v>378933.2550755719</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.08711586002666838</v>
+        <v>6.196069447152918</v>
       </c>
       <c r="E145" t="n">
         <v>1.535805256609738</v>
@@ -2965,7 +2965,7 @@
         <v>392109.0778671018</v>
       </c>
       <c r="D149" t="n">
-        <v>-3.057151001845286</v>
+        <v>3.2260343053343</v>
       </c>
       <c r="E149" t="n">
         <v>1.620270320633413</v>
@@ -2982,7 +2982,7 @@
         <v>403603.2339066915</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.329866460548256</v>
+        <v>3.953318846631331</v>
       </c>
       <c r="E150" t="n">
         <v>1.659334937917782</v>
@@ -2999,7 +2999,7 @@
         <v>401227.6865499638</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.618956067490809</v>
+        <v>4.664229239688777</v>
       </c>
       <c r="E151" t="n">
         <v>1.654375095522196</v>
@@ -3016,7 +3016,7 @@
         <v>388059.0182540722</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.8757258885617127</v>
+        <v>5.407459418617874</v>
       </c>
       <c r="E152" t="n">
         <v>1.606184945600586</v>
@@ -3033,7 +3033,7 @@
         <v>375148.5603584155</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.07707822938827746</v>
+        <v>6.206107077791309</v>
       </c>
       <c r="E153" t="n">
         <v>1.534366599693392</v>
@@ -3101,7 +3101,7 @@
         <v>391815.9880011281</v>
       </c>
       <c r="D157" t="n">
-        <v>-3.068417713645178</v>
+        <v>3.214767593534408</v>
       </c>
       <c r="E157" t="n">
         <v>1.619312358121539</v>
@@ -3118,7 +3118,7 @@
         <v>402885.4245849471</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.334625024094287</v>
+        <v>3.948560283085299</v>
       </c>
       <c r="E158" t="n">
         <v>1.65890772676649</v>
@@ -3135,7 +3135,7 @@
         <v>402568.7391226368</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.624690979847213</v>
+        <v>4.658494327332373</v>
       </c>
       <c r="E159" t="n">
         <v>1.654060739021096</v>
@@ -3152,7 +3152,7 @@
         <v>388897.4375524297</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.8901719886355548</v>
+        <v>5.393013318544032</v>
       </c>
       <c r="E160" t="n">
         <v>1.606993622645365</v>
@@ -3169,7 +3169,7 @@
         <v>371934.2420627386</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.08862011479791931</v>
+        <v>6.194565192381667</v>
       </c>
       <c r="E161" t="n">
         <v>1.535598890672871</v>
@@ -3237,7 +3237,7 @@
         <v>393788.6800118134</v>
       </c>
       <c r="D165" t="n">
-        <v>-3.067040515585866</v>
+        <v>3.21614479159372</v>
       </c>
       <c r="E165" t="n">
         <v>1.619097850413528</v>
@@ -3254,7 +3254,7 @@
         <v>403247.5961848408</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.334432583379912</v>
+        <v>3.948752723799675</v>
       </c>
       <c r="E166" t="n">
         <v>1.657145786712872</v>
@@ -3271,7 +3271,7 @@
         <v>404332.3823381982</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.624943313497287</v>
+        <v>4.658241993682299</v>
       </c>
       <c r="E167" t="n">
         <v>1.651393051742166</v>
@@ -3288,7 +3288,7 @@
         <v>392277.7993734998</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.9018577368345566</v>
+        <v>5.38132757034503</v>
       </c>
       <c r="E168" t="n">
         <v>1.605421833385523</v>
@@ -3305,7 +3305,7 @@
         <v>372423.6250763085</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1132563726480016</v>
+        <v>6.169928934531585</v>
       </c>
       <c r="E169" t="n">
         <v>1.536664505724692</v>
@@ -3373,7 +3373,7 @@
         <v>395726.8968546311</v>
       </c>
       <c r="D173" t="n">
-        <v>-3.05223615314152</v>
+        <v>3.230949154038067</v>
       </c>
       <c r="E173" t="n">
         <v>1.621453207622598</v>
@@ -3390,7 +3390,7 @@
         <v>404295.464879489</v>
       </c>
       <c r="D174" t="n">
-        <v>-2.325540634706293</v>
+        <v>3.957644672473294</v>
       </c>
       <c r="E174" t="n">
         <v>1.656099623193896</v>
@@ -3407,7 +3407,7 @@
         <v>405677.3226651187</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.616715591429769</v>
+        <v>4.666469715749818</v>
       </c>
       <c r="E175" t="n">
         <v>1.647731481953317</v>
@@ -3424,7 +3424,7 @@
         <v>396200.7924473253</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.9014599283049476</v>
+        <v>5.381725378874639</v>
       </c>
       <c r="E176" t="n">
         <v>1.601194349177636</v>
@@ -3441,7 +3441,7 @@
         <v>376681.0253595877</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1331545771670295</v>
+        <v>6.150030730012556</v>
       </c>
       <c r="E177" t="n">
         <v>1.535168107895831</v>
@@ -3509,7 +3509,7 @@
         <v>395539.3570389822</v>
       </c>
       <c r="D181" t="n">
-        <v>-3.032640758505316</v>
+        <v>3.25054454867427</v>
       </c>
       <c r="E181" t="n">
         <v>1.62602159651067</v>
@@ -3526,7 +3526,7 @@
         <v>405026.3269513399</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.310138952095631</v>
+        <v>3.973046355083956</v>
       </c>
       <c r="E182" t="n">
         <v>1.656982999852489</v>
@@ -3543,7 +3543,7 @@
         <v>406105.3610472339</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.602203952439065</v>
+        <v>4.680981354740521</v>
       </c>
       <c r="E183" t="n">
         <v>1.644943229752381</v>
@@ -3560,7 +3560,7 @@
         <v>398640.4776349664</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.888548604715075</v>
+        <v>5.394636702464512</v>
       </c>
       <c r="E184" t="n">
         <v>1.596030815666582</v>
@@ -3577,7 +3577,7 @@
         <v>382104.1254709632</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1357073830683024</v>
+        <v>6.147477924111284</v>
       </c>
       <c r="E185" t="n">
         <v>1.531118950393081</v>
@@ -3645,7 +3645,7 @@
         <v>392656.2680040075</v>
       </c>
       <c r="D189" t="n">
-        <v>-3.019585781435472</v>
+        <v>3.263599525744114</v>
       </c>
       <c r="E189" t="n">
         <v>1.630870059620094</v>
@@ -3662,7 +3662,7 @@
         <v>404604.8629818273</v>
       </c>
       <c r="D190" t="n">
-        <v>-2.294555732800291</v>
+        <v>3.988629574379295</v>
       </c>
       <c r="E190" t="n">
         <v>1.659438915944379</v>
@@ -3679,7 +3679,7 @@
         <v>405619.3993694634</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.587036044821092</v>
+        <v>4.696149262358494</v>
       </c>
       <c r="E191" t="n">
         <v>1.64402624491946</v>
@@ -3696,7 +3696,7 @@
         <v>398714.7641333389</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.8700430720633743</v>
+        <v>5.413142235116212</v>
       </c>
       <c r="E192" t="n">
         <v>1.592010920873794</v>
@@ -3713,7 +3713,7 @@
         <v>385625.8383557494</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.1209165269277217</v>
+        <v>6.162268780251864</v>
       </c>
       <c r="E193" t="n">
         <v>1.526409060418746</v>
@@ -3781,7 +3781,7 @@
         <v>388255.6888571031</v>
       </c>
       <c r="D197" t="n">
-        <v>-3.020535769782696</v>
+        <v>3.26264953739689</v>
       </c>
       <c r="E197" t="n">
         <v>1.63377809096336</v>
@@ -3798,7 +3798,7 @@
         <v>402887.164574877</v>
       </c>
       <c r="D198" t="n">
-        <v>-2.285299879432578</v>
+        <v>3.997885427747009</v>
       </c>
       <c r="E198" t="n">
         <v>1.661926490691795</v>
@@ -3815,7 +3815,7 @@
         <v>404717.0575139364</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.577006147753219</v>
+        <v>4.706179159426368</v>
       </c>
       <c r="E199" t="n">
         <v>1.644537825832453</v>
@@ -3832,7 +3832,7 @@
         <v>397026.9138548464</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.8557166339256268</v>
+        <v>5.427468673253959</v>
       </c>
       <c r="E200" t="n">
         <v>1.590229498440973</v>
@@ -3849,7 +3849,7 @@
         <v>385617.0090130112</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.09930573436440104</v>
+        <v>6.183879572815185</v>
       </c>
       <c r="E201" t="n">
         <v>1.523118953623156</v>
@@ -3917,7 +3917,7 @@
         <v>384672.7964494519</v>
       </c>
       <c r="D205" t="n">
-        <v>-3.034439874190594</v>
+        <v>3.248745432988993</v>
       </c>
       <c r="E205" t="n">
         <v>1.633718796542473</v>
@@ -3934,7 +3934,7 @@
         <v>400510.1189576113</v>
       </c>
       <c r="D206" t="n">
-        <v>-2.285349953100415</v>
+        <v>3.997835354079172</v>
       </c>
       <c r="E206" t="n">
         <v>1.662747728584592</v>
@@ -3951,7 +3951,7 @@
         <v>404092.8542264885</v>
       </c>
       <c r="D207" t="n">
-        <v>-1.574688793510573</v>
+        <v>4.708496513669013</v>
       </c>
       <c r="E207" t="n">
         <v>1.644879164566078</v>
@@ -3968,7 +3968,7 @@
         <v>395349.0660236384</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.8527219699145094</v>
+        <v>5.430463337265077</v>
       </c>
       <c r="E208" t="n">
         <v>1.590126562089416</v>
@@ -3985,7 +3985,7 @@
         <v>382761.1697647569</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.08565220939371931</v>
+        <v>6.197533097785866</v>
       </c>
       <c r="E209" t="n">
         <v>1.522200338503448</v>
@@ -4053,7 +4053,7 @@
         <v>383988.9065301812</v>
       </c>
       <c r="D213" t="n">
-        <v>-3.050832367015291</v>
+        <v>3.232352940164295</v>
       </c>
       <c r="E213" t="n">
         <v>1.631968126527838</v>
@@ -4070,7 +4070,7 @@
         <v>398645.6056881553</v>
       </c>
       <c r="D214" t="n">
-        <v>-2.292044259704525</v>
+        <v>3.991141047475061</v>
       </c>
       <c r="E214" t="n">
         <v>1.661336751208021</v>
@@ -4087,7 +4087,7 @@
         <v>404147.9257147642</v>
       </c>
       <c r="D215" t="n">
-        <v>-1.577721209469158</v>
+        <v>4.705464097710427</v>
       </c>
       <c r="E215" t="n">
         <v>1.643424418516971</v>
@@ -4104,7 +4104,7 @@
         <v>395540.395636017</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.860520752357012</v>
+        <v>5.422664554822575</v>
       </c>
       <c r="E216" t="n">
         <v>1.589714092579105</v>
@@ -4121,7 +4121,7 @@
         <v>379888.4205490169</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.09049116938480051</v>
+        <v>6.192694137794786</v>
       </c>
       <c r="E217" t="n">
         <v>1.522820704032444</v>
@@ -4189,7 +4189,7 @@
         <v>386291.5530612851</v>
       </c>
       <c r="D221" t="n">
-        <v>-3.056004044729004</v>
+        <v>3.227181262450582</v>
       </c>
       <c r="E221" t="n">
         <v>1.631434573771173</v>
@@ -4206,7 +4206,7 @@
         <v>398366.0899413627</v>
       </c>
       <c r="D222" t="n">
-        <v>-2.29783168436674</v>
+        <v>3.985353622812846</v>
       </c>
       <c r="E222" t="n">
         <v>1.658969247562466</v>
@@ -4223,7 +4223,7 @@
         <v>404762.8064991243</v>
       </c>
       <c r="D223" t="n">
-        <v>-1.580311523052113</v>
+        <v>4.702873784127473</v>
       </c>
       <c r="E223" t="n">
         <v>1.639966194418763</v>
@@ -4240,7 +4240,7 @@
         <v>398023.4617165201</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.8702899730522491</v>
+        <v>5.412895334127337</v>
       </c>
       <c r="E224" t="n">
         <v>1.587109973525895</v>
@@ -4257,7 +4257,7 @@
         <v>380246.3406111094</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.1110232138873699</v>
+        <v>6.172162093292217</v>
       </c>
       <c r="E225" t="n">
         <v>1.52274816205746</v>
@@ -4325,7 +4325,7 @@
         <v>389167.3469220825</v>
       </c>
       <c r="D229" t="n">
-        <v>-3.044129164421702</v>
+        <v>3.239056142757884</v>
       </c>
       <c r="E229" t="n">
         <v>1.634088412994772</v>
@@ -4342,7 +4342,7 @@
         <v>399711.6379444771</v>
       </c>
       <c r="D230" t="n">
-        <v>-2.294926118669934</v>
+        <v>3.988259188509653</v>
       </c>
       <c r="E230" t="n">
         <v>1.657827535168737</v>
@@ -4359,7 +4359,7 @@
         <v>405559.2148830066</v>
       </c>
       <c r="D231" t="n">
-        <v>-1.577223606099728</v>
+        <v>4.705961701079858</v>
       </c>
       <c r="E231" t="n">
         <v>1.636075158216606</v>
@@ -4376,7 +4376,7 @@
         <v>401288.0902135041</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.8718463170737221</v>
+        <v>5.411338990105865</v>
       </c>
       <c r="E232" t="n">
         <v>1.582408079782732</v>
@@ -4393,7 +4393,7 @@
         <v>384558.7037353978</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.1306920775521689</v>
+        <v>6.152493229627417</v>
       </c>
       <c r="E233" t="n">
         <v>1.520293404532532</v>
@@ -4461,7 +4461,7 @@
         <v>389368.5111945564</v>
       </c>
       <c r="D237" t="n">
-        <v>-3.023410063169941</v>
+        <v>3.259775244009645</v>
       </c>
       <c r="E237" t="n">
         <v>1.639099488935771</v>
@@ -4478,7 +4478,7 @@
         <v>401271.0103019936</v>
       </c>
       <c r="D238" t="n">
-        <v>-2.281707368306138</v>
+        <v>4.001477938873449</v>
       </c>
       <c r="E238" t="n">
         <v>1.658944316734794</v>
@@ -4495,7 +4495,7 @@
         <v>406198.5161085345</v>
       </c>
       <c r="D239" t="n">
-        <v>-1.567283686400222</v>
+        <v>4.715901620779364</v>
       </c>
       <c r="E239" t="n">
         <v>1.633662475538927</v>
@@ -4512,7 +4512,7 @@
         <v>403309.8958130944</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.8622226452841089</v>
+        <v>5.420962661895477</v>
       </c>
       <c r="E240" t="n">
         <v>1.577635774870059</v>
@@ -4529,7 +4529,7 @@
         <v>390016.6130104823</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.1338401745291584</v>
+        <v>6.149345132650428</v>
       </c>
       <c r="E241" t="n">
         <v>1.516154279719307</v>
@@ -4597,7 +4597,7 @@
         <v>385495.3394609045</v>
       </c>
       <c r="D245" t="n">
-        <v>-3.010775199366854</v>
+        <v>3.272410107812732</v>
       </c>
       <c r="E245" t="n">
         <v>1.643538703487528</v>
@@ -4614,7 +4614,7 @@
         <v>401090.4517392397</v>
       </c>
       <c r="D246" t="n">
-        <v>-2.265115119042459</v>
+        <v>4.018070188137127</v>
       </c>
       <c r="E246" t="n">
         <v>1.661225631149846</v>
@@ -4631,7 +4631,7 @@
         <v>406369.636448732</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.554023858704319</v>
+        <v>4.729161448475267</v>
       </c>
       <c r="E247" t="n">
         <v>1.633139745082619</v>
@@ -4648,7 +4648,7 @@
         <v>403323.1979827061</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.8470960191538954</v>
+        <v>5.436089288025691</v>
       </c>
       <c r="E248" t="n">
         <v>1.574704718584165</v>
@@ -4665,7 +4665,7 @@
         <v>393054.2073691384</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.1197898400242141</v>
+        <v>6.163395467155372</v>
       </c>
       <c r="E249" t="n">
         <v>1.512584751519934</v>
@@ -4733,7 +4733,7 @@
         <v>379540.090760154</v>
       </c>
       <c r="D253" t="n">
-        <v>-3.018509245212557</v>
+        <v>3.264676061967029</v>
       </c>
       <c r="E253" t="n">
         <v>1.64478706474144</v>
@@ -4750,7 +4750,7 @@
         <v>398377.7767258108</v>
       </c>
       <c r="D254" t="n">
-        <v>-2.255766507585453</v>
+        <v>4.027418799594133</v>
       </c>
       <c r="E254" t="n">
         <v>1.662530903551844</v>
@@ -4767,7 +4767,7 @@
         <v>405803.9704008595</v>
       </c>
       <c r="D255" t="n">
-        <v>-1.543273435725703</v>
+        <v>4.739911871453883</v>
       </c>
       <c r="E255" t="n">
         <v>1.633120888835803</v>
@@ -4784,7 +4784,7 @@
         <v>402131.0080212257</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.8351128531002829</v>
+        <v>5.448072454079304</v>
       </c>
       <c r="E256" t="n">
         <v>1.573674680933365</v>
@@ -4801,7 +4801,7 @@
         <v>392502.3075066076</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.1007708940997358</v>
+        <v>6.182414413079851</v>
       </c>
       <c r="E257" t="n">
         <v>1.511043405725258</v>
@@ -4869,7 +4869,7 @@
         <v>375531.7247204896</v>
       </c>
       <c r="D261" t="n">
-        <v>-3.0423667412741</v>
+        <v>3.240818565905486</v>
       </c>
       <c r="E261" t="n">
         <v>1.642919177277943</v>
@@ -4886,7 +4886,7 @@
         <v>394438.4809495636</v>
       </c>
       <c r="D262" t="n">
-        <v>-2.259292702227417</v>
+        <v>4.023892604952169</v>
       </c>
       <c r="E262" t="n">
         <v>1.661596008070936</v>
@@ -4903,7 +4903,7 @@
         <v>404564.3460999875</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.539184432288523</v>
+        <v>4.744000874891062</v>
       </c>
       <c r="E263" t="n">
         <v>1.63183818660043</v>
@@ -4920,7 +4920,7 @@
         <v>401135.5580757963</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.8313204282755171</v>
+        <v>5.451864878904069</v>
       </c>
       <c r="E264" t="n">
         <v>1.572903991323773</v>
@@ -4937,7 +4937,7 @@
         <v>389996.5192055727</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.09035152116772238</v>
+        <v>6.192833786011864</v>
       </c>
       <c r="E265" t="n">
         <v>1.511038165451727</v>
@@ -5005,7 +5005,7 @@
         <v>375846.2853546703</v>
       </c>
       <c r="D269" t="n">
-        <v>-3.063800013198022</v>
+        <v>3.219385293981564</v>
       </c>
       <c r="E269" t="n">
         <v>1.640843290788214</v>
@@ -5022,7 +5022,7 @@
         <v>391730.1229144686</v>
       </c>
       <c r="D270" t="n">
-        <v>-2.271060974445907</v>
+        <v>4.012124332733679</v>
       </c>
       <c r="E270" t="n">
         <v>1.65911740373062</v>
@@ -5039,7 +5039,7 @@
         <v>403245.0362626967</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.541250315240504</v>
+        <v>4.741934991939083</v>
       </c>
       <c r="E271" t="n">
         <v>1.628761755733699</v>
@@ -5056,7 +5056,7 @@
         <v>401259.0616748974</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.8343729082973388</v>
+        <v>5.448812398882247</v>
       </c>
       <c r="E272" t="n">
         <v>1.570700987365508</v>
@@ -5073,7 +5073,7 @@
         <v>388278.9754835072</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.09388347949875175</v>
+        <v>6.189301827680834</v>
       </c>
       <c r="E273" t="n">
         <v>1.51081221719838</v>
@@ -5141,7 +5141,7 @@
         <v>379129.7122431786</v>
       </c>
       <c r="D277" t="n">
-        <v>-3.066989894471804</v>
+        <v>3.216195412707783</v>
       </c>
       <c r="E277" t="n">
         <v>1.641398511739389</v>
@@ -5158,7 +5158,7 @@
         <v>391713.1100285635</v>
       </c>
       <c r="D278" t="n">
-        <v>-2.279628879552721</v>
+        <v>4.003556427626865</v>
       </c>
       <c r="E278" t="n">
         <v>1.657033613403571</v>
@@ -5175,7 +5175,7 @@
         <v>402642.7658394511</v>
       </c>
       <c r="D279" t="n">
-        <v>-1.54449527874555</v>
+        <v>4.738690028434036</v>
       </c>
       <c r="E279" t="n">
         <v>1.624933114300172</v>
@@ -5192,7 +5192,7 @@
         <v>402514.6659952872</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.8384497857597371</v>
+        <v>5.444735521419849</v>
       </c>
       <c r="E280" t="n">
         <v>1.56682554808993</v>
@@ -5209,7 +5209,7 @@
         <v>389158.3291570027</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.1060514264937971</v>
+        <v>6.177133880685789</v>
       </c>
       <c r="E281" t="n">
         <v>1.509003577064163</v>
@@ -5277,7 +5277,7 @@
         <v>381987.0617665761</v>
       </c>
       <c r="D285" t="n">
-        <v>-3.051326692634001</v>
+        <v>3.231858614545585</v>
       </c>
       <c r="E285" t="n">
         <v>1.644850836466417</v>
@@ -5294,7 +5294,7 @@
         <v>393677.0494984709</v>
       </c>
       <c r="D286" t="n">
-        <v>-2.276200592343142</v>
+        <v>4.006984714836443</v>
       </c>
       <c r="E286" t="n">
         <v>1.656686981082559</v>
@@ -5311,7 +5311,7 @@
         <v>403086.6911440582</v>
       </c>
       <c r="D287" t="n">
-        <v>-1.542927744814397</v>
+        <v>4.740257562365189</v>
       </c>
       <c r="E287" t="n">
         <v>1.621874946262285</v>
@@ -5328,7 +5328,7 @@
         <v>404241.2211906054</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.8375630350499641</v>
+        <v>5.445622272129622</v>
       </c>
       <c r="E288" t="n">
         <v>1.562477052138851</v>
@@ -5345,7 +5345,7 @@
         <v>392440.337810219</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.1159351498430863</v>
+        <v>6.1672501573365</v>
       </c>
       <c r="E289" t="n">
         <v>1.505803222308031</v>
@@ -5413,7 +5413,7 @@
         <v>381727.0995435181</v>
       </c>
       <c r="D293" t="n">
-        <v>-3.028803175435302</v>
+        <v>3.254382131744284</v>
       </c>
       <c r="E293" t="n">
         <v>1.649288894668422</v>
@@ -5430,7 +5430,7 @@
         <v>395522.6345314347</v>
       </c>
       <c r="D294" t="n">
-        <v>-2.260880931045517</v>
+        <v>4.022304376134069</v>
       </c>
       <c r="E294" t="n">
         <v>1.657808604030044</v>
@@ -5447,7 +5447,7 @@
         <v>404117.1970487701</v>
       </c>
       <c r="D295" t="n">
-        <v>-1.533676772941255</v>
+        <v>4.749508534238331</v>
       </c>
       <c r="E295" t="n">
         <v>1.620274015923171</v>
@@ -5464,7 +5464,7 @@
         <v>405598.7373465229</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.8291084440610805</v>
+        <v>5.454076863118505</v>
       </c>
       <c r="E296" t="n">
         <v>1.559079105921247</v>
@@ -5481,7 +5481,7 @@
         <v>396345.3626284866</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.1150344210364089</v>
+        <v>6.168150886143177</v>
       </c>
       <c r="E297" t="n">
         <v>1.502592676029775</v>
@@ -5549,7 +5549,7 @@
         <v>377801.5997404007</v>
       </c>
       <c r="D301" t="n">
-        <v>-3.015094571381969</v>
+        <v>3.268090735797617</v>
       </c>
       <c r="E301" t="n">
         <v>1.652288738964798</v>
@@ -5566,7 +5566,7 @@
         <v>395307.1056366949</v>
       </c>
       <c r="D302" t="n">
-        <v>-2.241587068179798</v>
+        <v>4.041598238999788</v>
       </c>
       <c r="E302" t="n">
         <v>1.658997047330611</v>
@@ -5583,7 +5583,7 @@
         <v>404811.0565633782</v>
       </c>
       <c r="D303" t="n">
-        <v>-1.518817220508558</v>
+        <v>4.764368086671028</v>
       </c>
       <c r="E303" t="n">
         <v>1.61955756156487</v>
@@ -5600,7 +5600,7 @@
         <v>406019.277198823</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.8150560169596144</v>
+        <v>5.468129290219972</v>
       </c>
       <c r="E304" t="n">
         <v>1.557155091845018</v>
@@ -5617,7 +5617,7 @@
         <v>398833.8017685208</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.1022704225800068</v>
+        <v>6.180914884599579</v>
       </c>
       <c r="E305" t="n">
         <v>1.500655828643656</v>
@@ -5685,7 +5685,7 @@
         <v>372048.1045843956</v>
       </c>
       <c r="D309" t="n">
-        <v>-3.021264911454776</v>
+        <v>3.26192039572481</v>
       </c>
       <c r="E309" t="n">
         <v>1.652364127364101</v>
@@ -5702,7 +5702,7 @@
         <v>392353.6960751822</v>
       </c>
       <c r="D310" t="n">
-        <v>-2.229054198640497</v>
+        <v>4.054131108539089</v>
       </c>
       <c r="E310" t="n">
         <v>1.658820131706693</v>
@@ -5719,7 +5719,7 @@
         <v>404376.2995774864</v>
       </c>
       <c r="D311" t="n">
-        <v>-1.504060423425504</v>
+        <v>4.779124883754082</v>
       </c>
       <c r="E311" t="n">
         <v>1.618420406158366</v>
@@ -5736,7 +5736,7 @@
         <v>405504.3660052577</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.8007190209824628</v>
+        <v>5.482466286197123</v>
       </c>
       <c r="E312" t="n">
         <v>1.556030786217827</v>
@@ -5753,7 +5753,7 @@
         <v>398867.8559312556</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.08401282438816882</v>
+        <v>6.199172482791417</v>
       </c>
       <c r="E313" t="n">
         <v>1.500218544927444</v>
@@ -5821,7 +5821,7 @@
         <v>367906.0033982504</v>
       </c>
       <c r="D317" t="n">
-        <v>-3.046366669349899</v>
+        <v>3.236818637829687</v>
       </c>
       <c r="E317" t="n">
         <v>1.650071007495766</v>
@@ -5838,7 +5838,7 @@
         <v>387737.7339798977</v>
       </c>
       <c r="D318" t="n">
-        <v>-2.231079290917382</v>
+        <v>4.052106016262204</v>
       </c>
       <c r="E318" t="n">
         <v>1.65682821394644</v>
@@ -5855,7 +5855,7 @@
         <v>402600.2575862603</v>
       </c>
       <c r="D319" t="n">
-        <v>-1.495627909406087</v>
+        <v>4.787557397773499</v>
       </c>
       <c r="E319" t="n">
         <v>1.615810508779471</v>
@@ -5872,7 +5872,7 @@
         <v>404623.2369633836</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.7916914127671641</v>
+        <v>5.491493894412422</v>
       </c>
       <c r="E320" t="n">
         <v>1.554334393016251</v>
@@ -5889,7 +5889,7 @@
         <v>397074.1023211543</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.07036333672938211</v>
+        <v>6.212821970450204</v>
       </c>
       <c r="E321" t="n">
         <v>1.500306104286322</v>
@@ -5957,7 +5957,7 @@
         <v>368152.9948571003</v>
       </c>
       <c r="D325" t="n">
-        <v>-3.074641534977948</v>
+        <v>3.208543772201638</v>
       </c>
       <c r="E325" t="n">
         <v>1.648060656375121</v>
@@ -5974,7 +5974,7 @@
         <v>383996.4558154303</v>
       </c>
       <c r="D326" t="n">
-        <v>-2.246826520245676</v>
+        <v>4.03635878693391</v>
       </c>
       <c r="E326" t="n">
         <v>1.654075962101625</v>
@@ -5991,7 +5991,7 @@
         <v>400071.9542496298</v>
       </c>
       <c r="D327" t="n">
-        <v>-1.496702621196149</v>
+        <v>4.786482685983438</v>
       </c>
       <c r="E327" t="n">
         <v>1.611872662070319</v>
@@ -6008,7 +6008,7 @@
         <v>404083.6019445088</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.790305679328926</v>
+        <v>5.492879627850661</v>
       </c>
       <c r="E328" t="n">
         <v>1.55107221101849</v>
@@ -6025,7 +6025,7 @@
         <v>395474.5398938427</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.06877835454346393</v>
+        <v>6.214406952636122</v>
       </c>
       <c r="E329" t="n">
         <v>1.499402732467921</v>
@@ -6093,7 +6093,7 @@
         <v>372215.3709747556</v>
       </c>
       <c r="D333" t="n">
-        <v>-3.085630381607035</v>
+        <v>3.197554925572551</v>
       </c>
       <c r="E333" t="n">
         <v>1.648933147553959</v>
@@ -6110,7 +6110,7 @@
         <v>383511.7344168765</v>
       </c>
       <c r="D334" t="n">
-        <v>-2.26453902218612</v>
+        <v>4.018646284993467</v>
       </c>
       <c r="E334" t="n">
         <v>1.652444932321417</v>
@@ -6127,7 +6127,7 @@
         <v>398103.1811395403</v>
       </c>
       <c r="D335" t="n">
-        <v>-1.504641330295881</v>
+        <v>4.778543976883705</v>
       </c>
       <c r="E335" t="n">
         <v>1.608094223965428</v>
@@ -6144,7 +6144,7 @@
         <v>404173.1523707735</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.7939377005942165</v>
+        <v>5.489247606585369</v>
       </c>
       <c r="E336" t="n">
         <v>1.546686214925479</v>
@@ -6161,7 +6161,7 @@
         <v>396009.9902382715</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.07778410349064879</v>
+        <v>6.205401203688938</v>
       </c>
       <c r="E337" t="n">
         <v>1.496782220578865</v>
@@ -6229,7 +6229,7 @@
         <v>376141.4956611362</v>
       </c>
       <c r="D341" t="n">
-        <v>-3.072541471467054</v>
+        <v>3.210643835712533</v>
       </c>
       <c r="E341" t="n">
         <v>1.65259845826604</v>
@@ -6246,7 +6246,7 @@
         <v>386174.9217975619</v>
       </c>
       <c r="D342" t="n">
-        <v>-2.269010361082562</v>
+        <v>4.014174946097024</v>
       </c>
       <c r="E342" t="n">
         <v>1.652768946617719</v>
@@ -6263,7 +6263,7 @@
         <v>397949.637054209</v>
       </c>
       <c r="D343" t="n">
-        <v>-1.511176348313326</v>
+        <v>4.772008958866261</v>
       </c>
       <c r="E343" t="n">
         <v>1.605990924387871</v>
@@ -6280,7 +6280,7 @@
         <v>404713.9230966606</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.7968131539242256</v>
+        <v>5.486372153255361</v>
       </c>
       <c r="E344" t="n">
         <v>1.542884802525391</v>
@@ -6297,7 +6297,7 @@
         <v>398740.3949090269</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.08734712682931578</v>
+        <v>6.19583818035027</v>
       </c>
       <c r="E345" t="n">
         <v>1.493477194290428</v>
@@ -6365,7 +6365,7 @@
         <v>375883.0804478417</v>
       </c>
       <c r="D349" t="n">
-        <v>-3.049069961326761</v>
+        <v>3.234115345852825</v>
       </c>
       <c r="E349" t="n">
         <v>1.656450538419588</v>
@@ -6382,7 +6382,7 @@
         <v>388979.466630303</v>
       </c>
       <c r="D350" t="n">
-        <v>-2.255570004032406</v>
+        <v>4.027615303147179</v>
       </c>
       <c r="E350" t="n">
         <v>1.653844902881001</v>
@@ -6399,7 +6399,7 @@
         <v>399499.3437175058</v>
       </c>
       <c r="D351" t="n">
-        <v>-1.50798160039008</v>
+        <v>4.775203706789506</v>
       </c>
       <c r="E351" t="n">
         <v>1.605376753060706</v>
@@ -6416,7 +6416,7 @@
         <v>405449.9002367784</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.7938561082692512</v>
+        <v>5.489329198910335</v>
       </c>
       <c r="E352" t="n">
         <v>1.540916791550722</v>
@@ -6433,7 +6433,7 @@
         <v>401847.8054635659</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.08777660849121149</v>
+        <v>6.195408698688375</v>
       </c>
       <c r="E353" t="n">
         <v>1.49137495510559</v>
@@ -6501,7 +6501,7 @@
         <v>370759.6586574216</v>
       </c>
       <c r="D357" t="n">
-        <v>-3.038309892830403</v>
+        <v>3.244875414349183</v>
       </c>
       <c r="E357" t="n">
         <v>1.657824995208756</v>
@@ -6518,7 +6518,7 @@
         <v>388589.6780034091</v>
       </c>
       <c r="D358" t="n">
-        <v>-2.235017384402024</v>
+        <v>4.048167922777562</v>
       </c>
       <c r="E358" t="n">
         <v>1.653738605526838</v>
@@ -6535,7 +6535,7 @@
         <v>400980.2075744394</v>
       </c>
       <c r="D359" t="n">
-        <v>-1.494245817620716</v>
+        <v>4.78893948955887</v>
       </c>
       <c r="E359" t="n">
         <v>1.604481154529635</v>
@@ -6552,7 +6552,7 @@
         <v>406107.9141795852</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.7838761016494336</v>
+        <v>5.499309205530153</v>
       </c>
       <c r="E360" t="n">
         <v>1.540181667251939</v>
@@ -6569,7 +6569,7 @@
         <v>403542.0961933035</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.0774221746572632</v>
+        <v>6.205763132522323</v>
       </c>
       <c r="E361" t="n">
         <v>1.491218099096043</v>
@@ -6637,7 +6637,7 @@
         <v>364249.2563452817</v>
       </c>
       <c r="D365" t="n">
-        <v>-3.054058800208137</v>
+        <v>3.229126506971449</v>
       </c>
       <c r="E365" t="n">
         <v>1.656188489186879</v>
@@ -6654,7 +6654,7 @@
         <v>384278.6996574154</v>
       </c>
       <c r="D366" t="n">
-        <v>-2.224321153870297</v>
+        <v>4.058864153309289</v>
       </c>
       <c r="E366" t="n">
         <v>1.651679335965986</v>
@@ -6671,7 +6671,7 @@
         <v>400459.9112464392</v>
       </c>
       <c r="D367" t="n">
-        <v>-1.477907683537381</v>
+        <v>4.805277623642206</v>
       </c>
       <c r="E367" t="n">
         <v>1.601824069796215</v>
@@ -6688,7 +6688,7 @@
         <v>406265.1825820496</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.7703577503799046</v>
+        <v>5.512827556799682</v>
       </c>
       <c r="E368" t="n">
         <v>1.538901349995237</v>
@@ -6705,7 +6705,7 @@
         <v>403419.3631346161</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.06206393756605033</v>
+        <v>6.221121369613536</v>
       </c>
       <c r="E369" t="n">
         <v>1.491937761776498</v>
@@ -6773,7 +6773,7 @@
         <v>361148.207553633</v>
       </c>
       <c r="D373" t="n">
-        <v>-3.087935548028003</v>
+        <v>3.195249759151583</v>
       </c>
       <c r="E373" t="n">
         <v>1.65364035752631</v>
@@ -6790,7 +6790,7 @@
         <v>378567.2864542899</v>
       </c>
       <c r="D374" t="n">
-        <v>-2.232815762763663</v>
+        <v>4.050369544415923</v>
       </c>
       <c r="E374" t="n">
         <v>1.648668409565943</v>
@@ -6807,7 +6807,7 @@
         <v>397576.7328420198</v>
       </c>
       <c r="D375" t="n">
-        <v>-1.469081195219287</v>
+        <v>4.814104111960299</v>
       </c>
       <c r="E375" t="n">
         <v>1.597575429412644</v>
@@ -6824,7 +6824,7 @@
         <v>405612.7318880409</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.7591351583993289</v>
+        <v>5.524050148780257</v>
       </c>
       <c r="E376" t="n">
         <v>1.53590348005296</v>
@@ -6841,7 +6841,7 @@
         <v>402283.3127894811</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.04951398948065622</v>
+        <v>6.23367131769893</v>
       </c>
       <c r="E377" t="n">
         <v>1.491788250647975</v>
@@ -6909,7 +6909,7 @@
         <v>363203.4009957869</v>
       </c>
       <c r="D381" t="n">
-        <v>-3.116025056307006</v>
+        <v>3.16716025087258</v>
       </c>
       <c r="E381" t="n">
         <v>1.653004038532407</v>
@@ -6926,7 +6926,7 @@
         <v>375127.2221352092</v>
       </c>
       <c r="D382" t="n">
-        <v>-2.254518084067195</v>
+        <v>4.028667223112391</v>
       </c>
       <c r="E382" t="n">
         <v>1.646542533847381</v>
@@ -6943,7 +6943,7 @@
         <v>393847.4712360621</v>
       </c>
       <c r="D383" t="n">
-        <v>-1.472160254116493</v>
+        <v>4.811025053063093</v>
       </c>
       <c r="E383" t="n">
         <v>1.593318353230324</v>
@@ -6960,7 +6960,7 @@
         <v>404338.9232169781</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.7543703851777952</v>
+        <v>5.528814922001791</v>
       </c>
       <c r="E384" t="n">
         <v>1.53160522122123</v>
@@ -6977,7 +6977,7 @@
         <v>401337.6855231039</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.04455839181239574</v>
+        <v>6.23862691536719</v>
       </c>
       <c r="E385" t="n">
         <v>1.489887760513144</v>
@@ -7045,7 +7045,7 @@
         <v>367917.6569138162</v>
       </c>
       <c r="D389" t="n">
-        <v>-3.120928744859129</v>
+        <v>3.162256562320457</v>
       </c>
       <c r="E389" t="n">
         <v>1.655087232672068</v>
@@ -7062,7 +7062,7 @@
         <v>375711.7187874927</v>
       </c>
       <c r="D390" t="n">
-        <v>-2.272948506802014</v>
+        <v>4.010236800377572</v>
       </c>
       <c r="E390" t="n">
         <v>1.646271457167221</v>
@@ -7079,7 +7079,7 @@
         <v>391453.4917426779</v>
       </c>
       <c r="D391" t="n">
-        <v>-1.482589082781383</v>
+        <v>4.800596224398204</v>
       </c>
       <c r="E391" t="n">
         <v>1.590679251520127</v>
@@ -7096,7 +7096,7 @@
         <v>403106.4906097554</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.7557264742132368</v>
+        <v>5.527458832966349</v>
       </c>
       <c r="E392" t="n">
         <v>1.527570659645274</v>
@@ -7113,7 +7113,7 @@
         <v>401448.5169984762</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.04653487041879911</v>
+        <v>6.236650436760787</v>
       </c>
       <c r="E393" t="n">
         <v>1.48690320967996</v>
@@ -7181,7 +7181,7 @@
         <v>371291.477958405</v>
       </c>
       <c r="D397" t="n">
-        <v>-3.103919853819598</v>
+        <v>3.179265453359988</v>
       </c>
       <c r="E397" t="n">
         <v>1.658334556536172</v>
@@ -7198,7 +7198,7 @@
         <v>378948.1872530562</v>
       </c>
       <c r="D398" t="n">
-        <v>-2.274840429737854</v>
+        <v>4.008344877441732</v>
       </c>
       <c r="E398" t="n">
         <v>1.647092436510539</v>
@@ -7215,7 +7215,7 @@
         <v>391562.6100659746</v>
       </c>
       <c r="D399" t="n">
-        <v>-1.490293010794184</v>
+        <v>4.792892296385403</v>
       </c>
       <c r="E399" t="n">
         <v>1.589913235141094</v>
@@ -7232,7 +7232,7 @@
         <v>402615.9434441151</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.7586156411703859</v>
+        <v>5.5245696660092</v>
       </c>
       <c r="E400" t="n">
         <v>1.525192254403378</v>
@@ -7249,7 +7249,7 @@
         <v>402714.205583695</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.05026057109075621</v>
+        <v>6.23292473608883</v>
       </c>
       <c r="E401" t="n">
         <v>1.484465584387444</v>
@@ -7317,7 +7317,7 @@
         <v>370703.1054606881</v>
       </c>
       <c r="D405" t="n">
-        <v>-3.079947407736479</v>
+        <v>3.203237899443107</v>
       </c>
       <c r="E405" t="n">
         <v>1.660552681106763</v>
@@ -7334,7 +7334,7 @@
         <v>381748.5715128939</v>
       </c>
       <c r="D406" t="n">
-        <v>-2.259381928395446</v>
+        <v>4.02380337878414</v>
       </c>
       <c r="E406" t="n">
         <v>1.647304882523301</v>
@@ -7351,7 +7351,7 @@
         <v>393517.5859479299</v>
       </c>
       <c r="D407" t="n">
-        <v>-1.487115888617537</v>
+        <v>4.796069418562049</v>
       </c>
       <c r="E407" t="n">
         <v>1.589675017145039</v>
@@ -7368,7 +7368,7 @@
         <v>403103.3247770269</v>
       </c>
       <c r="D408" t="n">
-        <v>-0.7572226020854567</v>
+        <v>5.52596270509413</v>
       </c>
       <c r="E408" t="n">
         <v>1.524542991454413</v>
@@ -7385,7 +7385,7 @@
         <v>404498.7887837591</v>
       </c>
       <c r="D409" t="n">
-        <v>-0.04956648065141112</v>
+        <v>6.233618826528176</v>
       </c>
       <c r="E409" t="n">
         <v>1.483822591435627</v>
@@ -7453,7 +7453,7 @@
         <v>366134.8741394653</v>
       </c>
       <c r="D413" t="n">
-        <v>-3.06773629063565</v>
+        <v>3.215449016543936</v>
       </c>
       <c r="E413" t="n">
         <v>1.660461411098696</v>
@@ -7470,7 +7470,7 @@
         <v>381456.1636565611</v>
       </c>
       <c r="D414" t="n">
-        <v>-2.237163689698139</v>
+        <v>4.046021617481447</v>
       </c>
       <c r="E414" t="n">
         <v>1.645674415034911</v>
@@ -7487,7 +7487,7 @@
         <v>395369.8881503628</v>
       </c>
       <c r="D415" t="n">
-        <v>-1.472394925901374</v>
+        <v>4.810790381278212</v>
       </c>
       <c r="E415" t="n">
         <v>1.588136674875262</v>
@@ -7504,7 +7504,7 @@
         <v>404138.3149347301</v>
       </c>
       <c r="D416" t="n">
-        <v>-0.7483494288159052</v>
+        <v>5.534835878363682</v>
       </c>
       <c r="E416" t="n">
         <v>1.524303560782356</v>
@@ -7521,7 +7521,7 @@
         <v>405883.7081974906</v>
       </c>
       <c r="D417" t="n">
-        <v>-0.04122403712433043</v>
+        <v>6.241961270055256</v>
       </c>
       <c r="E417" t="n">
         <v>1.484841633149101</v>
@@ -7589,7 +7589,7 @@
         <v>360284.5915061277</v>
       </c>
       <c r="D421" t="n">
-        <v>-3.080312555758776</v>
+        <v>3.20287275142081</v>
       </c>
       <c r="E421" t="n">
         <v>1.658447646331339</v>
@@ -7606,7 +7606,7 @@
         <v>377329.3782528919</v>
       </c>
       <c r="D422" t="n">
-        <v>-2.223832860482665</v>
+        <v>4.059352446696921</v>
       </c>
       <c r="E422" t="n">
         <v>1.642344640957645</v>
@@ -7623,7 +7623,7 @@
         <v>395118.4148174594</v>
       </c>
       <c r="D423" t="n">
-        <v>-1.453378939225562</v>
+        <v>4.829806367954024</v>
       </c>
       <c r="E423" t="n">
         <v>1.584384731348696</v>
@@ -7640,7 +7640,7 @@
         <v>404848.4204485572</v>
       </c>
       <c r="D424" t="n">
-        <v>-0.733637151571306</v>
+        <v>5.54954815560828</v>
       </c>
       <c r="E424" t="n">
         <v>1.522768680406867</v>
@@ -7657,7 +7657,7 @@
         <v>406255.9715395998</v>
       </c>
       <c r="D425" t="n">
-        <v>-0.02700744092509666</v>
+        <v>6.25617786625449</v>
       </c>
       <c r="E425" t="n">
         <v>1.486105213874309</v>
@@ -7725,7 +7725,7 @@
         <v>357364.6420504337</v>
       </c>
       <c r="D429" t="n">
-        <v>-3.114959036428105</v>
+        <v>3.168226270751481</v>
       </c>
       <c r="E429" t="n">
         <v>1.656491232002959</v>
@@ -7742,7 +7742,7 @@
         <v>371251.6651065071</v>
       </c>
       <c r="D430" t="n">
-        <v>-2.231846993088303</v>
+        <v>4.051338314091283</v>
       </c>
       <c r="E430" t="n">
         <v>1.638964384396838</v>
@@ -7759,7 +7759,7 @@
         <v>391927.3907343621</v>
       </c>
       <c r="D431" t="n">
-        <v>-1.441488213065406</v>
+        <v>4.841697094114179</v>
       </c>
       <c r="E431" t="n">
         <v>1.579205081405786</v>
@@ -7776,7 +7776,7 @@
         <v>404389.8668409054</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.7189653875447721</v>
+        <v>5.564219919634814</v>
       </c>
       <c r="E432" t="n">
         <v>1.519163369706432</v>
@@ -7793,7 +7793,7 @@
         <v>405692.9672280243</v>
       </c>
       <c r="D433" t="n">
-        <v>-0.0126988736020297</v>
+        <v>6.270486433577556</v>
       </c>
       <c r="E433" t="n">
         <v>1.485944233166229</v>
@@ -7861,7 +7861,7 @@
         <v>359904.3234756297</v>
       </c>
       <c r="D437" t="n">
-        <v>-3.150080419446367</v>
+        <v>3.13310488773322</v>
       </c>
       <c r="E437" t="n">
         <v>1.656713557502611</v>
@@ -7878,7 +7878,7 @@
         <v>367129.9316608397</v>
       </c>
       <c r="D438" t="n">
-        <v>-2.260333171906207</v>
+        <v>4.022852135273379</v>
       </c>
       <c r="E438" t="n">
         <v>1.637650555122759</v>
@@ -7895,7 +7895,7 @@
         <v>386980.9660172769</v>
       </c>
       <c r="D439" t="n">
-        <v>-1.445754220866228</v>
+        <v>4.837431086313359</v>
       </c>
       <c r="E439" t="n">
         <v>1.574861658653938</v>
@@ -7912,7 +7912,7 @@
         <v>402451.9915928688</v>
       </c>
       <c r="D440" t="n">
-        <v>-0.7113519936975106</v>
+        <v>5.571833313482076</v>
       </c>
       <c r="E440" t="n">
         <v>1.514437648355923</v>
@@ -7929,7 +7929,7 @@
         <v>404850.8222980055</v>
       </c>
       <c r="D441" t="n">
-        <v>-0.004386339838981623</v>
+        <v>6.278798967340604</v>
       </c>
       <c r="E441" t="n">
         <v>1.483780362336611</v>
@@ -7997,7 +7997,7 @@
         <v>365848.411560684</v>
       </c>
       <c r="D445" t="n">
-        <v>-3.161530634913846</v>
+        <v>3.12165467226574</v>
       </c>
       <c r="E445" t="n">
         <v>1.659191515551651</v>
@@ -8014,7 +8014,7 @@
         <v>367956.5842269405</v>
       </c>
       <c r="D446" t="n">
-        <v>-2.290499699898157</v>
+        <v>3.992685607281429</v>
       </c>
       <c r="E446" t="n">
         <v>1.638823276282129</v>
@@ -8031,7 +8031,7 @@
         <v>383255.686446339</v>
       </c>
       <c r="D447" t="n">
-        <v>-1.464675132313222</v>
+        <v>4.818510174866365</v>
       </c>
       <c r="E447" t="n">
         <v>1.573432441983579</v>
@@ -8048,7 +8048,7 @@
         <v>399700.5307837251</v>
       </c>
       <c r="D448" t="n">
-        <v>-0.7143669425068939</v>
+        <v>5.568818364672692</v>
       </c>
       <c r="E448" t="n">
         <v>1.510827205926902</v>
@@ -8065,7 +8065,7 @@
         <v>404361.5593614865</v>
       </c>
       <c r="D449" t="n">
-        <v>-0.004179644748455225</v>
+        <v>6.279005662431131</v>
       </c>
       <c r="E449" t="n">
         <v>1.480870855779743</v>
@@ -8133,7 +8133,7 @@
         <v>370072.396337412</v>
       </c>
       <c r="D453" t="n">
-        <v>-3.145605720719745</v>
+        <v>3.137579586459841</v>
       </c>
       <c r="E453" t="n">
         <v>1.66177443066404</v>
@@ -8150,7 +8150,7 @@
         <v>372474.8718786996</v>
       </c>
       <c r="D454" t="n">
-        <v>-2.299894833503979</v>
+        <v>3.983290473675607</v>
       </c>
       <c r="E454" t="n">
         <v>1.640278915047592</v>
@@ -8167,7 +8167,7 @@
         <v>383248.4552444799</v>
       </c>
       <c r="D455" t="n">
-        <v>-1.483593691535802</v>
+        <v>4.799591615643784</v>
       </c>
       <c r="E455" t="n">
         <v>1.574419813606458</v>
@@ -8184,7 +8184,7 @@
         <v>397731.7996675317</v>
       </c>
       <c r="D456" t="n">
-        <v>-0.7241675771552529</v>
+        <v>5.559017730024333</v>
       </c>
       <c r="E456" t="n">
         <v>1.509929588430712</v>
@@ -8201,7 +8201,7 @@
         <v>404382.7316609158</v>
       </c>
       <c r="D457" t="n">
-        <v>-0.008680912252934547</v>
+        <v>6.274504394926652</v>
       </c>
       <c r="E457" t="n">
         <v>1.479418333290634</v>
@@ -8269,7 +8269,7 @@
         <v>369011.2310911551</v>
       </c>
       <c r="D461" t="n">
-        <v>-3.121530205669738</v>
+        <v>3.161655101509848</v>
       </c>
       <c r="E461" t="n">
         <v>1.662305485114222</v>
@@ -8286,7 +8286,7 @@
         <v>376046.1180278045</v>
       </c>
       <c r="D462" t="n">
-        <v>-2.284555152377263</v>
+        <v>3.998630154802323</v>
       </c>
       <c r="E462" t="n">
         <v>1.639413340613864</v>
@@ -8303,7 +8303,7 @@
         <v>386229.8950916796</v>
       </c>
       <c r="D463" t="n">
-        <v>-1.486329847578281</v>
+        <v>4.796855459601305</v>
       </c>
       <c r="E463" t="n">
         <v>1.574763835601167</v>
@@ -8320,7 +8320,7 @@
         <v>397848.8974813105</v>
       </c>
       <c r="D464" t="n">
-        <v>-0.7306104130086193</v>
+        <v>5.552574894170967</v>
       </c>
       <c r="E464" t="n">
         <v>1.510845085372106</v>
@@ -8337,7 +8337,7 @@
         <v>404817.6617298228</v>
       </c>
       <c r="D465" t="n">
-        <v>-0.01142849068388463</v>
+        <v>6.271756816495701</v>
       </c>
       <c r="E465" t="n">
         <v>1.480414954869515</v>
@@ -8405,7 +8405,7 @@
         <v>363568.6594339303</v>
       </c>
       <c r="D469" t="n">
-        <v>-3.114500359847898</v>
+        <v>3.168684947331688</v>
       </c>
       <c r="E469" t="n">
         <v>1.660575753983769</v>
@@ -8422,7 +8422,7 @@
         <v>375030.4697123328</v>
       </c>
       <c r="D470" t="n">
-        <v>-2.261463498575965</v>
+        <v>4.021721808603622</v>
       </c>
       <c r="E470" t="n">
         <v>1.635785289087587</v>
@@ -8439,7 +8439,7 @@
         <v>388741.5660124187</v>
       </c>
       <c r="D471" t="n">
-        <v>-1.470939075247454</v>
+        <v>4.812246231932132</v>
       </c>
       <c r="E471" t="n">
         <v>1.572045463205972</v>
@@ -8456,7 +8456,7 @@
         <v>399556.4039555825</v>
       </c>
       <c r="D472" t="n">
-        <v>-0.7254764543112637</v>
+        <v>5.557708852868323</v>
       </c>
       <c r="E472" t="n">
         <v>1.510933704519443</v>
@@ -8473,7 +8473,7 @@
         <v>405543.4932048001</v>
       </c>
       <c r="D473" t="n">
-        <v>-0.007238856492774559</v>
+        <v>6.275946450686812</v>
       </c>
       <c r="E473" t="n">
         <v>1.482608950454398</v>
@@ -8541,7 +8541,7 @@
         <v>358289.5907657844</v>
       </c>
       <c r="D477" t="n">
-        <v>-3.13555490594281</v>
+        <v>3.147630401236776</v>
       </c>
       <c r="E477" t="n">
         <v>1.65841396970756</v>
@@ -8558,7 +8558,7 @@
         <v>369693.2392349673</v>
       </c>
       <c r="D478" t="n">
-        <v>-2.252658319892066</v>
+        <v>4.030526987287521</v>
       </c>
       <c r="E478" t="n">
         <v>1.631342594176932</v>
@@ -8575,7 +8575,7 @@
         <v>387878.0567076864</v>
       </c>
       <c r="D479" t="n">
-        <v>-1.450372405589688</v>
+        <v>4.832812901589898</v>
       </c>
       <c r="E479" t="n">
         <v>1.566682894186872</v>
@@ -8592,7 +8592,7 @@
         <v>400871.542947947</v>
       </c>
       <c r="D480" t="n">
-        <v>-0.7099711620842295</v>
+        <v>5.573214145095356</v>
       </c>
       <c r="E480" t="n">
         <v>1.50851061173958</v>
@@ -8677,7 +8677,7 @@
         <v>357490.3269832865</v>
       </c>
       <c r="D485" t="n">
-        <v>-3.172031524729058</v>
+        <v>3.111153782450529</v>
       </c>
       <c r="E485" t="n">
         <v>1.65797762585831</v>
@@ -8694,7 +8694,7 @@
         <v>363708.1646496779</v>
       </c>
       <c r="D486" t="n">
-        <v>-2.268387190717218</v>
+        <v>4.014798116462368</v>
       </c>
       <c r="E486" t="n">
         <v>1.628776975318201</v>
@@ -8711,7 +8711,7 @@
         <v>383539.2014048735</v>
       </c>
       <c r="D487" t="n">
-        <v>-1.440558809019535</v>
+        <v>4.842626498160051</v>
       </c>
       <c r="E487" t="n">
         <v>1.561199181414678</v>
@@ -8728,7 +8728,7 @@
         <v>400139.2224132115</v>
       </c>
       <c r="D488" t="n">
-        <v>-0.693146108037991</v>
+        <v>5.590039199141595</v>
       </c>
       <c r="E488" t="n">
         <v>1.504167359205696</v>
@@ -8813,7 +8813,7 @@
         <v>361556.2584360165</v>
       </c>
       <c r="D493" t="n">
-        <v>-3.199128673048302</v>
+        <v>3.084056634131284</v>
       </c>
       <c r="E493" t="n">
         <v>1.659675383422386</v>
@@ -8830,7 +8830,7 @@
         <v>361169.4405693003</v>
       </c>
       <c r="D494" t="n">
-        <v>-2.2995656572922</v>
+        <v>3.983619649887387</v>
       </c>
       <c r="E494" t="n">
         <v>1.62924522620335</v>
@@ -8847,7 +8847,7 @@
         <v>378223.2242474362</v>
       </c>
       <c r="D495" t="n">
-        <v>-1.448915185581634</v>
+        <v>4.834270121597951</v>
       </c>
       <c r="E495" t="n">
         <v>1.55820326119741</v>
@@ -8864,7 +8864,7 @@
         <v>397286.1976156178</v>
       </c>
       <c r="D496" t="n">
-        <v>-0.6844761187760668</v>
+        <v>5.59870918840352</v>
       </c>
       <c r="E496" t="n">
         <v>1.499967842023581</v>
@@ -8949,7 +8949,7 @@
         <v>367177.2388120288</v>
       </c>
       <c r="D501" t="n">
-        <v>-3.201816929678065</v>
+        <v>3.081368377501521</v>
       </c>
       <c r="E501" t="n">
         <v>1.661961666678569</v>
@@ -8966,7 +8966,7 @@
         <v>363345.8399016476</v>
       </c>
       <c r="D502" t="n">
-        <v>-2.325234224565305</v>
+        <v>3.957951082614281</v>
       </c>
       <c r="E502" t="n">
         <v>1.631244654835642</v>
@@ -8983,7 +8983,7 @@
         <v>375112.3593290196</v>
       </c>
       <c r="D503" t="n">
-        <v>-1.469557219755892</v>
+        <v>4.813628087423695</v>
       </c>
       <c r="E503" t="n">
         <v>1.558431058059812</v>
@@ -9000,7 +9000,7 @@
         <v>393746.9413669857</v>
       </c>
       <c r="D504" t="n">
-        <v>-0.6875347459922612</v>
+        <v>5.595650561187325</v>
       </c>
       <c r="E504" t="n">
         <v>1.497861970003357</v>
@@ -9085,7 +9085,7 @@
         <v>370483.1468834893</v>
       </c>
       <c r="D509" t="n">
-        <v>-3.183434476305474</v>
+        <v>3.099750830874112</v>
       </c>
       <c r="E509" t="n">
         <v>1.662953525036413</v>
@@ -9102,7 +9102,7 @@
         <v>367975.9712145849</v>
       </c>
       <c r="D510" t="n">
-        <v>-2.329719640230569</v>
+        <v>3.953465666949017</v>
       </c>
       <c r="E510" t="n">
         <v>1.632000158632858</v>
@@ -9119,7 +9119,7 @@
         <v>375756.3559676872</v>
       </c>
       <c r="D511" t="n">
-        <v>-1.487482750502304</v>
+        <v>4.795702556677282</v>
       </c>
       <c r="E511" t="n">
         <v>1.560016984657575</v>
@@ -9136,7 +9136,7 @@
         <v>391464.0423309301</v>
       </c>
       <c r="D512" t="n">
-        <v>-0.6978444126534611</v>
+        <v>5.585340894526125</v>
       </c>
       <c r="E512" t="n">
         <v>1.498279290212451</v>
@@ -9221,7 +9221,7 @@
         <v>369492.0844313044</v>
       </c>
       <c r="D517" t="n">
-        <v>-3.159748480642091</v>
+        <v>3.123436826537495</v>
       </c>
       <c r="E517" t="n">
         <v>1.661873674511692</v>
@@ -9238,7 +9238,7 @@
         <v>371325.570370507</v>
       </c>
       <c r="D518" t="n">
-        <v>-2.31305955598307</v>
+        <v>3.970125751196516</v>
       </c>
       <c r="E518" t="n">
         <v>1.629786517216909</v>
@@ -9255,7 +9255,7 @@
         <v>378990.5508663174</v>
       </c>
       <c r="D519" t="n">
-        <v>-1.489646545007833</v>
+        <v>4.793538762171753</v>
       </c>
       <c r="E519" t="n">
         <v>1.559962932981969</v>
@@ -9272,7 +9272,7 @@
         <v>391577.752188865</v>
       </c>
       <c r="D520" t="n">
-        <v>-0.7056436068801584</v>
+        <v>5.577541700299427</v>
       </c>
       <c r="E520" t="n">
         <v>1.49969710635714</v>
@@ -9357,7 +9357,7 @@
         <v>364995.6584856041</v>
       </c>
       <c r="D525" t="n">
-        <v>-3.149778324049695</v>
+        <v>3.133406983129891</v>
       </c>
       <c r="E525" t="n">
         <v>1.65952341635321</v>
@@ -9374,7 +9374,7 @@
         <v>370652.575040991</v>
       </c>
       <c r="D526" t="n">
-        <v>-2.28910874026672</v>
+        <v>3.994076566912867</v>
       </c>
       <c r="E526" t="n">
         <v>1.6250268712697</v>
@@ -9391,7 +9391,7 @@
         <v>381828.707618362</v>
       </c>
       <c r="D527" t="n">
-        <v>-1.474224319121292</v>
+        <v>4.808960988058294</v>
       </c>
       <c r="E527" t="n">
         <v>1.556565159537947</v>
@@ -9408,7 +9408,7 @@
         <v>393568.608863782</v>
       </c>
       <c r="D528" t="n">
-        <v>-0.7024469104405311</v>
+        <v>5.580738396739055</v>
       </c>
       <c r="E528" t="n">
         <v>1.499766335590984</v>
@@ -9493,7 +9493,7 @@
         <v>360391.7599501563</v>
       </c>
       <c r="D533" t="n">
-        <v>-3.165691478567111</v>
+        <v>3.117493828612475</v>
       </c>
       <c r="E533" t="n">
         <v>1.657857359270978</v>
@@ -9510,7 +9510,7 @@
         <v>365778.434695383</v>
       </c>
       <c r="D534" t="n">
-        <v>-2.277796468284163</v>
+        <v>4.005388838895423</v>
       </c>
       <c r="E534" t="n">
         <v>1.62009820456033</v>
@@ -9527,7 +9527,7 @@
         <v>381401.6627994766</v>
       </c>
       <c r="D535" t="n">
-        <v>-1.451879515079977</v>
+        <v>4.831305792099609</v>
       </c>
       <c r="E535" t="n">
         <v>1.550630479783955</v>
@@ -9544,7 +9544,7 @@
         <v>395465.3477872283</v>
       </c>
       <c r="D536" t="n">
-        <v>-0.6872345595560168</v>
+        <v>5.595950747623569</v>
       </c>
       <c r="E536" t="n">
         <v>1.497209612606576</v>
@@ -9629,7 +9629,7 @@
         <v>359870.654081246</v>
       </c>
       <c r="D541" t="n">
-        <v>-3.201685938321612</v>
+        <v>3.081499368857974</v>
       </c>
       <c r="E541" t="n">
         <v>1.658488821328941</v>
@@ -9646,7 +9646,7 @@
         <v>359699.9622836354</v>
       </c>
       <c r="D542" t="n">
-        <v>-2.293979448088502</v>
+        <v>3.989205859091085</v>
       </c>
       <c r="E542" t="n">
         <v>1.618071716092968</v>
@@ -9663,7 +9663,7 @@
         <v>376832.0852584777</v>
       </c>
       <c r="D543" t="n">
-        <v>-1.440170071385077</v>
+        <v>4.843015235794509</v>
       </c>
       <c r="E543" t="n">
         <v>1.545041798772818</v>
@@ -9680,7 +9680,7 @@
         <v>395031.0187604671</v>
       </c>
       <c r="D544" t="n">
-        <v>-0.6680872044178479</v>
+        <v>5.615098102761738</v>
       </c>
       <c r="E544" t="n">
         <v>1.492869207223781</v>
@@ -9765,7 +9765,7 @@
         <v>364733.5804238334</v>
       </c>
       <c r="D549" t="n">
-        <v>-3.233582913672939</v>
+        <v>3.049602393506647</v>
       </c>
       <c r="E549" t="n">
         <v>1.660886927043291</v>
@@ -9782,7 +9782,7 @@
         <v>357195.0425594459</v>
       </c>
       <c r="D550" t="n">
-        <v>-2.333286728058267</v>
+        <v>3.949898579121319</v>
       </c>
       <c r="E550" t="n">
         <v>1.620077367540648</v>
@@ -9799,7 +9799,7 @@
         <v>370408.3344879441</v>
       </c>
       <c r="D551" t="n">
-        <v>-1.452715915189984</v>
+        <v>4.830469391989602</v>
       </c>
       <c r="E551" t="n">
         <v>1.54300264611216</v>
@@ -9816,7 +9816,7 @@
         <v>391362.5032453306</v>
       </c>
       <c r="D552" t="n">
-        <v>-0.6580188031484195</v>
+        <v>5.625166504031167</v>
       </c>
       <c r="E552" t="n">
         <v>1.489186181302481</v>
@@ -9901,7 +9901,7 @@
         <v>371492.997348141</v>
       </c>
       <c r="D557" t="n">
-        <v>-3.239712069319728</v>
+        <v>3.043473237859859</v>
       </c>
       <c r="E557" t="n">
         <v>1.662654079616555</v>
@@ -9918,7 +9918,7 @@
         <v>360558.1276254785</v>
       </c>
       <c r="D558" t="n">
-        <v>-2.369317792488363</v>
+        <v>3.913867514691224</v>
       </c>
       <c r="E558" t="n">
         <v>1.623270793239862</v>
@@ -9935,7 +9935,7 @@
         <v>366637.6343622119</v>
       </c>
       <c r="D559" t="n">
-        <v>-1.48557929267769</v>
+        <v>4.797606014501897</v>
       </c>
       <c r="E559" t="n">
         <v>1.545133198061868</v>
@@ -9952,7 +9952,7 @@
         <v>386082.3380991432</v>
       </c>
       <c r="D560" t="n">
-        <v>-0.6659164211565005</v>
+        <v>5.617268886023085</v>
       </c>
       <c r="E560" t="n">
         <v>1.488389623840923</v>
@@ -10037,7 +10037,7 @@
         <v>375080.3361356308</v>
       </c>
       <c r="D565" t="n">
-        <v>-3.221308728952256</v>
+        <v>3.06187657822733</v>
       </c>
       <c r="E565" t="n">
         <v>1.661956544997699</v>
@@ -10054,7 +10054,7 @@
         <v>366682.2515887805</v>
       </c>
       <c r="D566" t="n">
-        <v>-2.377495710031265</v>
+        <v>3.905689597148321</v>
       </c>
       <c r="E566" t="n">
         <v>1.623398821227956</v>
@@ -10071,7 +10071,7 @@
         <v>368197.2946016415</v>
       </c>
       <c r="D567" t="n">
-        <v>-1.515266324238815</v>
+        <v>4.767918982940771</v>
       </c>
       <c r="E567" t="n">
         <v>1.547916388991393</v>
@@ -10088,7 +10088,7 @@
         <v>382643.4320195285</v>
       </c>
       <c r="D568" t="n">
-        <v>-0.6869889845323018</v>
+        <v>5.596196322647284</v>
       </c>
       <c r="E568" t="n">
         <v>1.490330579211966</v>
@@ -10173,7 +10173,7 @@
         <v>373434.7518589864</v>
       </c>
       <c r="D573" t="n">
-        <v>-3.198904443873618</v>
+        <v>3.084280863305968</v>
       </c>
       <c r="E573" t="n">
         <v>1.659185721753039</v>
@@ -10190,7 +10190,7 @@
         <v>370203.4355470989</v>
       </c>
       <c r="D574" t="n">
-        <v>-2.35902330246325</v>
+        <v>3.924162004716337</v>
       </c>
       <c r="E574" t="n">
         <v>1.619245985010002</v>
@@ -10207,7 +10207,7 @@
         <v>372845.1861333467</v>
       </c>
       <c r="D575" t="n">
-        <v>-1.520463834944697</v>
+        <v>4.762721472234889</v>
       </c>
       <c r="E575" t="n">
         <v>1.547103007480883</v>
@@ -10224,7 +10224,7 @@
         <v>383187.5924249891</v>
       </c>
       <c r="D576" t="n">
-        <v>-0.7039216367545409</v>
+        <v>5.579263670425045</v>
       </c>
       <c r="E576" t="n">
         <v>1.49222194841804</v>
@@ -10309,7 +10309,7 @@
         <v>368819.5214223291</v>
       </c>
       <c r="D581" t="n">
-        <v>-3.194048379534802</v>
+        <v>3.089136927644784</v>
       </c>
       <c r="E581" t="n">
         <v>1.656563030739866</v>
@@ -10326,7 +10326,7 @@
         <v>368481.4416625262</v>
       </c>
       <c r="D582" t="n">
-        <v>-2.335754165194076</v>
+        <v>3.94743114198551</v>
       </c>
       <c r="E582" t="n">
         <v>1.613225342727691</v>
@@ -10343,7 +10343,7 @@
         <v>375864.5587720694</v>
       </c>
       <c r="D583" t="n">
-        <v>-1.50240080422366</v>
+        <v>4.780784502955926</v>
       </c>
       <c r="E583" t="n">
         <v>1.542122728837168</v>
@@ -10360,7 +10360,7 @@
         <v>386263.2651761584</v>
       </c>
       <c r="D584" t="n">
-        <v>-0.7027930405068665</v>
+        <v>5.580392266672719</v>
       </c>
       <c r="E584" t="n">
         <v>1.491491162246963</v>
@@ -10445,7 +10445,7 @@
         <v>365663.3501315353</v>
       </c>
       <c r="D589" t="n">
-        <v>-3.212894862926518</v>
+        <v>3.070290444253068</v>
       </c>
       <c r="E589" t="n">
         <v>1.656213941411862</v>
@@ -10462,7 +10462,7 @@
         <v>363150.8527542074</v>
       </c>
       <c r="D590" t="n">
-        <v>-2.330392595272734</v>
+        <v>3.952792711906852</v>
       </c>
       <c r="E590" t="n">
         <v>1.609037825793087</v>
@@ -10479,7 +10479,7 @@
         <v>374424.6725968643</v>
       </c>
       <c r="D591" t="n">
-        <v>-1.479749983832849</v>
+        <v>4.803435323346736</v>
       </c>
       <c r="E591" t="n">
         <v>1.535822288637329</v>
@@ -10496,7 +10496,7 @@
         <v>388444.4556988958</v>
       </c>
       <c r="D592" t="n">
-        <v>-0.6853535484829467</v>
+        <v>5.597831758696639</v>
       </c>
       <c r="E592" t="n">
         <v>1.488233397460054</v>
@@ -10581,7 +10581,7 @@
         <v>366920.0200527029</v>
       </c>
       <c r="D597" t="n">
-        <v>-3.242191796324858</v>
+        <v>3.040993510854729</v>
       </c>
       <c r="E597" t="n">
         <v>1.658149624301213</v>
@@ -10598,7 +10598,7 @@
         <v>358436.5498330641</v>
       </c>
       <c r="D598" t="n">
-        <v>-2.350740352342509</v>
+        <v>3.932444954837077</v>
       </c>
       <c r="E598" t="n">
         <v>1.608901627221525</v>
@@ -10615,7 +10615,7 @@
         <v>369240.3045784748</v>
       </c>
       <c r="D599" t="n">
-        <v>-1.472104545645045</v>
+        <v>4.811080761534541</v>
       </c>
       <c r="E599" t="n">
         <v>1.53169513567717</v>
@@ -10632,7 +10632,7 @@
         <v>387366.9876942554</v>
       </c>
       <c r="D600" t="n">
-        <v>-0.6649408332813165</v>
+        <v>5.61824447389827</v>
       </c>
       <c r="E600" t="n">
         <v>1.484538459998152</v>
@@ -10717,7 +10717,7 @@
         <v>371894.2453627242</v>
       </c>
       <c r="D605" t="n">
-        <v>-3.261653068173071</v>
+        <v>3.021532239006516</v>
       </c>
       <c r="E605" t="n">
         <v>1.6602914857765</v>
@@ -10734,7 +10734,7 @@
         <v>357935.5403665387</v>
       </c>
       <c r="D606" t="n">
-        <v>-2.384763703058183</v>
+        <v>3.898421604121403</v>
       </c>
       <c r="E606" t="n">
         <v>1.611704367334546</v>
@@ -10751,7 +10751,7 @@
         <v>363646.4871578492</v>
       </c>
       <c r="D607" t="n">
-        <v>-1.487542691597757</v>
+        <v>4.79564261558183</v>
       </c>
       <c r="E607" t="n">
         <v>1.531546929955922</v>
@@ -10768,7 +10768,7 @@
         <v>383132.2871518498</v>
       </c>
       <c r="D608" t="n">
-        <v>-0.6555886459371636</v>
+        <v>5.627596661242423</v>
       </c>
       <c r="E608" t="n">
         <v>1.482581025823418</v>
@@ -10853,7 +10853,7 @@
         <v>377338.4962680115</v>
       </c>
       <c r="D613" t="n">
-        <v>-3.260307988551272</v>
+        <v>3.022877318628314</v>
       </c>
       <c r="E613" t="n">
         <v>1.660521447261254</v>
@@ -10870,7 +10870,7 @@
         <v>361937.8189759389</v>
       </c>
       <c r="D614" t="n">
-        <v>-2.410455870311181</v>
+        <v>3.872729436868405</v>
       </c>
       <c r="E614" t="n">
         <v>1.613863903846979</v>
@@ -10887,7 +10887,7 @@
         <v>361272.7353279666</v>
       </c>
       <c r="D615" t="n">
-        <v>-1.51766250399433</v>
+        <v>4.765522803185256</v>
       </c>
       <c r="E615" t="n">
         <v>1.534196857844608</v>
@@ -10904,7 +10904,7 @@
         <v>377982.7887765507</v>
       </c>
       <c r="D616" t="n">
-        <v>-0.6637033991972685</v>
+        <v>5.619481907982317</v>
       </c>
       <c r="E616" t="n">
         <v>1.483228162132281</v>
@@ -10989,7 +10989,7 @@
         <v>380103.2407339424</v>
       </c>
       <c r="D621" t="n">
-        <v>-3.241776685707414</v>
+        <v>3.041408621472173</v>
       </c>
       <c r="E621" t="n">
         <v>1.658297842852119</v>
@@ -11006,7 +11006,7 @@
         <v>367494.3412019754</v>
       </c>
       <c r="D622" t="n">
-        <v>-2.41318671314914</v>
+        <v>3.869998594030446</v>
       </c>
       <c r="E622" t="n">
         <v>1.61249229949994</v>
@@ -11023,7 +11023,7 @@
         <v>363437.0494401742</v>
       </c>
       <c r="D623" t="n">
-        <v>-1.543017025856523</v>
+        <v>4.740168281323063</v>
       </c>
       <c r="E623" t="n">
         <v>1.536172088332792</v>
@@ -11040,7 +11040,7 @@
         <v>374893.5592318838</v>
       </c>
       <c r="D624" t="n">
-        <v>-0.684094665173423</v>
+        <v>5.599090642006163</v>
       </c>
       <c r="E624" t="n">
         <v>1.485436240503844</v>
@@ -11125,7 +11125,7 @@
         <v>378968.2529898973</v>
       </c>
       <c r="D629" t="n">
-        <v>-3.219842510634408</v>
+        <v>3.063342796545178</v>
       </c>
       <c r="E629" t="n">
         <v>1.654816236377109</v>
@@ -11142,7 +11142,7 @@
         <v>370811.8284820365</v>
       </c>
       <c r="D630" t="n">
-        <v>-2.394837172578282</v>
+        <v>3.888348134601304</v>
       </c>
       <c r="E630" t="n">
         <v>1.607483113471943</v>
@@ -11159,7 +11159,7 @@
         <v>368143.3622081762</v>
       </c>
       <c r="D631" t="n">
-        <v>-1.547558985793633</v>
+        <v>4.735626321385953</v>
       </c>
       <c r="E631" t="n">
         <v>1.534572023729707</v>
@@ -11176,7 +11176,7 @@
         <v>375558.0926517951</v>
       </c>
       <c r="D632" t="n">
-        <v>-0.7023198996684168</v>
+        <v>5.580865407511169</v>
       </c>
       <c r="E632" t="n">
         <v>1.486875899455796</v>
@@ -11261,7 +11261,7 @@
         <v>375275.1280508018</v>
       </c>
       <c r="D637" t="n">
-        <v>-3.210903256269478</v>
+        <v>3.072282050910109</v>
       </c>
       <c r="E637" t="n">
         <v>1.652288505045411</v>
@@ -11278,7 +11278,7 @@
         <v>369671.9375642472</v>
       </c>
       <c r="D638" t="n">
-        <v>-2.371176489060085</v>
+        <v>3.912008818119502</v>
       </c>
       <c r="E638" t="n">
         <v>1.601264536472327</v>
@@ -11295,7 +11295,7 @@
         <v>371558.129280314</v>
       </c>
       <c r="D639" t="n">
-        <v>-1.530413991395926</v>
+        <v>4.752771315783661</v>
       </c>
       <c r="E639" t="n">
         <v>1.529401318927703</v>
@@ -11312,7 +11312,7 @@
         <v>378957.6322777068</v>
       </c>
       <c r="D640" t="n">
-        <v>-0.7045229151016925</v>
+        <v>5.578662392077893</v>
       </c>
       <c r="E640" t="n">
         <v>1.485845204002696</v>
@@ -11397,7 +11397,7 @@
         <v>372460.067742815</v>
       </c>
       <c r="D645" t="n">
-        <v>-3.224189144897804</v>
+        <v>3.058996162281782</v>
       </c>
       <c r="E645" t="n">
         <v>1.652497193849289</v>
@@ -11414,7 +11414,7 @@
         <v>364858.2266648813</v>
       </c>
       <c r="D646" t="n">
-        <v>-2.363274082691555</v>
+        <v>3.919911224488032</v>
       </c>
       <c r="E646" t="n">
         <v>1.597367069674309</v>
@@ -11431,7 +11431,7 @@
         <v>370602.2748305456</v>
       </c>
       <c r="D647" t="n">
-        <v>-1.506570788216016</v>
+        <v>4.776614518963571</v>
       </c>
       <c r="E647" t="n">
         <v>1.523374008740879</v>
@@ -11448,7 +11448,7 @@
         <v>381850.8347533814</v>
       </c>
       <c r="D648" t="n">
-        <v>-0.6884183383827001</v>
+        <v>5.594766968796886</v>
       </c>
       <c r="E648" t="n">
         <v>1.482800988021661</v>
@@ -11533,7 +11533,7 @@
         <v>373837.6489081733</v>
       </c>
       <c r="D653" t="n">
-        <v>-3.252238485136262</v>
+        <v>3.030946822043324</v>
       </c>
       <c r="E653" t="n">
         <v>1.654941154010261</v>
@@ -11550,7 +11550,7 @@
         <v>360283.5257839275</v>
       </c>
       <c r="D654" t="n">
-        <v>-2.384138182910981</v>
+        <v>3.899047124268606</v>
       </c>
       <c r="E654" t="n">
         <v>1.598085616071496</v>
@@ -11567,7 +11567,7 @@
         <v>365171.0387053693</v>
       </c>
       <c r="D655" t="n">
-        <v>-1.498465133743196</v>
+        <v>4.784720173436391</v>
       </c>
       <c r="E655" t="n">
         <v>1.520063539003762</v>
@@ -11584,7 +11584,7 @@
         <v>380999.7530685465</v>
       </c>
       <c r="D656" t="n">
-        <v>-0.6662512468973727</v>
+        <v>5.616934060282214</v>
       </c>
       <c r="E656" t="n">
         <v>1.479930866202041</v>
@@ -11669,7 +11669,7 @@
         <v>379369.0067650197</v>
       </c>
       <c r="D661" t="n">
-        <v>-3.273884702291979</v>
+        <v>3.009300604887607</v>
       </c>
       <c r="E661" t="n">
         <v>1.656740937397844</v>
@@ -11686,7 +11686,7 @@
         <v>360482.8323505811</v>
       </c>
       <c r="D662" t="n">
-        <v>-2.42413445195026</v>
+        <v>3.859050855229326</v>
       </c>
       <c r="E662" t="n">
         <v>1.601765958036306</v>
@@ -11703,7 +11703,7 @@
         <v>358987.4931356009</v>
       </c>
       <c r="D663" t="n">
-        <v>-1.520606548888587</v>
+        <v>4.762578758290999</v>
       </c>
       <c r="E663" t="n">
         <v>1.521334781874361</v>
@@ -11720,7 +11720,7 @@
         <v>375735.9867291772</v>
       </c>
       <c r="D664" t="n">
-        <v>-0.6575574220084071</v>
+        <v>5.625627885171179</v>
       </c>
       <c r="E664" t="n">
         <v>1.479350161040422</v>
@@ -11805,7 +11805,7 @@
         <v>385284.9446782537</v>
       </c>
       <c r="D669" t="n">
-        <v>-3.273656830429768</v>
+        <v>3.009528476749819</v>
       </c>
       <c r="E669" t="n">
         <v>1.655492121445094</v>
@@ -11822,7 +11822,7 @@
         <v>366007.5637290169</v>
       </c>
       <c r="D670" t="n">
-        <v>-2.454730857829328</v>
+        <v>3.828454449350258</v>
       </c>
       <c r="E670" t="n">
         <v>1.603513058919224</v>
@@ -11839,7 +11839,7 @@
         <v>357218.0910865453</v>
       </c>
       <c r="D671" t="n">
-        <v>-1.563011839739743</v>
+        <v>4.720173467439844</v>
       </c>
       <c r="E671" t="n">
         <v>1.525043257337612</v>
@@ -11856,7 +11856,7 @@
         <v>369174.887163995</v>
       </c>
       <c r="D672" t="n">
-        <v>-0.6744951544123228</v>
+        <v>5.608690152767263</v>
       </c>
       <c r="E672" t="n">
         <v>1.48131817380664</v>
@@ -11941,7 +11941,7 @@
         <v>387768.4117670852</v>
       </c>
       <c r="D677" t="n">
-        <v>-3.255300423006242</v>
+        <v>3.027884884173345</v>
       </c>
       <c r="E677" t="n">
         <v>1.651595066972105</v>
@@ -11958,7 +11958,7 @@
         <v>372496.0528872579</v>
       </c>
       <c r="D678" t="n">
-        <v>-2.456603279907447</v>
+        <v>3.826582027272139</v>
       </c>
       <c r="E678" t="n">
         <v>1.600407233498943</v>
@@ -11975,7 +11975,7 @@
         <v>361250.7920845525</v>
       </c>
       <c r="D679" t="n">
-        <v>-1.595535450311315</v>
+        <v>4.687649856868271</v>
       </c>
       <c r="E679" t="n">
         <v>1.526414908910349</v>
@@ -11992,7 +11992,7 @@
         <v>366101.3288363206</v>
       </c>
       <c r="D680" t="n">
-        <v>-0.7081540554017347</v>
+        <v>5.575031251777851</v>
       </c>
       <c r="E680" t="n">
         <v>1.483738832521555</v>
@@ -12077,7 +12077,7 @@
         <v>386187.4585523978</v>
       </c>
       <c r="D685" t="n">
-        <v>-3.235556768073671</v>
+        <v>3.047628539105915</v>
       </c>
       <c r="E685" t="n">
         <v>1.647599562717395</v>
@@ -12094,7 +12094,7 @@
         <v>375284.4053562692</v>
       </c>
       <c r="D686" t="n">
-        <v>-2.436190084753838</v>
+        <v>3.846995222425749</v>
       </c>
       <c r="E686" t="n">
         <v>1.594082215348344</v>
@@ -12111,7 +12111,7 @@
         <v>367139.55689355</v>
       </c>
       <c r="D687" t="n">
-        <v>-1.598183336689423</v>
+        <v>4.685001970490164</v>
       </c>
       <c r="E687" t="n">
         <v>1.523225730998244</v>
@@ -12128,7 +12128,7 @@
         <v>368283.6563599538</v>
       </c>
       <c r="D688" t="n">
-        <v>-0.7336394785365146</v>
+        <v>5.549545828643072</v>
       </c>
       <c r="E688" t="n">
         <v>1.484080885871356</v>
@@ -12213,7 +12213,7 @@
         <v>383003.0200783719</v>
       </c>
       <c r="D693" t="n">
-        <v>-3.229540567182617</v>
+        <v>3.05364473999697</v>
       </c>
       <c r="E693" t="n">
         <v>1.645987327107651</v>
@@ -12230,7 +12230,7 @@
         <v>373260.1538777777</v>
       </c>
       <c r="D694" t="n">
-        <v>-2.414853891776756</v>
+        <v>3.86833141540283</v>
       </c>
       <c r="E694" t="n">
         <v>1.588388631618936</v>
@@ -12247,7 +12247,7 @@
         <v>370015.7611405814</v>
       </c>
       <c r="D695" t="n">
-        <v>-1.577560408112288</v>
+        <v>4.705624899067297</v>
       </c>
       <c r="E695" t="n">
         <v>1.5175503708554</v>
@@ -12264,7 +12264,7 @@
         <v>372823.1626579798</v>
       </c>
       <c r="D696" t="n">
-        <v>-0.7343701482887695</v>
+        <v>5.548815158890816</v>
       </c>
       <c r="E696" t="n">
         <v>1.482056700024238</v>
@@ -12349,7 +12349,7 @@
         <v>381493.182490712</v>
       </c>
       <c r="D701" t="n">
-        <v>-3.240241545962732</v>
+        <v>3.042943761216855</v>
       </c>
       <c r="E701" t="n">
         <v>1.647162092742145</v>
@@ -12366,7 +12366,7 @@
         <v>368890.2872017566</v>
       </c>
       <c r="D702" t="n">
-        <v>-2.411105212771091</v>
+        <v>3.872080094408496</v>
       </c>
       <c r="E702" t="n">
         <v>1.586264463539082</v>
@@ -12383,7 +12383,7 @@
         <v>368042.4409259958</v>
       </c>
       <c r="D703" t="n">
-        <v>-1.555165891496448</v>
+        <v>4.728019415683138</v>
       </c>
       <c r="E703" t="n">
         <v>1.512934131521826</v>
@@ -12400,7 +12400,7 @@
         <v>375438.5565563199</v>
       </c>
       <c r="D704" t="n">
-        <v>-0.7149344004519227</v>
+        <v>5.568250906727664</v>
       </c>
       <c r="E704" t="n">
         <v>1.479538225195471</v>
@@ -12485,7 +12485,7 @@
         <v>383316.6111736268</v>
       </c>
       <c r="D709" t="n">
-        <v>-3.257861166839414</v>
+        <v>3.025324140340172</v>
       </c>
       <c r="E709" t="n">
         <v>1.649113294273518</v>
@@ -12502,7 +12502,7 @@
         <v>366059.4834499941</v>
       </c>
       <c r="D710" t="n">
-        <v>-2.42909413822643</v>
+        <v>3.854091168953156</v>
       </c>
       <c r="E710" t="n">
         <v>1.587780038924944</v>
@@ -12519,7 +12519,7 @@
         <v>362919.3561732584</v>
       </c>
       <c r="D711" t="n">
-        <v>-1.550487885662229</v>
+        <v>4.732697421517358</v>
       </c>
       <c r="E711" t="n">
         <v>1.511658694180231</v>
@@ -12536,7 +12536,7 @@
         <v>373861.0127751208</v>
       </c>
       <c r="D712" t="n">
-        <v>-0.6926901322100774</v>
+        <v>5.590495174969509</v>
       </c>
       <c r="E712" t="n">
         <v>1.478494146630251</v>
@@ -12621,7 +12621,7 @@
         <v>387578.2178138904</v>
       </c>
       <c r="D717" t="n">
-        <v>-3.268514841994797</v>
+        <v>3.014670465184789</v>
       </c>
       <c r="E717" t="n">
         <v>1.649257619834388</v>
@@ -12638,7 +12638,7 @@
         <v>367337.8798366686</v>
       </c>
       <c r="D718" t="n">
-        <v>-2.45681554359405</v>
+        <v>3.826369763585537</v>
       </c>
       <c r="E718" t="n">
         <v>1.590095801911785</v>
@@ -12655,7 +12655,7 @@
         <v>358418.7304747035</v>
       </c>
       <c r="D719" t="n">
-        <v>-1.570041702740919</v>
+        <v>4.713143604438668</v>
       </c>
       <c r="E719" t="n">
         <v>1.513507037658971</v>
@@ -12672,7 +12672,7 @@
         <v>368793.1784806862</v>
       </c>
       <c r="D720" t="n">
-        <v>-0.6849437174703423</v>
+        <v>5.598241589709244</v>
       </c>
       <c r="E720" t="n">
         <v>1.479579998092335</v>
@@ -12757,7 +12757,7 @@
         <v>391837.6920579553</v>
       </c>
       <c r="D725" t="n">
-        <v>-3.264356143110217</v>
+        <v>3.018829164069369</v>
       </c>
       <c r="E725" t="n">
         <v>1.646594496254826</v>
@@ -12774,7 +12774,7 @@
         <v>372225.005249742</v>
       </c>
       <c r="D726" t="n">
-        <v>-2.475622326169956</v>
+        <v>3.80756298100963</v>
       </c>
       <c r="E726" t="n">
         <v>1.589827846784528</v>
@@ -12791,7 +12791,7 @@
         <v>357937.8141582139</v>
       </c>
       <c r="D727" t="n">
-        <v>-1.603205235678769</v>
+        <v>4.679980071500816</v>
       </c>
       <c r="E727" t="n">
         <v>1.515895370008859</v>
@@ -12808,7 +12808,7 @@
         <v>363268.7319869766</v>
       </c>
       <c r="D728" t="n">
-        <v>-0.699748846223923</v>
+        <v>5.583436460955664</v>
       </c>
       <c r="E728" t="n">
         <v>1.481852430377632</v>
@@ -12893,7 +12893,7 @@
         <v>393875.4767739943</v>
       </c>
       <c r="D733" t="n">
-        <v>-3.247567579286829</v>
+        <v>3.035617727892757</v>
       </c>
       <c r="E733" t="n">
         <v>1.642196300930589</v>
@@ -12910,7 +12910,7 @@
         <v>377710.6834155088</v>
       </c>
       <c r="D734" t="n">
-        <v>-2.474160665896266</v>
+        <v>3.80902464128332</v>
       </c>
       <c r="E734" t="n">
         <v>1.585825847392413</v>
@@ -12927,7 +12927,7 @@
         <v>362014.8209629807</v>
       </c>
       <c r="D735" t="n">
-        <v>-1.628892603845008</v>
+        <v>4.654292703334578</v>
       </c>
       <c r="E735" t="n">
         <v>1.515796664613611</v>
@@ -12944,7 +12944,7 @@
         <v>360900.9005814116</v>
       </c>
       <c r="D736" t="n">
-        <v>-0.7301869884681031</v>
+        <v>5.552998318711483</v>
       </c>
       <c r="E736" t="n">
         <v>1.483394835455861</v>
@@ -13029,7 +13029,7 @@
         <v>392991.5581500211</v>
       </c>
       <c r="D741" t="n">
-        <v>-3.22823826519517</v>
+        <v>3.054947041984416</v>
       </c>
       <c r="E741" t="n">
         <v>1.638286239155468</v>
@@ -13046,7 +13046,7 @@
         <v>380499.4642103339</v>
       </c>
       <c r="D742" t="n">
-        <v>-2.455319310044791</v>
+        <v>3.827865997134795</v>
       </c>
       <c r="E742" t="n">
         <v>1.579730288119124</v>
@@ -13063,7 +13063,7 @@
         <v>367798.1431795663</v>
       </c>
       <c r="D743" t="n">
-        <v>-1.6314646317642</v>
+        <v>4.651720675415386</v>
       </c>
       <c r="E743" t="n">
         <v>1.512319924834962</v>
@@ -13080,7 +13080,7 @@
         <v>363274.1833911208</v>
       </c>
       <c r="D744" t="n">
-        <v>-0.7567319160480048</v>
+        <v>5.526453391131581</v>
       </c>
       <c r="E744" t="n">
         <v>1.482833740839826</v>
@@ -13165,7 +13165,7 @@
         <v>390488.1286633186</v>
       </c>
       <c r="D749" t="n">
-        <v>-3.218662059103095</v>
+        <v>3.064523248076491</v>
       </c>
       <c r="E749" t="n">
         <v>1.636822418540536</v>
@@ -13182,7 +13182,7 @@
         <v>379149.4579383933</v>
       </c>
       <c r="D750" t="n">
-        <v>-2.433857196286107</v>
+        <v>3.849328110893479</v>
       </c>
       <c r="E750" t="n">
         <v>1.574607339410502</v>
@@ -13199,7 +13199,7 @@
         <v>371141.9910382534</v>
       </c>
       <c r="D751" t="n">
-        <v>-1.612408691361439</v>
+        <v>4.670776615818147</v>
       </c>
       <c r="E751" t="n">
         <v>1.507317099417731</v>
@@ -13216,7 +13216,7 @@
         <v>368322.3303784411</v>
       </c>
       <c r="D752" t="n">
-        <v>-0.761503248438856</v>
+        <v>5.52168205874073</v>
       </c>
       <c r="E752" t="n">
         <v>1.480709761522405</v>
@@ -13301,7 +13301,7 @@
         <v>389058.8055742187</v>
       </c>
       <c r="D757" t="n">
-        <v>-3.2251399897552</v>
+        <v>3.058045317424386</v>
       </c>
       <c r="E757" t="n">
         <v>1.637960302059671</v>
@@ -13318,7 +13318,7 @@
         <v>375212.4200204997</v>
       </c>
       <c r="D758" t="n">
-        <v>-2.427900501107155</v>
+        <v>3.855284806072431</v>
       </c>
       <c r="E758" t="n">
         <v>1.572975862053775</v>
@@ -13335,7 +13335,7 @@
         <v>369564.064077226</v>
       </c>
       <c r="D759" t="n">
-        <v>-1.589447771103712</v>
+        <v>4.693737536075874</v>
       </c>
       <c r="E759" t="n">
         <v>1.503771445950102</v>
@@ -13352,7 +13352,7 @@
         <v>371679.9562013408</v>
       </c>
       <c r="D760" t="n">
-        <v>-0.7434606576216094</v>
+        <v>5.539724649557977</v>
       </c>
       <c r="E760" t="n">
         <v>1.479065125785821</v>
@@ -13437,7 +13437,7 @@
         <v>390762.5115629259</v>
       </c>
       <c r="D765" t="n">
-        <v>-3.241433877761538</v>
+        <v>3.041751429418048</v>
       </c>
       <c r="E765" t="n">
         <v>1.63941058079364</v>
@@ -13454,7 +13454,7 @@
         <v>372658.6121886638</v>
       </c>
       <c r="D766" t="n">
-        <v>-2.445769369172692</v>
+        <v>3.837415938006894</v>
       </c>
       <c r="E766" t="n">
         <v>1.57471132261937</v>
@@ -13471,7 +13471,7 @@
         <v>364287.7487604868</v>
       </c>
       <c r="D767" t="n">
-        <v>-1.585614652673174</v>
+        <v>4.697570654506412</v>
       </c>
       <c r="E767" t="n">
         <v>1.503606961892424</v>
@@ -13488,7 +13488,7 @@
         <v>370049.3587224974</v>
       </c>
       <c r="D768" t="n">
-        <v>-0.7201999957983971</v>
+        <v>5.562985311381189</v>
       </c>
       <c r="E768" t="n">
         <v>1.479575196795839</v>
@@ -13573,7 +13573,7 @@
         <v>394949.5329060639</v>
       </c>
       <c r="D773" t="n">
-        <v>-3.252777687274174</v>
+        <v>3.030407619905412</v>
       </c>
       <c r="E773" t="n">
         <v>1.638323964785813</v>
@@ -13590,7 +13590,7 @@
         <v>374738.9793574437</v>
       </c>
       <c r="D774" t="n">
-        <v>-2.475611256735867</v>
+        <v>3.80757405044372</v>
       </c>
       <c r="E774" t="n">
         <v>1.576431882047774</v>
@@ -13607,7 +13607,7 @@
         <v>360010.7071547568</v>
       </c>
       <c r="D775" t="n">
-        <v>-1.611495093874638</v>
+        <v>4.671690213304949</v>
       </c>
       <c r="E775" t="n">
         <v>1.505988021754132</v>
@@ -13624,7 +13624,7 @@
         <v>364011.0157022554</v>
       </c>
       <c r="D776" t="n">
-        <v>-0.7158899781161376</v>
+        <v>5.567295329063448</v>
       </c>
       <c r="E776" t="n">
         <v>1.482009965014499</v>
@@ -13709,7 +13709,7 @@
         <v>398857.3722151402</v>
       </c>
       <c r="D781" t="n">
-        <v>-3.24939809242877</v>
+        <v>3.033787214750816</v>
       </c>
       <c r="E781" t="n">
         <v>1.634232620667337</v>
@@ -13726,7 +13726,7 @@
         <v>380537.2497330387</v>
       </c>
       <c r="D782" t="n">
-        <v>-2.494354820219502</v>
+        <v>3.788830486960084</v>
       </c>
       <c r="E782" t="n">
         <v>1.574650781096069</v>
@@ -13743,7 +13743,7 @@
         <v>361078.6711101143</v>
       </c>
       <c r="D783" t="n">
-        <v>-1.651587308806112</v>
+        <v>4.631597998373475</v>
       </c>
       <c r="E783" t="n">
         <v>1.507583612053243</v>
@@ -13760,7 +13760,7 @@
         <v>358166.764676981</v>
       </c>
       <c r="D784" t="n">
-        <v>-0.7418137114123251</v>
+        <v>5.541371595767261</v>
       </c>
       <c r="E784" t="n">
         <v>1.484264925415675</v>
@@ -13845,7 +13845,7 @@
         <v>400338.9516437228</v>
       </c>
       <c r="D789" t="n">
-        <v>-3.234007517153048</v>
+        <v>3.049177790026538</v>
       </c>
       <c r="E789" t="n">
         <v>1.629312735259576</v>
@@ -13862,7 +13862,7 @@
         <v>385950.3231080867</v>
       </c>
       <c r="D790" t="n">
-        <v>-2.490334809284167</v>
+        <v>3.79285049789542</v>
       </c>
       <c r="E790" t="n">
         <v>1.569456933925446</v>
@@ -13879,7 +13879,7 @@
         <v>366912.7312812842</v>
       </c>
       <c r="D791" t="n">
-        <v>-1.676972346754357</v>
+        <v>4.606212960425229</v>
       </c>
       <c r="E791" t="n">
         <v>1.505897539048397</v>
@@ -13896,7 +13896,7 @@
         <v>357332.3577641064</v>
       </c>
       <c r="D792" t="n">
-        <v>-0.7828347079125835</v>
+        <v>5.500350599267003</v>
       </c>
       <c r="E792" t="n">
         <v>1.484307331850735</v>
@@ -13981,7 +13981,7 @@
         <v>399396.2780765184</v>
       </c>
       <c r="D797" t="n">
-        <v>-3.217066768182863</v>
+        <v>3.066118538996723</v>
       </c>
       <c r="E797" t="n">
         <v>1.626108685229641</v>
@@ -13998,7 +13998,7 @@
         <v>387827.8866046842</v>
       </c>
       <c r="D798" t="n">
-        <v>-2.470913163843913</v>
+        <v>3.812272143335673</v>
       </c>
       <c r="E798" t="n">
         <v>1.563767072167026</v>
@@ -14015,7 +14015,7 @@
         <v>372899.4392062449</v>
       </c>
       <c r="D799" t="n">
-        <v>-1.674223819356125</v>
+        <v>4.608961487823461</v>
       </c>
       <c r="E799" t="n">
         <v>1.501838087781671</v>
@@ -14032,7 +14032,7 @@
         <v>361733.7120775806</v>
       </c>
       <c r="D800" t="n">
-        <v>-0.8101066778915431</v>
+        <v>5.473078629288043</v>
       </c>
       <c r="E800" t="n">
         <v>1.482378346034615</v>
@@ -14117,7 +14117,7 @@
         <v>397613.9063998078</v>
       </c>
       <c r="D805" t="n">
-        <v>-3.207972923967346</v>
+        <v>3.075212383212241</v>
       </c>
       <c r="E805" t="n">
         <v>1.625469530444128</v>
@@ -14134,7 +14134,7 @@
         <v>386099.5768746621</v>
       </c>
       <c r="D806" t="n">
-        <v>-2.452179268655003</v>
+        <v>3.831006038524583</v>
       </c>
       <c r="E806" t="n">
         <v>1.560300345990396</v>
@@ -14151,7 +14151,7 @@
         <v>375145.7606302814</v>
       </c>
       <c r="D807" t="n">
-        <v>-1.652829776890704</v>
+        <v>4.630355530288883</v>
       </c>
       <c r="E807" t="n">
         <v>1.498122565499637</v>
@@ -14168,7 +14168,7 @@
         <v>367265.813523676</v>
       </c>
       <c r="D808" t="n">
-        <v>-0.8091341839024047</v>
+        <v>5.474051123277182</v>
       </c>
       <c r="E808" t="n">
         <v>1.4805997120976</v>
@@ -14253,7 +14253,7 @@
         <v>396782.6093386892</v>
       </c>
       <c r="D813" t="n">
-        <v>-3.209281397037896</v>
+        <v>3.073903910141691</v>
       </c>
       <c r="E813" t="n">
         <v>1.626110021125818</v>
@@ -14270,7 +14270,7 @@
         <v>383083.3639207968</v>
       </c>
       <c r="D814" t="n">
-        <v>-2.446745362848048</v>
+        <v>3.836439944331538</v>
       </c>
       <c r="E814" t="n">
         <v>1.559715468432189</v>
@@ -14287,7 +14287,7 @@
         <v>373021.6365592195</v>
       </c>
       <c r="D815" t="n">
-        <v>-1.632173437249208</v>
+        <v>4.651011869930378</v>
       </c>
       <c r="E815" t="n">
         <v>1.496637521251111</v>
@@ -14304,7 +14304,7 @@
         <v>369756.2183449538</v>
       </c>
       <c r="D816" t="n">
-        <v>-0.7879043468884133</v>
+        <v>5.495280960291173</v>
       </c>
       <c r="E816" t="n">
         <v>1.480756222422424</v>
@@ -14389,7 +14389,7 @@
         <v>397769.9963982224</v>
       </c>
       <c r="D821" t="n">
-        <v>-3.216180343309081</v>
+        <v>3.067004963870505</v>
       </c>
       <c r="E821" t="n">
         <v>1.625802599647501</v>
@@ -14406,7 +14406,7 @@
         <v>381666.3412225524</v>
       </c>
       <c r="D822" t="n">
-        <v>-2.456738796721661</v>
+        <v>3.826446510457925</v>
       </c>
       <c r="E822" t="n">
         <v>1.560449432081613</v>
@@ -14423,7 +14423,7 @@
         <v>368796.1731432764</v>
       </c>
       <c r="D823" t="n">
-        <v>-1.628252780559784</v>
+        <v>4.654932526619803</v>
       </c>
       <c r="E823" t="n">
         <v>1.49736192030282</v>
@@ -14440,7 +14440,7 @@
         <v>367725.3878032069</v>
       </c>
       <c r="D824" t="n">
-        <v>-0.7655917649815693</v>
+        <v>5.517593542198017</v>
       </c>
       <c r="E824" t="n">
         <v>1.482994070354671</v>
@@ -14525,7 +14525,7 @@
         <v>400146.7738250807</v>
       </c>
       <c r="D829" t="n">
-        <v>-3.220525240821137</v>
+        <v>3.062660066358449</v>
       </c>
       <c r="E829" t="n">
         <v>1.623208260098106</v>
@@ -14542,7 +14542,7 @@
         <v>383448.6132162099</v>
       </c>
       <c r="D830" t="n">
-        <v>-2.473394944696558</v>
+        <v>3.809790362483028</v>
       </c>
       <c r="E830" t="n">
         <v>1.560022716442498</v>
@@ -14559,7 +14559,7 @@
         <v>366032.5349285044</v>
       </c>
       <c r="D831" t="n">
-        <v>-1.645260350371924</v>
+        <v>4.637924956807662</v>
       </c>
       <c r="E831" t="n">
         <v>1.49864515737459</v>
@@ -14576,7 +14576,7 @@
         <v>362681.6559527846</v>
       </c>
       <c r="D832" t="n">
-        <v>-0.7602889859233279</v>
+        <v>5.522896321256258</v>
       </c>
       <c r="E832" t="n">
         <v>1.485885303349436</v>
@@ -14661,7 +14661,7 @@
         <v>402631.8164411148</v>
       </c>
       <c r="D837" t="n">
-        <v>-3.216384964099501</v>
+        <v>3.066800343080085</v>
       </c>
       <c r="E837" t="n">
         <v>1.618817552074909</v>
@@ -14678,7 +14678,7 @@
         <v>387741.7543690275</v>
       </c>
       <c r="D838" t="n">
-        <v>-2.483593686133889</v>
+        <v>3.799591621045697</v>
       </c>
       <c r="E838" t="n">
         <v>1.557036789754647</v>
@@ -14695,7 +14695,7 @@
         <v>367360.9147198742</v>
       </c>
       <c r="D839" t="n">
-        <v>-1.67265893260165</v>
+        <v>4.610526374577936</v>
       </c>
       <c r="E839" t="n">
         <v>1.49846259214016</v>
@@ -14712,7 +14712,7 @@
         <v>358199.4470370602</v>
       </c>
       <c r="D840" t="n">
-        <v>-0.779676787369572</v>
+        <v>5.503508519810014</v>
       </c>
       <c r="E840" t="n">
         <v>1.4873682842511</v>
@@ -14797,7 +14797,7 @@
         <v>403958.1634513931</v>
       </c>
       <c r="D845" t="n">
-        <v>-3.203575407254744</v>
+        <v>3.079609899924843</v>
       </c>
       <c r="E845" t="n">
         <v>1.61439019446696</v>
@@ -14814,7 +14814,7 @@
         <v>392123.4004834984</v>
       </c>
       <c r="D846" t="n">
-        <v>-2.479186475698951</v>
+        <v>3.803998831480635</v>
       </c>
       <c r="E846" t="n">
         <v>1.552192698147539</v>
@@ -14831,7 +14831,7 @@
         <v>372496.8739706794</v>
       </c>
       <c r="D847" t="n">
-        <v>-1.691830629788482</v>
+        <v>4.591354677391104</v>
       </c>
       <c r="E847" t="n">
         <v>1.496087851425481</v>
@@ -14848,7 +14848,7 @@
         <v>357861.6579026485</v>
       </c>
       <c r="D848" t="n">
-        <v>-0.8144185861305946</v>
+        <v>5.468766721048992</v>
       </c>
       <c r="E848" t="n">
         <v>1.486362799468948</v>
@@ -14933,7 +14933,7 @@
         <v>403664.9706430903</v>
       </c>
       <c r="D853" t="n">
-        <v>-3.187659281003746</v>
+        <v>3.095526026175841</v>
       </c>
       <c r="E853" t="n">
         <v>1.611612530565627</v>
@@ -14950,7 +14950,7 @@
         <v>394143.7344047423</v>
       </c>
       <c r="D854" t="n">
-        <v>-2.46231282987433</v>
+        <v>3.820872477305256</v>
       </c>
       <c r="E854" t="n">
         <v>1.547547878495151</v>
@@ -14967,7 +14967,7 @@
         <v>378260.5550312875</v>
       </c>
       <c r="D855" t="n">
-        <v>-1.690206888511812</v>
+        <v>4.592978418667775</v>
       </c>
       <c r="E855" t="n">
         <v>1.492717513900521</v>
@@ -14984,7 +14984,7 @@
         <v>362384.2105905397</v>
       </c>
       <c r="D856" t="n">
-        <v>-0.8419566125045437</v>
+        <v>5.441228694675043</v>
       </c>
       <c r="E856" t="n">
         <v>1.484016963822236</v>
@@ -15069,7 +15069,7 @@
         <v>402439.8165414316</v>
       </c>
       <c r="D861" t="n">
-        <v>-3.176544164795483</v>
+        <v>3.106641142384103</v>
       </c>
       <c r="E861" t="n">
         <v>1.610872203818799</v>
@@ -15086,7 +15086,7 @@
         <v>393032.3220506035</v>
       </c>
       <c r="D862" t="n">
-        <v>-2.444022651615108</v>
+        <v>3.839162655564478</v>
       </c>
       <c r="E862" t="n">
         <v>1.544930523035161</v>
@@ -15103,7 +15103,7 @@
         <v>380936.8223109405</v>
       </c>
       <c r="D863" t="n">
-        <v>-1.670846079771125</v>
+        <v>4.612339227408461</v>
       </c>
       <c r="E863" t="n">
         <v>1.490364759286347</v>
@@ -15120,7 +15120,7 @@
         <v>368508.4775736604</v>
       </c>
       <c r="D864" t="n">
-        <v>-0.8444190027291563</v>
+        <v>5.43876630445043</v>
       </c>
       <c r="E864" t="n">
         <v>1.482865716948565</v>
@@ -15205,7 +15205,7 @@
         <v>401661.5686924199</v>
       </c>
       <c r="D869" t="n">
-        <v>-3.174982562660168</v>
+        <v>3.108202744519418</v>
       </c>
       <c r="E869" t="n">
         <v>1.610795378458823</v>
@@ -15222,7 +15222,7 @@
         <v>390426.290388443</v>
       </c>
       <c r="D870" t="n">
-        <v>-2.437188448198465</v>
+        <v>3.845996858981121</v>
       </c>
       <c r="E870" t="n">
         <v>1.544556885906193</v>
@@ -15239,7 +15239,7 @@
         <v>379108.8319941012</v>
       </c>
       <c r="D871" t="n">
-        <v>-1.650448296025312</v>
+        <v>4.632737011154274</v>
       </c>
       <c r="E871" t="n">
         <v>1.490170146549789</v>
@@ -15256,7 +15256,7 @@
         <v>371535.966418832</v>
       </c>
       <c r="D872" t="n">
-        <v>-0.8242338677867136</v>
+        <v>5.458951439392873</v>
       </c>
       <c r="E872" t="n">
         <v>1.48451804855826</v>
@@ -15341,7 +15341,7 @@
         <v>402222.3076217501</v>
       </c>
       <c r="D877" t="n">
-        <v>-3.180582546120511</v>
+        <v>3.102602761059075</v>
       </c>
       <c r="E877" t="n">
         <v>1.609243979748931</v>
@@ -15358,7 +15358,7 @@
         <v>389329.787550827</v>
       </c>
       <c r="D878" t="n">
-        <v>-2.446337759734853</v>
+        <v>3.836847547444734</v>
       </c>
       <c r="E878" t="n">
         <v>1.544633189466218</v>
@@ -15375,7 +15375,7 @@
         <v>374994.0053507886</v>
       </c>
       <c r="D879" t="n">
-        <v>-1.647851339644876</v>
+        <v>4.63533396753471</v>
       </c>
       <c r="E879" t="n">
         <v>1.491399082223652</v>
@@ -15392,7 +15392,7 @@
         <v>369217.5488794068</v>
       </c>
       <c r="D880" t="n">
-        <v>-0.8023184777348611</v>
+        <v>5.480866829444725</v>
       </c>
       <c r="E880" t="n">
         <v>1.488217685229754</v>
@@ -15477,7 +15477,7 @@
         <v>403771.089257812</v>
       </c>
       <c r="D885" t="n">
-        <v>-3.185751988626929</v>
+        <v>3.097433318552657</v>
       </c>
       <c r="E885" t="n">
         <v>1.605425612094051</v>
@@ -15494,7 +15494,7 @@
         <v>391464.29338589</v>
       </c>
       <c r="D886" t="n">
-        <v>-2.462429626597752</v>
+        <v>3.820755680581835</v>
       </c>
       <c r="E886" t="n">
         <v>1.542859307502631</v>
@@ -15511,7 +15511,7 @@
         <v>372989.8011138374</v>
       </c>
       <c r="D887" t="n">
-        <v>-1.668185866907056</v>
+        <v>4.614999440272531</v>
       </c>
       <c r="E887" t="n">
         <v>1.491919928657942</v>
@@ -15528,7 +15528,7 @@
         <v>363730.7582036714</v>
       </c>
       <c r="D888" t="n">
-        <v>-0.8022093384416391</v>
+        <v>5.480975968737948</v>
       </c>
       <c r="E888" t="n">
         <v>1.491263902942316</v>
@@ -15613,7 +15613,7 @@
         <v>405318.9587174178</v>
       </c>
       <c r="D893" t="n">
-        <v>-3.184028747068209</v>
+        <v>3.099156560111377</v>
       </c>
       <c r="E893" t="n">
         <v>1.600747645533854</v>
@@ -15630,7 +15630,7 @@
         <v>395610.8709759814</v>
       </c>
       <c r="D894" t="n">
-        <v>-2.471027726784846</v>
+        <v>3.81215758039474</v>
       </c>
       <c r="E894" t="n">
         <v>1.538873133838154</v>
@@ -15647,7 +15647,7 @@
         <v>375699.8480013884</v>
       </c>
       <c r="D895" t="n">
-        <v>-1.696121255492615</v>
+        <v>4.587064051686972</v>
       </c>
       <c r="E895" t="n">
         <v>1.490305283344048</v>
@@ -15664,7 +15664,7 @@
         <v>360160.9544166709</v>
       </c>
       <c r="D896" t="n">
-        <v>-0.8301217296766987</v>
+        <v>5.453063577502888</v>
       </c>
       <c r="E896" t="n">
         <v>1.491279552450009</v>
@@ -15749,7 +15749,7 @@
         <v>406194.6336816328</v>
       </c>
       <c r="D901" t="n">
-        <v>-3.174253069303557</v>
+        <v>3.108932237876029</v>
       </c>
       <c r="E901" t="n">
         <v>1.597213446432495</v>
@@ -15766,7 +15766,7 @@
         <v>399102.5676551344</v>
       </c>
       <c r="D902" t="n">
-        <v>-2.465401092656165</v>
+        <v>3.817784214523421</v>
       </c>
       <c r="E902" t="n">
         <v>1.534467782337519</v>
@@ -15783,7 +15783,7 @@
         <v>381426.3698688154</v>
       </c>
       <c r="D903" t="n">
-        <v>-1.710586543881614</v>
+        <v>4.572598763297972</v>
       </c>
       <c r="E903" t="n">
         <v>1.487409894852309</v>
@@ -15800,7 +15800,7 @@
         <v>361951.2002523693</v>
       </c>
       <c r="D904" t="n">
-        <v>-0.8673521851025945</v>
+        <v>5.415833122076991</v>
       </c>
       <c r="E904" t="n">
         <v>1.488794011106414</v>
@@ -15885,7 +15885,7 @@
         <v>406236.3783738259</v>
       </c>
       <c r="D909" t="n">
-        <v>-3.160191445397691</v>
+        <v>3.122993861781895</v>
       </c>
       <c r="E909" t="n">
         <v>1.595479940242825</v>
@@ -15902,7 +15902,7 @@
         <v>400285.4041912581</v>
       </c>
       <c r="D910" t="n">
-        <v>-2.44967685049327</v>
+        <v>3.833508456686316</v>
       </c>
       <c r="E910" t="n">
         <v>1.531479014414267</v>
@@ -15919,7 +15919,7 @@
         <v>386318.1171840118</v>
       </c>
       <c r="D911" t="n">
-        <v>-1.704011871862909</v>
+        <v>4.579173435316677</v>
       </c>
       <c r="E911" t="n">
         <v>1.485233901879044</v>
@@ -15936,7 +15936,7 @@
         <v>367717.8217009114</v>
       </c>
       <c r="D912" t="n">
-        <v>-0.8882861788436363</v>
+        <v>5.39489912833595</v>
       </c>
       <c r="E912" t="n">
         <v>1.486762844734191</v>
@@ -15953,7 +15953,7 @@
         <v>357831.9559967421</v>
       </c>
       <c r="D913" t="n">
-        <v>-0.0009734452887246725</v>
+        <v>6.282211861890861</v>
       </c>
       <c r="E913" t="n">
         <v>1.54752154420011</v>
@@ -16021,7 +16021,7 @@
         <v>405618.8675413342</v>
       </c>
       <c r="D917" t="n">
-        <v>-3.147566352375123</v>
+        <v>3.135618954804463</v>
       </c>
       <c r="E917" t="n">
         <v>1.594576992636865</v>
@@ -16038,7 +16038,7 @@
         <v>399322.0271349899</v>
       </c>
       <c r="D918" t="n">
-        <v>-2.43318314143744</v>
+        <v>3.850002165742146</v>
       </c>
       <c r="E918" t="n">
         <v>1.530229551346546</v>
@@ -16055,7 +16055,7 @@
         <v>387861.5500318217</v>
       </c>
       <c r="D919" t="n">
-        <v>-1.684259751881518</v>
+        <v>4.598925555298068</v>
       </c>
       <c r="E919" t="n">
         <v>1.484877814139632</v>
@@ -16072,7 +16072,7 @@
         <v>373221.4465918823</v>
       </c>
       <c r="D920" t="n">
-        <v>-0.8833799057236016</v>
+        <v>5.399805401455985</v>
       </c>
       <c r="E920" t="n">
         <v>1.487453020163904</v>
@@ -16089,7 +16089,7 @@
         <v>362201.8292705859</v>
       </c>
       <c r="D921" t="n">
-        <v>-0.02444856119284644</v>
+        <v>6.25873674598674</v>
       </c>
       <c r="E921" t="n">
         <v>1.545706762703278</v>
@@ -16157,7 +16157,7 @@
         <v>404751.1856063924</v>
       </c>
       <c r="D925" t="n">
-        <v>-3.140617612229228</v>
+        <v>3.142567694950358</v>
       </c>
       <c r="E925" t="n">
         <v>1.592979672796905</v>
@@ -16174,7 +16174,7 @@
         <v>397608.5032552023</v>
       </c>
       <c r="D926" t="n">
-        <v>-2.423932746676006</v>
+        <v>3.85925256050358</v>
       </c>
       <c r="E926" t="n">
         <v>1.529619291679739</v>
@@ -16191,7 +16191,7 @@
         <v>386126.5886185003</v>
       </c>
       <c r="D927" t="n">
-        <v>-1.665445606644104</v>
+        <v>4.617739700535482</v>
       </c>
       <c r="E927" t="n">
         <v>1.485861732260741</v>
@@ -16208,7 +16208,7 @@
         <v>375195.7515999916</v>
       </c>
       <c r="D928" t="n">
-        <v>-0.8616943350216997</v>
+        <v>5.421490972157887</v>
       </c>
       <c r="E928" t="n">
         <v>1.490812384901093</v>
@@ -16225,7 +16225,7 @@
         <v>367416.8484498747</v>
       </c>
       <c r="D929" t="n">
-        <v>-0.021815616643035</v>
+        <v>6.261369690536551</v>
       </c>
       <c r="E929" t="n">
         <v>1.54800068111669</v>
@@ -16293,7 +16293,7 @@
         <v>404125.2919545914</v>
       </c>
       <c r="D933" t="n">
-        <v>-3.139792787262105</v>
+        <v>3.143392519917481</v>
       </c>
       <c r="E933" t="n">
         <v>1.589855438281489</v>
@@ -16310,7 +16310,7 @@
         <v>396791.8711397671</v>
       </c>
       <c r="D934" t="n">
-        <v>-2.424448028829026</v>
+        <v>3.85873727835056</v>
       </c>
       <c r="E934" t="n">
         <v>1.52816944386493</v>
@@ -16327,7 +16327,7 @@
         <v>383183.064217117</v>
       </c>
       <c r="D935" t="n">
-        <v>-1.659182372519909</v>
+        <v>4.624002934659678</v>
       </c>
       <c r="E935" t="n">
         <v>1.486697518172251</v>
@@ -16344,7 +16344,7 @@
         <v>373076.4277752955</v>
       </c>
       <c r="D936" t="n">
-        <v>-0.8407102884307873</v>
+        <v>5.442475018748799</v>
       </c>
       <c r="E936" t="n">
         <v>1.494977429827823</v>
@@ -16361,7 +16361,7 @@
         <v>369779.1289775999</v>
       </c>
       <c r="D937" t="n">
-        <v>-0.0003620330150386764</v>
+        <v>6.282823274164548</v>
       </c>
       <c r="E937" t="n">
         <v>1.553681127509361</v>
@@ -16429,7 +16429,7 @@
         <v>404076.1665696299</v>
       </c>
       <c r="D941" t="n">
-        <v>-3.141705880112624</v>
+        <v>3.141479427066963</v>
       </c>
       <c r="E941" t="n">
         <v>1.585663952312378</v>
@@ -16446,7 +16446,7 @@
         <v>397805.084712526</v>
       </c>
       <c r="D942" t="n">
-        <v>-2.430728673357494</v>
+        <v>3.852456633822092</v>
       </c>
       <c r="E942" t="n">
         <v>1.52519844728983</v>
@@ -16463,7 +16463,7 @@
         <v>381795.085461617</v>
       </c>
       <c r="D943" t="n">
-        <v>-1.668507769811469</v>
+        <v>4.614677537368117</v>
       </c>
       <c r="E943" t="n">
         <v>1.486030563842159</v>
@@ -16480,7 +16480,7 @@
         <v>368880.2328890963</v>
       </c>
       <c r="D944" t="n">
-        <v>-0.8363540957327662</v>
+        <v>5.44683121144682</v>
       </c>
       <c r="E944" t="n">
         <v>1.497502221030979</v>
@@ -16565,7 +16565,7 @@
         <v>404609.8334196431</v>
       </c>
       <c r="D949" t="n">
-        <v>-3.141318273177069</v>
+        <v>3.141867034002517</v>
       </c>
       <c r="E949" t="n">
         <v>1.581750725059826</v>
@@ -16582,7 +16582,7 @@
         <v>400296.6022568537</v>
       </c>
       <c r="D950" t="n">
-        <v>-2.435039032373985</v>
+        <v>3.848146274805601</v>
       </c>
       <c r="E950" t="n">
         <v>1.521368662187937</v>
@@ -16599,7 +16599,7 @@
         <v>383717.472344814</v>
       </c>
       <c r="D951" t="n">
-        <v>-1.685615042507263</v>
+        <v>4.597570264672323</v>
       </c>
       <c r="E951" t="n">
         <v>1.483782878739422</v>
@@ -16616,7 +16616,7 @@
         <v>366149.4543912106</v>
       </c>
       <c r="D952" t="n">
-        <v>-0.8543404987296586</v>
+        <v>5.428844808449927</v>
       </c>
       <c r="E952" t="n">
         <v>1.496945377682127</v>
@@ -16701,7 +16701,7 @@
         <v>405411.5208301079</v>
       </c>
       <c r="D957" t="n">
-        <v>-3.135090996824752</v>
+        <v>3.148094310354835</v>
       </c>
       <c r="E957" t="n">
         <v>1.579221282748836</v>
@@ -16718,7 +16718,7 @@
         <v>402883.7949558238</v>
       </c>
       <c r="D958" t="n">
-        <v>-2.431190327645283</v>
+        <v>3.851994979534303</v>
       </c>
       <c r="E958" t="n">
         <v>1.518119245727963</v>
@@ -16735,7 +16735,7 @@
         <v>388317.3697263873</v>
       </c>
       <c r="D959" t="n">
-        <v>-1.696693022570461</v>
+        <v>4.586492284609125</v>
       </c>
       <c r="E959" t="n">
         <v>1.48136077097445</v>
@@ -16752,7 +16752,7 @@
         <v>367775.9792225323</v>
       </c>
       <c r="D960" t="n">
-        <v>-0.884268955263102</v>
+        <v>5.398916351916484</v>
       </c>
       <c r="E960" t="n">
         <v>1.49436048743099</v>
@@ -16837,7 +16837,7 @@
         <v>406016.8514350806</v>
       </c>
       <c r="D965" t="n">
-        <v>-3.123277051820347</v>
+        <v>3.159908255359239</v>
       </c>
       <c r="E965" t="n">
         <v>1.57797582448199</v>
@@ -16854,7 +16854,7 @@
         <v>404157.0997771409</v>
       </c>
       <c r="D966" t="n">
-        <v>-2.418833233695565</v>
+        <v>3.864352073484021</v>
       </c>
       <c r="E966" t="n">
         <v>1.516427556406989</v>
@@ -16871,7 +16871,7 @@
         <v>392869.4973370546</v>
       </c>
       <c r="D967" t="n">
-        <v>-1.692376116607628</v>
+        <v>4.590809190571958</v>
       </c>
       <c r="E967" t="n">
         <v>1.480457608442179</v>
@@ -16888,7 +16888,7 @@
         <v>373416.2179667238</v>
       </c>
       <c r="D968" t="n">
-        <v>-0.9050762714007647</v>
+        <v>5.378109035778822</v>
       </c>
       <c r="E968" t="n">
         <v>1.492852427901474</v>
@@ -16905,7 +16905,7 @@
         <v>358082.3953125261</v>
       </c>
       <c r="D969" t="n">
-        <v>-0.03522525287859413</v>
+        <v>6.247960054300992</v>
       </c>
       <c r="E969" t="n">
         <v>1.558629994782315</v>
@@ -16973,7 +16973,7 @@
         <v>406022.0685281188</v>
       </c>
       <c r="D973" t="n">
-        <v>-3.109973923683633</v>
+        <v>3.173211383495953</v>
       </c>
       <c r="E973" t="n">
         <v>1.576700418198488</v>
@@ -16990,7 +16990,7 @@
         <v>403729.093761739</v>
       </c>
       <c r="D974" t="n">
-        <v>-2.403779622413952</v>
+        <v>3.879405684765634</v>
       </c>
       <c r="E974" t="n">
         <v>1.515933558756431</v>
@@ -17007,7 +17007,7 @@
         <v>394664.12358998</v>
       </c>
       <c r="D975" t="n">
-        <v>-1.675145881614225</v>
+        <v>4.608039425565361</v>
       </c>
       <c r="E975" t="n">
         <v>1.481543031508782</v>
@@ -17024,7 +17024,7 @@
         <v>379312.6026124927</v>
       </c>
       <c r="D976" t="n">
-        <v>-0.9026553680146128</v>
+        <v>5.380529939164973</v>
       </c>
       <c r="E976" t="n">
         <v>1.49474347932357</v>
@@ -17041,7 +17041,7 @@
         <v>363220.3298666379</v>
       </c>
       <c r="D977" t="n">
-        <v>-0.06371763054391311</v>
+        <v>6.219467676635674</v>
       </c>
       <c r="E977" t="n">
         <v>1.557102429683465</v>
@@ -17109,7 +17109,7 @@
         <v>405216.834127717</v>
       </c>
       <c r="D981" t="n">
-        <v>-3.100778680194797</v>
+        <v>3.182406626984789</v>
       </c>
       <c r="E981" t="n">
         <v>1.573949311162</v>
@@ -17126,7 +17126,7 @@
         <v>402518.385131501</v>
       </c>
       <c r="D982" t="n">
-        <v>-2.393900873818012</v>
+        <v>3.889284433361575</v>
       </c>
       <c r="E982" t="n">
         <v>1.51513409822773</v>
@@ -17143,7 +17143,7 @@
         <v>393202.8286732773</v>
       </c>
       <c r="D983" t="n">
-        <v>-1.657525669782716</v>
+        <v>4.62565963739687</v>
       </c>
       <c r="E983" t="n">
         <v>1.483382352834674</v>
@@ -17160,7 +17160,7 @@
         <v>381481.0817938856</v>
       </c>
       <c r="D984" t="n">
-        <v>-0.8821273457677239</v>
+        <v>5.401057961411862</v>
       </c>
       <c r="E984" t="n">
         <v>1.499453809725663</v>
@@ -17177,7 +17177,7 @@
         <v>369404.6737865362</v>
       </c>
       <c r="D985" t="n">
-        <v>-0.06348028185630472</v>
+        <v>6.219705025323282</v>
       </c>
       <c r="E985" t="n">
         <v>1.560524970901435</v>
@@ -17245,7 +17245,7 @@
         <v>403731.289888201</v>
       </c>
       <c r="D989" t="n">
-        <v>-3.099285774359962</v>
+        <v>3.183899532819624</v>
       </c>
       <c r="E989" t="n">
         <v>1.56959920499034</v>
@@ -17262,7 +17262,7 @@
         <v>401921.2364450419</v>
       </c>
       <c r="D990" t="n">
-        <v>-2.393085782842039</v>
+        <v>3.890099524337547</v>
       </c>
       <c r="E990" t="n">
         <v>1.512693651094059</v>
@@ -17279,7 +17279,7 @@
         <v>390651.680469394</v>
       </c>
       <c r="D991" t="n">
-        <v>-1.65244081548067</v>
+        <v>4.630744491698916</v>
       </c>
       <c r="E991" t="n">
         <v>1.483948398204304</v>
@@ -17296,7 +17296,7 @@
         <v>379099.0123429905</v>
       </c>
       <c r="D992" t="n">
-        <v>-0.8629990917246881</v>
+        <v>5.420186215454898</v>
       </c>
       <c r="E992" t="n">
         <v>1.504050487019157</v>
@@ -17313,7 +17313,7 @@
         <v>371740.3451551056</v>
       </c>
       <c r="D993" t="n">
-        <v>-0.04140077834648626</v>
+        <v>6.2417845288331</v>
       </c>
       <c r="E993" t="n">
         <v>1.567221817687835</v>
@@ -17381,7 +17381,7 @@
         <v>402253.2620056979</v>
       </c>
       <c r="D997" t="n">
-        <v>-3.104176768918036</v>
+        <v>3.17900853826155</v>
       </c>
       <c r="E997" t="n">
         <v>1.565216876762444</v>
@@ -17398,7 +17398,7 @@
         <v>402563.6340418073</v>
       </c>
       <c r="D998" t="n">
-        <v>-2.398264346151596</v>
+        <v>3.88492096102799</v>
       </c>
       <c r="E998" t="n">
         <v>1.508906519267903</v>
@@ -17415,7 +17415,7 @@
         <v>389996.9846746009</v>
       </c>
       <c r="D999" t="n">
-        <v>-1.662269838015438</v>
+        <v>4.620915469164149</v>
       </c>
       <c r="E999" t="n">
         <v>1.482300259184591</v>
@@ -17432,7 +17432,7 @@
         <v>375120.8807010942</v>
       </c>
       <c r="D1000" t="n">
-        <v>-0.8632584775688681</v>
+        <v>5.419926829610718</v>
       </c>
       <c r="E1000" t="n">
         <v>1.505590316800922</v>
@@ -17449,7 +17449,7 @@
         <v>368800.9414113153</v>
       </c>
       <c r="D1001" t="n">
-        <v>-0.02151385905419545</v>
+        <v>6.261671448125391</v>
       </c>
       <c r="E1001" t="n">
         <v>1.57294282735477</v>
@@ -17517,7 +17517,7 @@
         <v>401769.8245657647</v>
       </c>
       <c r="D1005" t="n">
-        <v>-3.109083765757507</v>
+        <v>3.174101541422079</v>
       </c>
       <c r="E1005" t="n">
         <v>1.562521794963665</v>
@@ -17534,7 +17534,7 @@
         <v>403991.6250546643</v>
       </c>
       <c r="D1006" t="n">
-        <v>-2.402365376182113</v>
+        <v>3.880819930997473</v>
       </c>
       <c r="E1006" t="n">
         <v>1.505540143467076</v>
@@ -17551,7 +17551,7 @@
         <v>392359.5415744862</v>
       </c>
       <c r="D1007" t="n">
-        <v>-1.676807418642792</v>
+        <v>4.606377888536794</v>
       </c>
       <c r="E1007" t="n">
         <v>1.479728781708187</v>
@@ -17568,7 +17568,7 @@
         <v>373742.8861531588</v>
       </c>
       <c r="D1008" t="n">
-        <v>-0.8842034908457417</v>
+        <v>5.398981816333844</v>
       </c>
       <c r="E1008" t="n">
         <v>1.503805736049046</v>
@@ -17585,7 +17585,7 @@
         <v>363500.0176102272</v>
       </c>
       <c r="D1009" t="n">
-        <v>-0.02477163868208088</v>
+        <v>6.258413668497505</v>
       </c>
       <c r="E1009" t="n">
         <v>1.57439121897492</v>
@@ -17653,7 +17653,7 @@
         <v>402580.2592665715</v>
       </c>
       <c r="D1013" t="n">
-        <v>-3.106852046038931</v>
+        <v>3.176333261140655</v>
       </c>
       <c r="E1013" t="n">
         <v>1.561525774531999</v>
@@ -17670,7 +17670,7 @@
         <v>405407.5317216149</v>
       </c>
       <c r="D1014" t="n">
-        <v>-2.399740466791429</v>
+        <v>3.883444840388157</v>
       </c>
       <c r="E1014" t="n">
         <v>1.503965245762472</v>
@@ -17687,7 +17687,7 @@
         <v>396275.9490198405</v>
       </c>
       <c r="D1015" t="n">
-        <v>-1.683224041250349</v>
+        <v>4.599961265929238</v>
       </c>
       <c r="E1015" t="n">
         <v>1.478458714307565</v>
@@ -17704,7 +17704,7 @@
         <v>376710.3584749806</v>
       </c>
       <c r="D1016" t="n">
-        <v>-0.9095379703698927</v>
+        <v>5.373647336809693</v>
       </c>
       <c r="E1016" t="n">
         <v>1.50157473063555</v>
@@ -17721,7 +17721,7 @@
         <v>360568.6233998064</v>
       </c>
       <c r="D1017" t="n">
-        <v>-0.05263975972413304</v>
+        <v>6.230545547455453</v>
       </c>
       <c r="E1017" t="n">
         <v>1.571898686561575</v>
@@ -17789,7 +17789,7 @@
         <v>403793.2463122844</v>
       </c>
       <c r="D1021" t="n">
-        <v>-3.095392936466534</v>
+        <v>3.187792370713052</v>
       </c>
       <c r="E1021" t="n">
         <v>1.560637305083282</v>
@@ -17806,7 +17806,7 @@
         <v>406253.8477613794</v>
       </c>
       <c r="D1022" t="n">
-        <v>-2.389316230641047</v>
+        <v>3.89386907653854</v>
       </c>
       <c r="E1022" t="n">
         <v>1.503848496525219</v>
@@ -17823,7 +17823,7 @@
         <v>399439.2643073488</v>
       </c>
       <c r="D1023" t="n">
-        <v>-1.676316211828259</v>
+        <v>4.606869095351327</v>
       </c>
       <c r="E1023" t="n">
         <v>1.479427520270616</v>
@@ -17840,7 +17840,7 @@
         <v>382119.3989043404</v>
       </c>
       <c r="D1024" t="n">
-        <v>-0.9211345188558169</v>
+        <v>5.362050788323769</v>
       </c>
       <c r="E1024" t="n">
         <v>1.501984076953996</v>
@@ -17857,7 +17857,7 @@
         <v>362591.0938355621</v>
       </c>
       <c r="D1025" t="n">
-        <v>-0.08634354420762191</v>
+        <v>6.196841762971964</v>
       </c>
       <c r="E1025" t="n">
         <v>1.569236606082</v>
@@ -17925,7 +17925,7 @@
         <v>404091.3584406984</v>
       </c>
       <c r="D1029" t="n">
-        <v>-3.079228998303686</v>
+        <v>3.2039563088759</v>
       </c>
       <c r="E1029" t="n">
         <v>1.558303822864428</v>
@@ -17942,7 +17942,7 @@
         <v>406302.8496762719</v>
       </c>
       <c r="D1030" t="n">
-        <v>-2.374553992505885</v>
+        <v>3.908631314673702</v>
       </c>
       <c r="E1030" t="n">
         <v>1.503681613819392</v>
@@ -17959,7 +17959,7 @@
         <v>400490.8394896159</v>
       </c>
       <c r="D1031" t="n">
-        <v>-1.659910149023988</v>
+        <v>4.623275158155598</v>
       </c>
       <c r="E1031" t="n">
         <v>1.481722889027239</v>
@@ -17976,7 +17976,7 @@
         <v>386633.0484881709</v>
       </c>
       <c r="D1032" t="n">
-        <v>-0.9132482996899451</v>
+        <v>5.369937007489641</v>
       </c>
       <c r="E1032" t="n">
         <v>1.505606484361878</v>
@@ -17993,7 +17993,7 @@
         <v>368097.8479258584</v>
       </c>
       <c r="D1033" t="n">
-        <v>-0.1040564179328345</v>
+        <v>6.179128889246751</v>
       </c>
       <c r="E1033" t="n">
         <v>1.570001294754718</v>
@@ -18061,7 +18061,7 @@
         <v>402798.2473127114</v>
       </c>
       <c r="D1037" t="n">
-        <v>-3.065883863120035</v>
+        <v>3.217301444059551</v>
       </c>
       <c r="E1037" t="n">
         <v>1.554232275586859</v>
@@ -18078,7 +18078,7 @@
         <v>405676.6881554258</v>
       </c>
       <c r="D1038" t="n">
-        <v>-2.361111246164759</v>
+        <v>3.922074061014827</v>
       </c>
       <c r="E1038" t="n">
         <v>1.502135857233675</v>
@@ -18095,7 +18095,7 @@
         <v>399534.0176851249</v>
       </c>
       <c r="D1039" t="n">
-        <v>-1.642618195924406</v>
+        <v>4.64056711125518</v>
       </c>
       <c r="E1039" t="n">
         <v>1.483574110420441</v>
@@ -18112,7 +18112,7 @@
         <v>388053.8382726131</v>
       </c>
       <c r="D1040" t="n">
-        <v>-0.8930565651360785</v>
+        <v>5.390128742043508</v>
       </c>
       <c r="E1040" t="n">
         <v>1.510685606115638</v>
@@ -18129,7 +18129,7 @@
         <v>373365.1009412747</v>
       </c>
       <c r="D1041" t="n">
-        <v>-0.09790665185532932</v>
+        <v>6.185278655324257</v>
       </c>
       <c r="E1041" t="n">
         <v>1.574617291104556</v>
@@ -18197,7 +18197,7 @@
         <v>400301.3785333467</v>
       </c>
       <c r="D1045" t="n">
-        <v>-3.060989191407946</v>
+        <v>3.22219611577164</v>
       </c>
       <c r="E1045" t="n">
         <v>1.549507935507366</v>
@@ -18214,7 +18214,7 @@
         <v>404817.2398263817</v>
       </c>
       <c r="D1046" t="n">
-        <v>-2.353567052555404</v>
+        <v>3.929618254624183</v>
       </c>
       <c r="E1046" t="n">
         <v>1.499022744266456</v>
@@ -18231,7 +18231,7 @@
         <v>397821.440584469</v>
       </c>
       <c r="D1047" t="n">
-        <v>-1.632667437907747</v>
+        <v>4.650517869271839</v>
       </c>
       <c r="E1047" t="n">
         <v>1.483630856830192</v>
@@ -18248,7 +18248,7 @@
         <v>386320.2355448176</v>
       </c>
       <c r="D1048" t="n">
-        <v>-0.8739494597299111</v>
+        <v>5.409235847449676</v>
       </c>
       <c r="E1048" t="n">
         <v>1.514706831406465</v>
@@ -18265,7 +18265,7 @@
         <v>375315.6902297369</v>
       </c>
       <c r="D1049" t="n">
-        <v>-0.07601712520310056</v>
+        <v>6.207168181976486</v>
       </c>
       <c r="E1049" t="n">
         <v>1.580789576496728</v>
@@ -18333,7 +18333,7 @@
         <v>397799.5199013996</v>
       </c>
       <c r="D1053" t="n">
-        <v>-3.064986319650608</v>
+        <v>3.218198987528978</v>
       </c>
       <c r="E1053" t="n">
         <v>1.545861862267423</v>
@@ -18350,7 +18350,7 @@
         <v>404247.8501657595</v>
       </c>
       <c r="D1054" t="n">
-        <v>-2.352814192602112</v>
+        <v>3.930371114577474</v>
       </c>
       <c r="E1054" t="n">
         <v>1.495445638599251</v>
@@ -18367,7 +18367,7 @@
         <v>397025.596013804</v>
       </c>
       <c r="D1055" t="n">
-        <v>-1.633396227913687</v>
+        <v>4.649789079265899</v>
       </c>
       <c r="E1055" t="n">
         <v>1.481906393044557</v>
@@ -18384,7 +18384,7 @@
         <v>383341.6403229606</v>
       </c>
       <c r="D1056" t="n">
-        <v>-0.8681439557052499</v>
+        <v>5.415041351474336</v>
       </c>
       <c r="E1056" t="n">
         <v>1.51591055563909</v>
@@ -18401,7 +18401,7 @@
         <v>373155.0285938577</v>
       </c>
       <c r="D1057" t="n">
-        <v>-0.05539432746673389</v>
+        <v>6.227790979712852</v>
       </c>
       <c r="E1057" t="n">
         <v>1.585445729931474</v>
@@ -18469,7 +18469,7 @@
         <v>396618.2872757136</v>
       </c>
       <c r="D1061" t="n">
-        <v>-3.072501204124954</v>
+        <v>3.210684103054632</v>
       </c>
       <c r="E1061" t="n">
         <v>1.544378100488355</v>
@@ -18486,7 +18486,7 @@
         <v>404260.2007705026</v>
       </c>
       <c r="D1062" t="n">
-        <v>-2.355507657497156</v>
+        <v>3.92767764968243</v>
       </c>
       <c r="E1062" t="n">
         <v>1.493063582942302</v>
@@ -18503,7 +18503,7 @@
         <v>398186.1830835029</v>
       </c>
       <c r="D1063" t="n">
-        <v>-1.640897759087329</v>
+        <v>4.642287548092257</v>
       </c>
       <c r="E1063" t="n">
         <v>1.479943188428276</v>
@@ -18520,7 +18520,7 @@
         <v>382017.0413678688</v>
       </c>
       <c r="D1064" t="n">
-        <v>-0.879475326317559</v>
+        <v>5.403709980862027</v>
       </c>
       <c r="E1064" t="n">
         <v>1.514556567659745</v>
@@ -18537,7 +18537,7 @@
         <v>368797.6648027695</v>
       </c>
       <c r="D1065" t="n">
-        <v>-0.05296494027839183</v>
+        <v>6.230220366901195</v>
       </c>
       <c r="E1065" t="n">
         <v>1.586500853817028</v>
@@ -18605,7 +18605,7 @@
         <v>397326.3071728338</v>
       </c>
       <c r="D1069" t="n">
-        <v>-3.075212664720754</v>
+        <v>3.207972642458832</v>
       </c>
       <c r="E1069" t="n">
         <v>1.544404240187583</v>
@@ -18622,7 +18622,7 @@
         <v>404799.2764340548</v>
       </c>
       <c r="D1070" t="n">
-        <v>-2.356077419639717</v>
+        <v>3.92710788753987</v>
       </c>
       <c r="E1070" t="n">
         <v>1.492753422763645</v>
@@ -18639,7 +18639,7 @@
         <v>400872.2991120534</v>
       </c>
       <c r="D1071" t="n">
-        <v>-1.646330624858788</v>
+        <v>4.636854682320798</v>
       </c>
       <c r="E1071" t="n">
         <v>1.479717877497875</v>
@@ -18656,7 +18656,7 @@
         <v>384284.2911625994</v>
       </c>
       <c r="D1072" t="n">
-        <v>-0.8990660616267601</v>
+        <v>5.384119245552826</v>
       </c>
       <c r="E1072" t="n">
         <v>1.513175744178329</v>
@@ -18673,7 +18673,7 @@
         <v>366131.1753518115</v>
       </c>
       <c r="D1073" t="n">
-        <v>-0.07477562967742868</v>
+        <v>6.208409677502157</v>
       </c>
       <c r="E1073" t="n">
         <v>1.584420990521423</v>
@@ -18741,7 +18741,7 @@
         <v>399134.787161918</v>
       </c>
       <c r="D1077" t="n">
-        <v>-3.067512729829224</v>
+        <v>3.215672577350362</v>
       </c>
       <c r="E1077" t="n">
         <v>1.543839632368083</v>
@@ -18758,7 +18758,7 @@
         <v>405574.2203412988</v>
       </c>
       <c r="D1078" t="n">
-        <v>-2.350325059156213</v>
+        <v>3.932860248023373</v>
       </c>
       <c r="E1078" t="n">
         <v>1.493692489024244</v>
@@ -18775,7 +18775,7 @@
         <v>403464.8494090426</v>
       </c>
       <c r="D1079" t="n">
-        <v>-1.642547626710073</v>
+        <v>4.640637680469514</v>
       </c>
       <c r="E1079" t="n">
         <v>1.481882849695728</v>
@@ -18792,7 +18792,7 @@
         <v>389248.6495460903</v>
       </c>
       <c r="D1080" t="n">
-        <v>-0.9107882311463307</v>
+        <v>5.372397076033256</v>
       </c>
       <c r="E1080" t="n">
         <v>1.514599456805692</v>
@@ -18809,7 +18809,7 @@
         <v>368312.8641091688</v>
       </c>
       <c r="D1081" t="n">
-        <v>-0.1076085556211002</v>
+        <v>6.175576751558486</v>
       </c>
       <c r="E1081" t="n">
         <v>1.582564006674672</v>
@@ -18877,7 +18877,7 @@
         <v>400181.9555823338</v>
       </c>
       <c r="D1085" t="n">
-        <v>-3.051369034202354</v>
+        <v>3.231816272977232</v>
       </c>
       <c r="E1085" t="n">
         <v>1.540895799856826</v>
@@ -18894,7 +18894,7 @@
         <v>406180.3408671476</v>
       </c>
       <c r="D1086" t="n">
-        <v>-2.33833229171333</v>
+        <v>3.944853015466256</v>
       </c>
       <c r="E1086" t="n">
         <v>1.493893941506236</v>
@@ -18911,7 +18911,7 @@
         <v>404522.5920695553</v>
       </c>
       <c r="D1087" t="n">
-        <v>-1.629664932516651</v>
+        <v>4.653520374662936</v>
       </c>
       <c r="E1087" t="n">
         <v>1.485070289931635</v>
@@ -18928,7 +18928,7 @@
         <v>393704.8040883063</v>
       </c>
       <c r="D1088" t="n">
-        <v>-0.9050828361166938</v>
+        <v>5.378102471062892</v>
       </c>
       <c r="E1088" t="n">
         <v>1.519216414278197</v>
@@ -18945,7 +18945,7 @@
         <v>374461.9550748034</v>
       </c>
       <c r="D1089" t="n">
-        <v>-0.1272954842460909</v>
+        <v>6.155889822933496</v>
       </c>
       <c r="E1089" t="n">
         <v>1.584346982772021</v>
@@ -19013,7 +19013,7 @@
         <v>398785.4794885374</v>
       </c>
       <c r="D1093" t="n">
-        <v>-3.036200445413897</v>
+        <v>3.246984861765689</v>
       </c>
       <c r="E1093" t="n">
         <v>1.535789353220953</v>
@@ -19030,7 +19030,7 @@
         <v>406165.0363674832</v>
       </c>
       <c r="D1094" t="n">
-        <v>-2.324725869974278</v>
+        <v>3.958459437205308</v>
       </c>
       <c r="E1094" t="n">
         <v>1.491937218479501</v>
@@ -19047,7 +19047,7 @@
         <v>403927.6286349642</v>
       </c>
       <c r="D1095" t="n">
-        <v>-1.614635353240364</v>
+        <v>4.668549953939222</v>
       </c>
       <c r="E1095" t="n">
         <v>1.487029415904797</v>
@@ -19064,7 +19064,7 @@
         <v>395005.6416980191</v>
       </c>
       <c r="D1096" t="n">
-        <v>-0.8869526033942257</v>
+        <v>5.39623270378536</v>
       </c>
       <c r="E1096" t="n">
         <v>1.524664248616979</v>
@@ -19081,7 +19081,7 @@
         <v>380127.9280588789</v>
       </c>
       <c r="D1097" t="n">
-        <v>-0.1215661155631929</v>
+        <v>6.161619191616394</v>
       </c>
       <c r="E1097" t="n">
         <v>1.58967841162173</v>
@@ -19149,7 +19149,7 @@
         <v>394964.2348069968</v>
       </c>
       <c r="D1101" t="n">
-        <v>-3.032617077031657</v>
+        <v>3.25056823014793</v>
       </c>
       <c r="E1101" t="n">
         <v>1.530812718994641</v>
@@ -19166,7 +19166,7 @@
         <v>405217.7566623375</v>
       </c>
       <c r="D1102" t="n">
-        <v>-2.315829627236846</v>
+        <v>3.96735567994274</v>
       </c>
       <c r="E1102" t="n">
         <v>1.488357385491526</v>
@@ -19183,7 +19183,7 @@
         <v>402776.025799683</v>
       </c>
       <c r="D1103" t="n">
-        <v>-1.605502837290615</v>
+        <v>4.677682469888971</v>
       </c>
       <c r="E1103" t="n">
         <v>1.48660583340031</v>
@@ -19200,7 +19200,7 @@
         <v>393248.6630210528</v>
       </c>
       <c r="D1104" t="n">
-        <v>-0.8706376600880428</v>
+        <v>5.412547647091543</v>
       </c>
       <c r="E1104" t="n">
         <v>1.528025575663212</v>
@@ -19217,7 +19217,7 @@
         <v>381591.4397428579</v>
       </c>
       <c r="D1105" t="n">
-        <v>-0.1000375592533311</v>
+        <v>6.183147747926255</v>
       </c>
       <c r="E1105" t="n">
         <v>1.595390101247989</v>
@@ -19285,7 +19285,7 @@
         <v>390906.5459599341</v>
       </c>
       <c r="D1109" t="n">
-        <v>-3.043237739370925</v>
+        <v>3.239947567808661</v>
       </c>
       <c r="E1109" t="n">
         <v>1.528459021747478</v>
@@ -19302,7 +19302,7 @@
         <v>403557.5345647406</v>
       </c>
       <c r="D1110" t="n">
-        <v>-2.315183490472261</v>
+        <v>3.968001816707325</v>
       </c>
       <c r="E1110" t="n">
         <v>1.485295411441527</v>
@@ -19319,7 +19319,7 @@
         <v>402286.9580055691</v>
       </c>
       <c r="D1111" t="n">
-        <v>-1.605219117466288</v>
+        <v>4.677966189713298</v>
       </c>
       <c r="E1111" t="n">
         <v>1.484853504756147</v>
@@ -19336,7 +19336,7 @@
         <v>390892.825810804</v>
       </c>
       <c r="D1112" t="n">
-        <v>-0.8675231033240114</v>
+        <v>5.415662203855575</v>
       </c>
       <c r="E1112" t="n">
         <v>1.528301036329136</v>
@@ -19353,7 +19353,7 @@
         <v>378870.1595564027</v>
       </c>
       <c r="D1113" t="n">
-        <v>-0.08312887055534324</v>
+        <v>6.200056436624243</v>
       </c>
       <c r="E1113" t="n">
         <v>1.598401130224746</v>
@@ -19421,7 +19421,7 @@
         <v>389281.3339791851</v>
       </c>
       <c r="D1117" t="n">
-        <v>-3.058509186965278</v>
+        <v>3.224676120214308</v>
       </c>
       <c r="E1117" t="n">
         <v>1.528926439138863</v>
@@ -19438,7 +19438,7 @@
         <v>402092.7876480272</v>
       </c>
       <c r="D1118" t="n">
-        <v>-2.320370967686301</v>
+        <v>3.962814339493285</v>
       </c>
       <c r="E1118" t="n">
         <v>1.48453705933129</v>
@@ -19455,7 +19455,7 @@
         <v>402878.826174009</v>
       </c>
       <c r="D1119" t="n">
-        <v>-1.610036761546614</v>
+        <v>4.673148545632972</v>
       </c>
       <c r="E1119" t="n">
         <v>1.484077634020027</v>
@@ -19472,7 +19472,7 @@
         <v>390527.8935156189</v>
       </c>
       <c r="D1120" t="n">
-        <v>-0.877441522696929</v>
+        <v>5.405743784482658</v>
       </c>
       <c r="E1120" t="n">
         <v>1.527252924861885</v>
@@ -19489,7 +19489,7 @@
         <v>375173.7264205236</v>
       </c>
       <c r="D1121" t="n">
-        <v>-0.0852956966945162</v>
+        <v>6.19788961048507</v>
       </c>
       <c r="E1121" t="n">
         <v>1.598123080378067</v>
@@ -19557,7 +19557,7 @@
         <v>390664.1589969736</v>
       </c>
       <c r="D1125" t="n">
-        <v>-3.064396861819115</v>
+        <v>3.218788445360472</v>
       </c>
       <c r="E1125" t="n">
         <v>1.529787330020318</v>
@@ -19574,7 +19574,7 @@
         <v>401785.1293281911</v>
       </c>
       <c r="D1126" t="n">
-        <v>-2.324186617692773</v>
+        <v>3.958998689486813</v>
       </c>
       <c r="E1126" t="n">
         <v>1.485819554365293</v>
@@ -19591,7 +19591,7 @@
         <v>404175.6971327817</v>
       </c>
       <c r="D1127" t="n">
-        <v>-1.61303787055226</v>
+        <v>4.670147436627326</v>
       </c>
       <c r="E1127" t="n">
         <v>1.485638167057091</v>
@@ -19608,7 +19608,7 @@
         <v>392848.3932889429</v>
       </c>
       <c r="D1128" t="n">
-        <v>-0.8901544142856994</v>
+        <v>5.393030892893886</v>
       </c>
       <c r="E1128" t="n">
         <v>1.527699975752177</v>
@@ -19625,7 +19625,7 @@
         <v>374139.6717592158</v>
       </c>
       <c r="D1129" t="n">
-        <v>-0.1049545924495043</v>
+        <v>6.178230714730082</v>
       </c>
       <c r="E1129" t="n">
         <v>1.596733125737174</v>
@@ -19693,7 +19693,7 @@
         <v>393109.0981890341</v>
       </c>
       <c r="D1133" t="n">
-        <v>-3.054858346533375</v>
+        <v>3.228326960646211</v>
       </c>
       <c r="E1133" t="n">
         <v>1.528481320530388</v>
@@ -19710,7 +19710,7 @@
         <v>402691.4897535345</v>
       </c>
       <c r="D1134" t="n">
-        <v>-2.320083190390465</v>
+        <v>3.963102116789122</v>
       </c>
       <c r="E1134" t="n">
         <v>1.487209127377664</v>
@@ -19727,7 +19727,7 @@
         <v>405523.3117907202</v>
       </c>
       <c r="D1135" t="n">
-        <v>-1.609033637745558</v>
+        <v>4.674151669434028</v>
       </c>
       <c r="E1135" t="n">
         <v>1.488871239983372</v>
@@ -19744,7 +19744,7 @@
         <v>396511.8721719059</v>
       </c>
       <c r="D1136" t="n">
-        <v>-0.8946199897778495</v>
+        <v>5.388565317401737</v>
       </c>
       <c r="E1136" t="n">
         <v>1.530901947557881</v>
@@ -19761,7 +19761,7 @@
         <v>377065.1557233903</v>
       </c>
       <c r="D1137" t="n">
-        <v>-0.127183577391754</v>
+        <v>6.156001729787832</v>
       </c>
       <c r="E1137" t="n">
         <v>1.597139691992831</v>
@@ -19829,7 +19829,7 @@
         <v>394051.572698132</v>
       </c>
       <c r="D1141" t="n">
-        <v>-3.035499364787372</v>
+        <v>3.247685942392214</v>
       </c>
       <c r="E1141" t="n">
         <v>1.524469758145837</v>
@@ -19846,7 +19846,7 @@
         <v>403854.7861618593</v>
       </c>
       <c r="D1142" t="n">
-        <v>-2.307128584783208</v>
+        <v>3.976056722396378</v>
       </c>
       <c r="E1142" t="n">
         <v>1.486942510812902</v>
@@ -19863,7 +19863,7 @@
         <v>406349.7619300165</v>
       </c>
       <c r="D1143" t="n">
-        <v>-1.597412283918491</v>
+        <v>4.685773023261095</v>
       </c>
       <c r="E1143" t="n">
         <v>1.491959360592581</v>
@@ -19880,7 +19880,7 @@
         <v>399514.7785089345</v>
       </c>
       <c r="D1144" t="n">
-        <v>-0.8866221934007661</v>
+        <v>5.39656311377882</v>
       </c>
       <c r="E1144" t="n">
         <v>1.535826618684399</v>
@@ -19897,7 +19897,7 @@
         <v>382262.7032187803</v>
       </c>
       <c r="D1145" t="n">
-        <v>-0.1365877912530058</v>
+        <v>6.14659751592658</v>
       </c>
       <c r="E1145" t="n">
         <v>1.600410903681976</v>
@@ -19965,7 +19965,7 @@
         <v>392139.6417633328</v>
       </c>
       <c r="D1149" t="n">
-        <v>-3.018015383628034</v>
+        <v>3.265169923551552</v>
       </c>
       <c r="E1149" t="n">
         <v>1.519232095772791</v>
@@ -19982,7 +19982,7 @@
         <v>404093.175810251</v>
       </c>
       <c r="D1150" t="n">
-        <v>-2.29030174623301</v>
+        <v>3.992883560946576</v>
       </c>
       <c r="E1150" t="n">
         <v>1.484721925496475</v>
@@ -19999,7 +19999,7 @@
         <v>406362.9878842524</v>
       </c>
       <c r="D1151" t="n">
-        <v>-1.582014818762673</v>
+        <v>4.701170488416913</v>
       </c>
       <c r="E1151" t="n">
         <v>1.49345314040047</v>
@@ -20016,7 +20016,7 @@
         <v>400533.8378266901</v>
       </c>
       <c r="D1152" t="n">
-        <v>-0.8698864403523721</v>
+        <v>5.413298866827214</v>
       </c>
       <c r="E1152" t="n">
         <v>1.54040798332703</v>
@@ -20033,7 +20033,7 @@
         <v>386712.7724768551</v>
       </c>
       <c r="D1153" t="n">
-        <v>-0.12801325346559</v>
+        <v>6.155172053713996</v>
       </c>
       <c r="E1153" t="n">
         <v>1.605271867815943</v>
@@ -20101,7 +20101,7 @@
         <v>387891.8881048955</v>
       </c>
       <c r="D1157" t="n">
-        <v>-3.012859279999783</v>
+        <v>3.270326027179804</v>
       </c>
       <c r="E1157" t="n">
         <v>1.515124838805346</v>
@@ -20118,7 +20118,7 @@
         <v>402799.775610404</v>
       </c>
       <c r="D1158" t="n">
-        <v>-2.277017074635369</v>
+        <v>4.006168232544217</v>
       </c>
       <c r="E1158" t="n">
         <v>1.481724091949258</v>
@@ -20135,7 +20135,7 @@
         <v>405695.6777217621</v>
       </c>
       <c r="D1159" t="n">
-        <v>-1.568745628502468</v>
+        <v>4.714439678677119</v>
       </c>
       <c r="E1159" t="n">
         <v>1.493196895514799</v>
@@ -20152,7 +20152,7 @@
         <v>399539.1909105037</v>
       </c>
       <c r="D1160" t="n">
-        <v>-0.8529226283302869</v>
+        <v>5.430262678849299</v>
       </c>
       <c r="E1160" t="n">
         <v>1.543071552267842</v>
@@ -20169,7 +20169,7 @@
         <v>388150.5663248365</v>
       </c>
       <c r="D1161" t="n">
-        <v>-0.1078825247302069</v>
+        <v>6.175302782449379</v>
       </c>
       <c r="E1161" t="n">
         <v>1.609526384954572</v>
@@ -20237,7 +20237,7 @@
         <v>383428.4148929634</v>
       </c>
       <c r="D1165" t="n">
-        <v>-3.023341338496064</v>
+        <v>3.259843968683522</v>
       </c>
       <c r="E1165" t="n">
         <v>1.513923831159794</v>
@@ -20254,7 +20254,7 @@
         <v>400280.1331596302</v>
       </c>
       <c r="D1166" t="n">
-        <v>-2.272855111262682</v>
+        <v>4.010330195916904</v>
       </c>
       <c r="E1166" t="n">
         <v>1.479779561739212</v>
@@ -20271,7 +20271,7 @@
         <v>404841.0587963664</v>
       </c>
       <c r="D1167" t="n">
-        <v>-1.562166365354591</v>
+        <v>4.721018941824995</v>
       </c>
       <c r="E1167" t="n">
         <v>1.49239102253099</v>
@@ -20288,7 +20288,7 @@
         <v>397775.745167304</v>
       </c>
       <c r="D1168" t="n">
-        <v>-0.8442169358926406</v>
+        <v>5.438968371286945</v>
       </c>
       <c r="E1168" t="n">
         <v>1.543679075609822</v>
@@ -20305,7 +20305,7 @@
         <v>386313.1775916642</v>
       </c>
       <c r="D1169" t="n">
-        <v>-0.08950480012231221</v>
+        <v>6.193680507057274</v>
       </c>
       <c r="E1169" t="n">
         <v>1.611609227864015</v>
@@ -20373,7 +20373,7 @@
         <v>381328.8628439979</v>
       </c>
       <c r="D1173" t="n">
-        <v>-3.042308076069035</v>
+        <v>3.240877231110551</v>
       </c>
       <c r="E1173" t="n">
         <v>1.515347902674925</v>
@@ -20390,7 +20390,7 @@
         <v>397674.8597698514</v>
       </c>
       <c r="D1174" t="n">
-        <v>-2.278187790076847</v>
+        <v>4.004997517102739</v>
       </c>
       <c r="E1174" t="n">
         <v>1.480115165737273</v>
@@ -20407,7 +20407,7 @@
         <v>404310.9567759709</v>
       </c>
       <c r="D1175" t="n">
-        <v>-1.562721162734675</v>
+        <v>4.720464144444911</v>
       </c>
       <c r="E1175" t="n">
         <v>1.492805771954558</v>
@@ -20424,7 +20424,7 @@
         <v>397070.4932472904</v>
       </c>
       <c r="D1176" t="n">
-        <v>-0.8469306061513771</v>
+        <v>5.43625470102821</v>
       </c>
       <c r="E1176" t="n">
         <v>1.543722526184477</v>
@@ -20441,7 +20441,7 @@
         <v>383215.453973021</v>
       </c>
       <c r="D1177" t="n">
-        <v>-0.08574956169755099</v>
+        <v>6.197435745482036</v>
       </c>
       <c r="E1177" t="n">
         <v>1.611556133202783</v>
@@ -20509,7 +20509,7 @@
         <v>382728.4008705569</v>
       </c>
       <c r="D1181" t="n">
-        <v>-3.055123113842662</v>
+        <v>3.228062193336925</v>
       </c>
       <c r="E1181" t="n">
         <v>1.516782853588315</v>
@@ -20526,7 +20526,7 @@
         <v>396433.4228011098</v>
       </c>
       <c r="D1182" t="n">
-        <v>-2.286999836231447</v>
+        <v>3.99618547094814</v>
       </c>
       <c r="E1182" t="n">
         <v>1.482208298257423</v>
@@ -20543,7 +20543,7 @@
         <v>404313.7548521991</v>
       </c>
       <c r="D1183" t="n">
-        <v>-1.566333332949144</v>
+        <v>4.716851974230442</v>
       </c>
       <c r="E1183" t="n">
         <v>1.495357749426326</v>
@@ -20560,7 +20560,7 @@
         <v>398483.6140634854</v>
       </c>
       <c r="D1184" t="n">
-        <v>-0.8559057752521775</v>
+        <v>5.427279531927409</v>
       </c>
       <c r="E1184" t="n">
         <v>1.545334034246259</v>
@@ -20577,7 +20577,7 @@
         <v>382118.5413988301</v>
       </c>
       <c r="D1185" t="n">
-        <v>-0.09987934162683532</v>
+        <v>6.183305965552751</v>
       </c>
       <c r="E1185" t="n">
         <v>1.611175255704212</v>
@@ -20645,7 +20645,7 @@
         <v>386002.9057082249</v>
       </c>
       <c r="D1189" t="n">
-        <v>-3.050590790583545</v>
+        <v>3.232594516596042</v>
       </c>
       <c r="E1189" t="n">
         <v>1.515388229226544</v>
@@ -20662,7 +20662,7 @@
         <v>397257.8068100494</v>
       </c>
       <c r="D1190" t="n">
-        <v>-2.289856542901188</v>
+        <v>3.993328764278398</v>
       </c>
       <c r="E1190" t="n">
         <v>1.483941673313279</v>
@@ -20679,7 +20679,7 @@
         <v>404779.626330036</v>
       </c>
       <c r="D1191" t="n">
-        <v>-1.567026334235175</v>
+        <v>4.716158972944411</v>
       </c>
       <c r="E1191" t="n">
         <v>1.499125896632953</v>
@@ -20696,7 +20696,7 @@
         <v>401304.3394158599</v>
       </c>
       <c r="D1192" t="n">
-        <v>-0.8611811999580614</v>
+        <v>5.422004107221525</v>
       </c>
       <c r="E1192" t="n">
         <v>1.549331798170815</v>
@@ -20713,7 +20713,7 @@
         <v>384931.3056052519</v>
       </c>
       <c r="D1193" t="n">
-        <v>-0.1204835205243904</v>
+        <v>6.162701786655196</v>
       </c>
       <c r="E1193" t="n">
         <v>1.612712541660557</v>
@@ -20781,7 +20781,7 @@
         <v>387709.6413095074</v>
       </c>
       <c r="D1197" t="n">
-        <v>-3.031303654524878</v>
+        <v>3.251881652654709</v>
       </c>
       <c r="E1197" t="n">
         <v>1.510784966920983</v>
@@ -20798,7 +20798,7 @@
         <v>399185.5689914885</v>
       </c>
       <c r="D1198" t="n">
-        <v>-2.280990752196228</v>
+        <v>4.002194554983358</v>
       </c>
       <c r="E1198" t="n">
         <v>1.48349768694604</v>
@@ -20815,7 +20815,7 @@
         <v>405510.4776555703</v>
       </c>
       <c r="D1199" t="n">
-        <v>-1.56086943590936</v>
+        <v>4.722315871270226</v>
       </c>
       <c r="E1199" t="n">
         <v>1.502093806361148</v>
@@ -20832,7 +20832,7 @@
         <v>403714.6255483892</v>
       </c>
       <c r="D1200" t="n">
-        <v>-0.8563549751261501</v>
+        <v>5.426830332053436</v>
       </c>
       <c r="E1200" t="n">
         <v>1.554304785528043</v>
@@ -20849,7 +20849,7 @@
         <v>390136.0766692428</v>
       </c>
       <c r="D1201" t="n">
-        <v>-0.1303120223263585</v>
+        <v>6.152873284853228</v>
       </c>
       <c r="E1201" t="n">
         <v>1.616553510939205</v>
@@ -20917,7 +20917,7 @@
         <v>385322.301272962</v>
       </c>
       <c r="D1205" t="n">
-        <v>-3.012911472436915</v>
+        <v>3.270273834742671</v>
       </c>
       <c r="E1205" t="n">
         <v>1.505412497808845</v>
@@ -20934,7 +20934,7 @@
         <v>400030.1405410544</v>
       </c>
       <c r="D1206" t="n">
-        <v>-2.263986175783141</v>
+        <v>4.019199131396445</v>
       </c>
       <c r="E1206" t="n">
         <v>1.481127268194294</v>
@@ -20951,7 +20951,7 @@
         <v>406109.0670458294</v>
       </c>
       <c r="D1207" t="n">
-        <v>-1.54864271589096</v>
+        <v>4.734542591288626</v>
       </c>
       <c r="E1207" t="n">
         <v>1.50310544278992</v>
@@ -20968,7 +20968,7 @@
         <v>404489.3151000228</v>
       </c>
       <c r="D1208" t="n">
-        <v>-0.8432730680701011</v>
+        <v>5.439912239109486</v>
       </c>
       <c r="E1208" t="n">
         <v>1.558053074416959</v>
@@ -20985,7 +20985,7 @@
         <v>394218.648070858</v>
       </c>
       <c r="D1209" t="n">
-        <v>-0.122342890008595</v>
+        <v>6.160842417170992</v>
       </c>
       <c r="E1209" t="n">
         <v>1.620817580622643</v>
@@ -21053,7 +21053,7 @@
         <v>379559.3485014273</v>
       </c>
       <c r="D1213" t="n">
-        <v>-3.012272675089223</v>
+        <v>3.270912632090363</v>
       </c>
       <c r="E1213" t="n">
         <v>1.502504136605016</v>
@@ -21070,7 +21070,7 @@
         <v>398175.011194406</v>
       </c>
       <c r="D1214" t="n">
-        <v>-2.249796911554225</v>
+        <v>4.033388395625361</v>
       </c>
       <c r="E1214" t="n">
         <v>1.478838720665643</v>
@@ -21087,7 +21087,7 @@
         <v>405998.4671129599</v>
       </c>
       <c r="D1215" t="n">
-        <v>-1.53546560726055</v>
+        <v>4.747719699919037</v>
       </c>
       <c r="E1215" t="n">
         <v>1.502923828780182</v>
@@ -21104,7 +21104,7 @@
         <v>403809.6387706324</v>
       </c>
       <c r="D1216" t="n">
-        <v>-0.8292701066404096</v>
+        <v>5.453915200539177</v>
       </c>
       <c r="E1216" t="n">
         <v>1.559714815282482</v>
@@ -21121,7 +21121,7 @@
         <v>395019.3470722705</v>
       </c>
       <c r="D1217" t="n">
-        <v>-0.1041318536590272</v>
+        <v>6.179053453520559</v>
       </c>
       <c r="E1217" t="n">
         <v>1.623459980733265</v>
@@ -21189,7 +21189,7 @@
         <v>374197.5532687978</v>
       </c>
       <c r="D1221" t="n">
-        <v>-3.032750013123147</v>
+        <v>3.250435294056439</v>
       </c>
       <c r="E1221" t="n">
         <v>1.503343085696843</v>
@@ -21206,7 +21206,7 @@
         <v>394141.8671881991</v>
       </c>
       <c r="D1222" t="n">
-        <v>-2.248038900324817</v>
+        <v>4.03514640685477</v>
       </c>
       <c r="E1222" t="n">
         <v>1.478545282619268</v>
@@ -21223,7 +21223,7 @@
         <v>404866.0500662989</v>
       </c>
       <c r="D1223" t="n">
-        <v>-1.527334106394087</v>
+        <v>4.7558512007855</v>
       </c>
       <c r="E1223" t="n">
         <v>1.503367067845471</v>
@@ -21240,7 +21240,7 @@
         <v>402736.4105228659</v>
       </c>
       <c r="D1224" t="n">
-        <v>-0.8210722940981832</v>
+        <v>5.462113013081403</v>
       </c>
       <c r="E1224" t="n">
         <v>1.560388985526801</v>
@@ -21257,7 +21257,7 @@
         <v>393161.1254053436</v>
       </c>
       <c r="D1225" t="n">
-        <v>-0.08910905459983232</v>
+        <v>6.194076252579753</v>
       </c>
       <c r="E1225" t="n">
         <v>1.624136411232877</v>
@@ -21325,7 +21325,7 @@
         <v>372811.3303745892</v>
       </c>
       <c r="D1229" t="n">
-        <v>-3.059366871381188</v>
+        <v>3.223818435798398</v>
       </c>
       <c r="E1229" t="n">
         <v>1.505858035174234</v>
@@ -21342,7 +21342,7 @@
         <v>390363.1254628402</v>
       </c>
       <c r="D1230" t="n">
-        <v>-2.258705528333497</v>
+        <v>4.024479778846089</v>
       </c>
       <c r="E1230" t="n">
         <v>1.48041899607001</v>
@@ -21359,7 +21359,7 @@
         <v>403126.9775609688</v>
       </c>
       <c r="D1231" t="n">
-        <v>-1.526762560995675</v>
+        <v>4.756422746183912</v>
       </c>
       <c r="E1231" t="n">
         <v>1.505586214416573</v>
@@ -21376,7 +21376,7 @@
         <v>402273.1686575181</v>
       </c>
       <c r="D1232" t="n">
-        <v>-0.8204594010644986</v>
+        <v>5.462725906115088</v>
       </c>
       <c r="E1232" t="n">
         <v>1.561930377094881</v>
@@ -21393,7 +21393,7 @@
         <v>391008.9970617546</v>
       </c>
       <c r="D1233" t="n">
-        <v>-0.08612639213477546</v>
+        <v>6.197058915044811</v>
       </c>
       <c r="E1233" t="n">
         <v>1.624229097586836</v>
@@ -21461,7 +21461,7 @@
         <v>375455.9439692297</v>
       </c>
       <c r="D1237" t="n">
-        <v>-3.072090436054534</v>
+        <v>3.211094871125052</v>
       </c>
       <c r="E1237" t="n">
         <v>1.506568652516567</v>
@@ -21478,7 +21478,7 @@
         <v>389118.9181344181</v>
       </c>
       <c r="D1238" t="n">
-        <v>-2.27161135360576</v>
+        <v>4.011573953573826</v>
       </c>
       <c r="E1238" t="n">
         <v>1.482792176446212</v>
@@ -21495,7 +21495,7 @@
         <v>401774.6129523077</v>
       </c>
       <c r="D1239" t="n">
-        <v>-1.530780483162436</v>
+        <v>4.75240482401715</v>
       </c>
       <c r="E1239" t="n">
         <v>1.5091263418488</v>
@@ -21512,7 +21512,7 @@
         <v>402802.7044118928</v>
       </c>
       <c r="D1240" t="n">
-        <v>-0.8239119208975874</v>
+        <v>5.459273386281999</v>
       </c>
       <c r="E1240" t="n">
         <v>1.565229210417738</v>
@@ -21529,7 +21529,7 @@
         <v>390755.1946068469</v>
       </c>
       <c r="D1241" t="n">
-        <v>-0.09430591935424015</v>
+        <v>6.188879387825346</v>
       </c>
       <c r="E1241" t="n">
         <v>1.625453682033769</v>
@@ -21597,7 +21597,7 @@
         <v>379067.0234751173</v>
       </c>
       <c r="D1245" t="n">
-        <v>-3.0634193357051</v>
+        <v>3.219765971474486</v>
       </c>
       <c r="E1245" t="n">
         <v>1.503962503947055</v>
@@ -21614,7 +21614,7 @@
         <v>390594.9216201796</v>
       </c>
       <c r="D1246" t="n">
-        <v>-2.274857714346837</v>
+        <v>4.00832759283275</v>
       </c>
       <c r="E1246" t="n">
         <v>1.483767643260954</v>
@@ -21631,7 +21631,7 @@
         <v>401602.8373655673</v>
       </c>
       <c r="D1247" t="n">
-        <v>-1.532938106998642</v>
+        <v>4.750247200180944</v>
       </c>
       <c r="E1247" t="n">
         <v>1.512492360390914</v>
@@ -21648,7 +21648,7 @@
         <v>404061.4886582124</v>
       </c>
       <c r="D1248" t="n">
-        <v>-0.8255495647525324</v>
+        <v>5.457635742427054</v>
       </c>
       <c r="E1248" t="n">
         <v>1.569574832242135</v>
@@ -21665,7 +21665,7 @@
         <v>393005.8303389603</v>
       </c>
       <c r="D1249" t="n">
-        <v>-0.1049836716587316</v>
+        <v>6.178201635520855</v>
       </c>
       <c r="E1249" t="n">
         <v>1.628336999132144</v>
@@ -21733,7 +21733,7 @@
         <v>380326.5863376534</v>
       </c>
       <c r="D1253" t="n">
-        <v>-3.041519477799418</v>
+        <v>3.241665829380168</v>
       </c>
       <c r="E1253" t="n">
         <v>1.499291826440168</v>
@@ -21750,7 +21750,7 @@
         <v>392947.6266143642</v>
       </c>
       <c r="D1254" t="n">
-        <v>-2.264143903307556</v>
+        <v>4.019041403872031</v>
       </c>
       <c r="E1254" t="n">
         <v>1.482869704932739</v>
@@ -21767,7 +21767,7 @@
         <v>402528.9957611494</v>
       </c>
       <c r="D1255" t="n">
-        <v>-1.527922200315552</v>
+        <v>4.755263106864033</v>
       </c>
       <c r="E1255" t="n">
         <v>1.514530657201168</v>
@@ -21784,7 +21784,7 @@
         <v>405423.4794608833</v>
       </c>
       <c r="D1256" t="n">
-        <v>-0.8209293973221019</v>
+        <v>5.462255909857484</v>
       </c>
       <c r="E1256" t="n">
         <v>1.573488295796923</v>
@@ -21801,7 +21801,7 @@
         <v>396620.376043637</v>
       </c>
       <c r="D1257" t="n">
-        <v>-0.1085059324442139</v>
+        <v>6.174679374735373</v>
       </c>
       <c r="E1257" t="n">
         <v>1.631903038454176</v>
@@ -21869,7 +21869,7 @@
         <v>377732.7736746302</v>
       </c>
       <c r="D1261" t="n">
-        <v>-3.022219616566408</v>
+        <v>3.260965690613178</v>
       </c>
       <c r="E1261" t="n">
         <v>1.495092850141619</v>
@@ -21886,7 +21886,7 @@
         <v>393841.5335898566</v>
       </c>
       <c r="D1262" t="n">
-        <v>-2.244811262144078</v>
+        <v>4.038374045035508</v>
       </c>
       <c r="E1262" t="n">
         <v>1.481169922114434</v>
@@ -21903,7 +21903,7 @@
         <v>403651.2609593949</v>
       </c>
       <c r="D1263" t="n">
-        <v>-1.515160345198013</v>
+        <v>4.768024961981573</v>
       </c>
       <c r="E1263" t="n">
         <v>1.515310590069101</v>
@@ -21920,7 +21920,7 @@
         <v>406254.4386883258</v>
       </c>
       <c r="D1264" t="n">
-        <v>-0.8095228224234301</v>
+        <v>5.473662484756156</v>
       </c>
       <c r="E1264" t="n">
         <v>1.576003100604235</v>
@@ -21937,7 +21937,7 @@
         <v>399669.1944302932</v>
       </c>
       <c r="D1265" t="n">
-        <v>-0.100509867814377</v>
+        <v>6.182675439365209</v>
       </c>
       <c r="E1265" t="n">
         <v>1.634686030807883</v>
@@ -22005,7 +22005,7 @@
         <v>372250.8046610497</v>
       </c>
       <c r="D1269" t="n">
-        <v>-3.020014360017595</v>
+        <v>3.263170947161992</v>
       </c>
       <c r="E1269" t="n">
         <v>1.493537345914574</v>
@@ -22022,7 +22022,7 @@
         <v>391891.4811340371</v>
       </c>
       <c r="D1270" t="n">
-        <v>-2.227739549349007</v>
+        <v>4.055445757830579</v>
       </c>
       <c r="E1270" t="n">
         <v>1.48029668380685</v>
@@ -22039,7 +22039,7 @@
         <v>403869.6935941014</v>
       </c>
       <c r="D1271" t="n">
-        <v>-1.499086210773066</v>
+        <v>4.78409909640652</v>
       </c>
       <c r="E1271" t="n">
         <v>1.515948104608266</v>
@@ -22056,7 +22056,7 @@
         <v>406240.4034020363</v>
       </c>
       <c r="D1272" t="n">
-        <v>-0.7948781452336391</v>
+        <v>5.488307161945947</v>
       </c>
       <c r="E1272" t="n">
         <v>1.577335255681027</v>
@@ -22073,7 +22073,7 @@
         <v>400694.9271156254</v>
       </c>
       <c r="D1273" t="n">
-        <v>-0.08404820621949227</v>
+        <v>6.199137100960094</v>
       </c>
       <c r="E1273" t="n">
         <v>1.635933192010343</v>
@@ -22141,7 +22141,7 @@
         <v>366981.5665811978</v>
       </c>
       <c r="D1277" t="n">
-        <v>-3.039909598296448</v>
+        <v>3.243275708883138</v>
       </c>
       <c r="E1277" t="n">
         <v>1.495088596735758</v>
@@ -22158,7 +22158,7 @@
         <v>387456.8401170413</v>
       </c>
       <c r="D1278" t="n">
-        <v>-2.223458585891273</v>
+        <v>4.059726721288313</v>
       </c>
       <c r="E1278" t="n">
         <v>1.481297690248528</v>
@@ -22175,7 +22175,7 @@
         <v>402531.3728041944</v>
       </c>
       <c r="D1279" t="n">
-        <v>-1.486623397815433</v>
+        <v>4.796561909364153</v>
       </c>
       <c r="E1279" t="n">
         <v>1.51773715961512</v>
@@ -22192,7 +22192,7 @@
         <v>405567.0858393984</v>
       </c>
       <c r="D1280" t="n">
-        <v>-0.7826048951325753</v>
+        <v>5.500580412047011</v>
       </c>
       <c r="E1280" t="n">
         <v>1.578684133276393</v>
@@ -22209,7 +22209,7 @@
         <v>399604.3326667914</v>
       </c>
       <c r="D1281" t="n">
-        <v>-0.06760412418109585</v>
+        <v>6.21558118299849</v>
       </c>
       <c r="E1281" t="n">
         <v>1.636122126465567</v>
@@ -22277,7 +22277,7 @@
         <v>365438.0591827598</v>
       </c>
       <c r="D1285" t="n">
-        <v>-3.071308693152662</v>
+        <v>3.211876614026924</v>
       </c>
       <c r="E1285" t="n">
         <v>1.497733750657063</v>
@@ -22294,7 +22294,7 @@
         <v>382751.3113723142</v>
       </c>
       <c r="D1286" t="n">
-        <v>-2.235768918584521</v>
+        <v>4.047416388595066</v>
       </c>
       <c r="E1286" t="n">
         <v>1.483795775437238</v>
@@ -22311,7 +22311,7 @@
         <v>399856.2885668676</v>
       </c>
       <c r="D1287" t="n">
-        <v>-1.483451044091405</v>
+        <v>4.799734263088181</v>
       </c>
       <c r="E1287" t="n">
         <v>1.52111085046552</v>
@@ -22328,7 +22328,7 @@
         <v>404760.950043993</v>
       </c>
       <c r="D1288" t="n">
-        <v>-0.7770333038112796</v>
+        <v>5.506152003368307</v>
       </c>
       <c r="E1288" t="n">
         <v>1.581342497881425</v>
@@ -22345,7 +22345,7 @@
         <v>397822.5368694976</v>
       </c>
       <c r="D1289" t="n">
-        <v>-0.06005262480046714</v>
+        <v>6.223132682379119</v>
       </c>
       <c r="E1289" t="n">
         <v>1.636652848737913</v>
@@ -22413,7 +22413,7 @@
         <v>368567.333091058</v>
       </c>
       <c r="D1293" t="n">
-        <v>-3.09246345411687</v>
+        <v>3.190721853062716</v>
       </c>
       <c r="E1293" t="n">
         <v>1.49823343413266</v>
@@ -22430,7 +22430,7 @@
         <v>380716.3953866616</v>
       </c>
       <c r="D1294" t="n">
-        <v>-2.256680967200278</v>
+        <v>4.026504339979308</v>
       </c>
       <c r="E1294" t="n">
         <v>1.486018453193928</v>
@@ -22447,7 +22447,7 @@
         <v>397077.0544581168</v>
       </c>
       <c r="D1295" t="n">
-        <v>-1.490141210340733</v>
+        <v>4.793044096838853</v>
       </c>
       <c r="E1295" t="n">
         <v>1.525050129170079</v>
@@ -22464,7 +22464,7 @@
         <v>404259.0424605239</v>
       </c>
       <c r="D1296" t="n">
-        <v>-0.7783824180453984</v>
+        <v>5.504802889134188</v>
       </c>
       <c r="E1296" t="n">
         <v>1.585508476840859</v>
@@ -22481,7 +22481,7 @@
         <v>397356.9342770107</v>
       </c>
       <c r="D1297" t="n">
-        <v>-0.06412699735479244</v>
+        <v>6.219058309824794</v>
       </c>
       <c r="E1297" t="n">
         <v>1.638756946766399</v>
@@ -22549,7 +22549,7 @@
         <v>373326.7615593254</v>
       </c>
       <c r="D1301" t="n">
-        <v>-3.088690027858858</v>
+        <v>3.194495279320728</v>
       </c>
       <c r="E1301" t="n">
         <v>1.495251602289713</v>
@@ -22566,7 +22566,7 @@
         <v>382517.5709985113</v>
       </c>
       <c r="D1302" t="n">
-        <v>-2.269533168655823</v>
+        <v>4.013652138523764</v>
       </c>
       <c r="E1302" t="n">
         <v>1.486337107339804</v>
@@ -22583,7 +22583,7 @@
         <v>395888.9537047371</v>
       </c>
       <c r="D1303" t="n">
-        <v>-1.500087687834923</v>
+        <v>4.783097619344664</v>
       </c>
       <c r="E1303" t="n">
         <v>1.527796763770331</v>
@@ -22600,7 +22600,7 @@
         <v>404200.1786853449</v>
       </c>
       <c r="D1304" t="n">
-        <v>-0.7825040144014905</v>
+        <v>5.500681292778095</v>
       </c>
       <c r="E1304" t="n">
         <v>1.589823111548983</v>
@@ -22617,7 +22617,7 @@
         <v>399065.6510909133</v>
       </c>
       <c r="D1305" t="n">
-        <v>-0.07344955145519894</v>
+        <v>6.209735755724387</v>
       </c>
       <c r="E1305" t="n">
         <v>1.642174283971683</v>
@@ -22685,7 +22685,7 @@
         <v>375097.1245471283</v>
       </c>
       <c r="D1309" t="n">
-        <v>-3.066430402642765</v>
+        <v>3.216754904536821</v>
       </c>
       <c r="E1309" t="n">
         <v>1.490677948264192</v>
@@ -22702,7 +22702,7 @@
         <v>385952.122661436</v>
       </c>
       <c r="D1310" t="n">
-        <v>-2.263163117896017</v>
+        <v>4.020022189283569</v>
       </c>
       <c r="E1310" t="n">
         <v>1.485069058431536</v>
@@ -22719,7 +22719,7 @@
         <v>396974.2818017867</v>
       </c>
       <c r="D1311" t="n">
-        <v>-1.502899437952168</v>
+        <v>4.780285869227418</v>
       </c>
       <c r="E1311" t="n">
         <v>1.528712410698433</v>
@@ -22736,7 +22736,7 @@
         <v>404609.8476098944</v>
       </c>
       <c r="D1312" t="n">
-        <v>-0.7834633077976729</v>
+        <v>5.499721999381913</v>
       </c>
       <c r="E1312" t="n">
         <v>1.59259638040629</v>
@@ -22753,7 +22753,7 @@
         <v>401868.5169092799</v>
       </c>
       <c r="D1313" t="n">
-        <v>-0.07789501081987771</v>
+        <v>6.205290296359708</v>
       </c>
       <c r="E1313" t="n">
         <v>1.645165662054243</v>
@@ -22821,7 +22821,7 @@
         <v>371639.5093838733</v>
       </c>
       <c r="D1317" t="n">
-        <v>-3.047942070664805</v>
+        <v>3.235243236514782</v>
       </c>
       <c r="E1317" t="n">
         <v>1.487689184771009</v>
@@ -22838,7 +22838,7 @@
         <v>387193.9234346979</v>
       </c>
       <c r="D1318" t="n">
-        <v>-2.242985406031552</v>
+        <v>4.040199901148034</v>
       </c>
       <c r="E1318" t="n">
         <v>1.48413461359561</v>
@@ -22855,7 +22855,7 @@
         <v>398967.4169328428</v>
       </c>
       <c r="D1319" t="n">
-        <v>-1.493212127477007</v>
+        <v>4.78997317970258</v>
       </c>
       <c r="E1319" t="n">
         <v>1.529112964718431</v>
@@ -22872,7 +22872,7 @@
         <v>405377.1229397851</v>
       </c>
       <c r="D1320" t="n">
-        <v>-0.7772783042349261</v>
+        <v>5.50590700294466</v>
       </c>
       <c r="E1320" t="n">
         <v>1.593667135550008</v>
@@ -22889,7 +22889,7 @@
         <v>403998.7931253731</v>
       </c>
       <c r="D1321" t="n">
-        <v>-0.07219903584469467</v>
+        <v>6.210986271334892</v>
       </c>
       <c r="E1321" t="n">
         <v>1.646320657655576</v>
@@ -22957,7 +22957,7 @@
         <v>365080.1757417472</v>
       </c>
       <c r="D1325" t="n">
-        <v>-3.05333893959542</v>
+        <v>3.229846367584166</v>
       </c>
       <c r="E1325" t="n">
         <v>1.488051102385542</v>
@@ -22974,7 +22974,7 @@
         <v>384197.7528662824</v>
       </c>
       <c r="D1326" t="n">
-        <v>-2.226140407526788</v>
+        <v>4.057044899652798</v>
       </c>
       <c r="E1326" t="n">
         <v>1.485055596317018</v>
@@ -22991,7 +22991,7 @@
         <v>399502.6937956915</v>
       </c>
       <c r="D1327" t="n">
-        <v>-1.476053970883541</v>
+        <v>4.807131336296045</v>
       </c>
       <c r="E1327" t="n">
         <v>1.5308413071502</v>
@@ -23008,7 +23008,7 @@
         <v>405991.6806468517</v>
       </c>
       <c r="D1328" t="n">
-        <v>-0.7647817525395459</v>
+        <v>5.51840355464004</v>
       </c>
       <c r="E1328" t="n">
         <v>1.594576893971799</v>
@@ -23025,7 +23025,7 @@
         <v>404581.2411665232</v>
       </c>
       <c r="D1329" t="n">
-        <v>-0.05876982636828032</v>
+        <v>6.224415480811306</v>
       </c>
       <c r="E1329" t="n">
         <v>1.646003916898996</v>
@@ -23093,7 +23093,7 @@
         <v>360311.5838332134</v>
       </c>
       <c r="D1333" t="n">
-        <v>-3.083383112499526</v>
+        <v>3.199802194680061</v>
       </c>
       <c r="E1333" t="n">
         <v>1.490659653950934</v>
@@ -23110,7 +23110,7 @@
         <v>378420.8942654027</v>
       </c>
       <c r="D1334" t="n">
-        <v>-2.227198983073874</v>
+        <v>4.055986324105712</v>
       </c>
       <c r="E1334" t="n">
         <v>1.487632745293885</v>
@@ -23127,7 +23127,7 @@
         <v>397340.7673759964</v>
       </c>
       <c r="D1335" t="n">
-        <v>-1.462530444417743</v>
+        <v>4.820654862761844</v>
       </c>
       <c r="E1335" t="n">
         <v>1.534454447379403</v>
@@ -23144,7 +23144,7 @@
         <v>405786.6734244956</v>
       </c>
       <c r="D1336" t="n">
-        <v>-0.7512465882046406</v>
+        <v>5.531938718974946</v>
       </c>
       <c r="E1336" t="n">
         <v>1.59693652744439</v>
@@ -23161,7 +23161,7 @@
         <v>403907.147834641</v>
       </c>
       <c r="D1337" t="n">
-        <v>-0.04436750481265639</v>
+        <v>6.238817802366929</v>
       </c>
       <c r="E1337" t="n">
         <v>1.645857985341935</v>
@@ -23229,7 +23229,7 @@
         <v>360647.3712329125</v>
       </c>
       <c r="D1341" t="n">
-        <v>-3.117578006668738</v>
+        <v>3.165607300510849</v>
       </c>
       <c r="E1341" t="n">
         <v>1.492434777445561</v>
@@ -23246,7 +23246,7 @@
         <v>373603.2239201637</v>
       </c>
       <c r="D1342" t="n">
-        <v>-2.24656108791982</v>
+        <v>4.036624219259767</v>
       </c>
       <c r="E1342" t="n">
         <v>1.490213221134806</v>
@@ -23263,7 +23263,7 @@
         <v>393393.7204132372</v>
       </c>
       <c r="D1343" t="n">
-        <v>-1.460864629074984</v>
+        <v>4.822320678104602</v>
       </c>
       <c r="E1343" t="n">
         <v>1.538829856333868</v>
@@ -23280,7 +23280,7 @@
         <v>404572.265919949</v>
       </c>
       <c r="D1344" t="n">
-        <v>-0.7426298830293043</v>
+        <v>5.540555424150282</v>
       </c>
       <c r="E1344" t="n">
         <v>1.600969213391683</v>
@@ -23297,7 +23297,7 @@
         <v>402883.7129729133</v>
       </c>
       <c r="D1345" t="n">
-        <v>-0.03521188773723516</v>
+        <v>6.247973419442351</v>
       </c>
       <c r="E1345" t="n">
         <v>1.647245724450837</v>
@@ -23365,7 +23365,7 @@
         <v>364985.4579094857</v>
       </c>
       <c r="D1349" t="n">
-        <v>-3.133099485467483</v>
+        <v>3.150085821712103</v>
       </c>
       <c r="E1349" t="n">
         <v>1.491310711612136</v>
@@ -23382,7 +23382,7 @@
         <v>372641.9539058635</v>
       </c>
       <c r="D1350" t="n">
-        <v>-2.269974165144742</v>
+        <v>4.013211142034844</v>
       </c>
       <c r="E1350" t="n">
         <v>1.491196438243218</v>
@@ -23399,7 +23399,7 @@
         <v>389958.3732065727</v>
       </c>
       <c r="D1351" t="n">
-        <v>-1.470343977111101</v>
+        <v>4.812841330068485</v>
       </c>
       <c r="E1351" t="n">
         <v>1.542161566571376</v>
@@ -23416,7 +23416,7 @@
         <v>402893.7783578441</v>
       </c>
       <c r="D1352" t="n">
-        <v>-0.7413920822182911</v>
+        <v>5.541793224961295</v>
       </c>
       <c r="E1352" t="n">
         <v>1.60542861178289</v>
@@ -23433,7 +23433,7 @@
         <v>402418.8919733834</v>
       </c>
       <c r="D1353" t="n">
-        <v>-0.03345221716576807</v>
+        <v>6.249733090013818</v>
       </c>
       <c r="E1353" t="n">
         <v>1.650141465403108</v>
@@ -23501,7 +23501,7 @@
         <v>369441.96044855</v>
       </c>
       <c r="D1357" t="n">
-        <v>-3.123659603705002</v>
+        <v>3.159525703474584</v>
       </c>
       <c r="E1357" t="n">
         <v>1.487964638957505</v>
@@ -23518,7 +23518,7 @@
         <v>375320.7520540866</v>
       </c>
       <c r="D1358" t="n">
-        <v>-2.280477856734756</v>
+        <v>4.00270745044483</v>
       </c>
       <c r="E1358" t="n">
         <v>1.490512658057232</v>
@@ -23535,7 +23535,7 @@
         <v>388934.026059331</v>
       </c>
       <c r="D1359" t="n">
-        <v>-1.481932879301048</v>
+        <v>4.801252427878538</v>
       </c>
       <c r="E1359" t="n">
         <v>1.543502161509586</v>
@@ -23552,7 +23552,7 @@
         <v>401677.4547288271</v>
       </c>
       <c r="D1360" t="n">
-        <v>-0.7448605290243742</v>
+        <v>5.538324778155213</v>
       </c>
       <c r="E1360" t="n">
         <v>1.608665373309717</v>
@@ -23569,7 +23569,7 @@
         <v>402951.6899569779</v>
       </c>
       <c r="D1361" t="n">
-        <v>-0.03628009860164561</v>
+        <v>6.246905208577941</v>
       </c>
       <c r="E1361" t="n">
         <v>1.653203464257099</v>
@@ -23637,7 +23637,7 @@
         <v>370623.0626248163</v>
       </c>
       <c r="D1365" t="n">
-        <v>-3.100106881107928</v>
+        <v>3.183078426071658</v>
       </c>
       <c r="E1365" t="n">
         <v>1.48465266159107</v>
@@ -23654,7 +23654,7 @@
         <v>378857.5521311191</v>
       </c>
       <c r="D1366" t="n">
-        <v>-2.271529126123769</v>
+        <v>4.011656181055817</v>
       </c>
       <c r="E1366" t="n">
         <v>1.489585137226885</v>
@@ -23671,7 +23671,7 @@
         <v>390432.0215552702</v>
       </c>
       <c r="D1367" t="n">
-        <v>-1.484997380820734</v>
+        <v>4.798187926358852</v>
       </c>
       <c r="E1367" t="n">
         <v>1.54361070062651</v>
@@ -23688,7 +23688,7 @@
         <v>401581.8543135157</v>
       </c>
       <c r="D1368" t="n">
-        <v>-0.7470093145648784</v>
+        <v>5.536175992614708</v>
       </c>
       <c r="E1368" t="n">
         <v>1.60997864302208</v>
@@ -23705,7 +23705,7 @@
         <v>404264.4876952783</v>
       </c>
       <c r="D1369" t="n">
-        <v>-0.03797801762840969</v>
+        <v>6.245207289551177</v>
       </c>
       <c r="E1369" t="n">
         <v>1.654880366979506</v>
@@ -23773,7 +23773,7 @@
         <v>367464.3936661869</v>
       </c>
       <c r="D1373" t="n">
-        <v>-3.081064667809233</v>
+        <v>3.202120639370353</v>
       </c>
       <c r="E1373" t="n">
         <v>1.483334886109315</v>
@@ -23790,7 +23790,7 @@
         <v>380097.7429909986</v>
       </c>
       <c r="D1374" t="n">
-        <v>-2.249969265953435</v>
+        <v>4.033216041226151</v>
       </c>
       <c r="E1374" t="n">
         <v>1.49003097767115</v>
@@ -23807,7 +23807,7 @@
         <v>392782.4335965582</v>
       </c>
       <c r="D1375" t="n">
-        <v>-1.474915151070898</v>
+        <v>4.808270156108688</v>
       </c>
       <c r="E1375" t="n">
         <v>1.54431643360633</v>
@@ -23824,7 +23824,7 @@
         <v>402518.7264246476</v>
       </c>
       <c r="D1376" t="n">
-        <v>-0.7424479848768981</v>
+        <v>5.540737322302688</v>
       </c>
       <c r="E1376" t="n">
         <v>1.610214883967088</v>
@@ -23841,7 +23841,7 @@
         <v>405675.6601806298</v>
       </c>
       <c r="D1377" t="n">
-        <v>-0.03362641948915801</v>
+        <v>6.249558887690428</v>
       </c>
       <c r="E1377" t="n">
         <v>1.654669974188149</v>
@@ -23909,7 +23909,7 @@
         <v>361707.7520597385</v>
       </c>
       <c r="D1381" t="n">
-        <v>-3.083286342669973</v>
+        <v>3.199898964509614</v>
       </c>
       <c r="E1381" t="n">
         <v>1.484520486810339</v>
@@ -23926,7 +23926,7 @@
         <v>377372.4662763997</v>
       </c>
       <c r="D1382" t="n">
-        <v>-2.230906130154362</v>
+        <v>4.052279177025224</v>
       </c>
       <c r="E1382" t="n">
         <v>1.492437622321737</v>
@@ -23943,7 +23943,7 @@
         <v>393675.1563164162</v>
       </c>
       <c r="D1383" t="n">
-        <v>-1.45601752276319</v>
+        <v>4.827167784416396</v>
       </c>
       <c r="E1383" t="n">
         <v>1.547070852866066</v>
@@ -23960,7 +23960,7 @@
         <v>403658.4642512869</v>
       </c>
       <c r="D1384" t="n">
-        <v>-0.7300534644136483</v>
+        <v>5.553131842765938</v>
       </c>
       <c r="E1384" t="n">
         <v>1.611132638836414</v>
@@ -23977,7 +23977,7 @@
         <v>406488.548641957</v>
       </c>
       <c r="D1385" t="n">
-        <v>-0.02223774148965152</v>
+        <v>6.260947565689935</v>
       </c>
       <c r="E1385" t="n">
         <v>1.653532881277752</v>
@@ -24045,7 +24045,7 @@
         <v>357309.6556949737</v>
       </c>
       <c r="D1389" t="n">
-        <v>-3.111455296954337</v>
+        <v>3.17173001022525</v>
       </c>
       <c r="E1389" t="n">
         <v>1.486842892782054</v>
@@ -24062,7 +24062,7 @@
         <v>371554.5156586767</v>
       </c>
       <c r="D1390" t="n">
-        <v>-2.229932767200482</v>
+        <v>4.053252539979105</v>
       </c>
       <c r="E1390" t="n">
         <v>1.495825097740505</v>
@@ -24079,7 +24079,7 @@
         <v>391551.3931864427</v>
       </c>
       <c r="D1391" t="n">
-        <v>-1.439310258550428</v>
+        <v>4.843875048629158</v>
       </c>
       <c r="E1391" t="n">
         <v>1.551823608092801</v>
@@ -24096,7 +24096,7 @@
         <v>403880.0707335165</v>
       </c>
       <c r="D1392" t="n">
-        <v>-0.7140379145117848</v>
+        <v>5.569147392667801</v>
       </c>
       <c r="E1392" t="n">
         <v>1.614057064568582</v>
@@ -24113,7 +24113,7 @@
         <v>406424.7381755636</v>
       </c>
       <c r="D1393" t="n">
-        <v>-0.007490973480738461</v>
+        <v>6.275694333698848</v>
       </c>
       <c r="E1393" t="n">
         <v>1.6531963451105</v>
@@ -24181,7 +24181,7 @@
         <v>357927.6723830997</v>
       </c>
       <c r="D1397" t="n">
-        <v>-3.150326525792374</v>
+        <v>3.132858781387212</v>
       </c>
       <c r="E1397" t="n">
         <v>1.487802433596442</v>
@@ -24198,7 +24198,7 @@
         <v>366114.3622936268</v>
       </c>
       <c r="D1398" t="n">
-        <v>-2.25300463777177</v>
+        <v>4.030180669407816</v>
       </c>
       <c r="E1398" t="n">
         <v>1.498080769564657</v>
@@ -24215,7 +24215,7 @@
         <v>386749.4391239288</v>
       </c>
       <c r="D1399" t="n">
-        <v>-1.436661312206169</v>
+        <v>4.846523994973417</v>
       </c>
       <c r="E1399" t="n">
         <v>1.556770744734508</v>
@@ -24232,7 +24232,7 @@
         <v>402409.9034935755</v>
       </c>
       <c r="D1400" t="n">
-        <v>-0.7019866492824121</v>
+        <v>5.581198657897174</v>
       </c>
       <c r="E1400" t="n">
         <v>1.618747446705586</v>
@@ -24317,7 +24317,7 @@
         <v>363309.5259732952</v>
       </c>
       <c r="D1405" t="n">
-        <v>-3.173252437774137</v>
+        <v>3.10993286940545</v>
       </c>
       <c r="E1405" t="n">
         <v>1.486030920802851</v>
@@ -24334,7 +24334,7 @@
         <v>365009.6357577064</v>
       </c>
       <c r="D1406" t="n">
-        <v>-2.287331525487719</v>
+        <v>3.995853781691867</v>
       </c>
       <c r="E1406" t="n">
         <v>1.497760945623257</v>
@@ -24351,7 +24351,7 @@
         <v>381878.1125658398</v>
       </c>
       <c r="D1407" t="n">
-        <v>-1.452207098315808</v>
+        <v>4.830978208863778</v>
       </c>
       <c r="E1407" t="n">
         <v>1.559415688141599</v>
@@ -24368,7 +24368,7 @@
         <v>399469.5420726015</v>
       </c>
       <c r="D1408" t="n">
-        <v>-0.7004352777480194</v>
+        <v>5.582750029431567</v>
       </c>
       <c r="E1408" t="n">
         <v>1.623267140932106</v>
@@ -24453,7 +24453,7 @@
         <v>368927.2659370012</v>
       </c>
       <c r="D1413" t="n">
-        <v>-3.166755029452315</v>
+        <v>3.116430277727272</v>
       </c>
       <c r="E1413" t="n">
         <v>1.482845477784169</v>
@@ -24470,7 +24470,7 @@
         <v>368787.4776811615</v>
       </c>
       <c r="D1414" t="n">
-        <v>-2.307909999709246</v>
+        <v>3.97527530747034</v>
       </c>
       <c r="E1414" t="n">
         <v>1.495969879632793</v>
@@ -24487,7 +24487,7 @@
         <v>380231.3195897058</v>
       </c>
       <c r="D1415" t="n">
-        <v>-1.475443498057689</v>
+        <v>4.807741809121898</v>
       </c>
       <c r="E1415" t="n">
         <v>1.558994121680586</v>
@@ -24504,7 +24504,7 @@
         <v>396575.1407699743</v>
       </c>
       <c r="D1416" t="n">
-        <v>-0.7094394290501445</v>
+        <v>5.573745878129442</v>
       </c>
       <c r="E1416" t="n">
         <v>1.625403882706608</v>
@@ -24589,7 +24589,7 @@
         <v>370110.9157541969</v>
       </c>
       <c r="D1421" t="n">
-        <v>-3.142691879767364</v>
+        <v>3.140493427412222</v>
       </c>
       <c r="E1421" t="n">
         <v>1.480837230844778</v>
@@ -24606,7 +24606,7 @@
         <v>373506.4926385871</v>
       </c>
       <c r="D1422" t="n">
-        <v>-2.301373662143089</v>
+        <v>3.981811645036498</v>
       </c>
       <c r="E1422" t="n">
         <v>1.495446916613768</v>
@@ -24623,7 +24623,7 @@
         <v>382538.3908029165</v>
       </c>
       <c r="D1423" t="n">
-        <v>-1.487354087912305</v>
+        <v>4.795831219267281</v>
       </c>
       <c r="E1423" t="n">
         <v>1.557860018852728</v>
@@ -24640,7 +24640,7 @@
         <v>395630.2944316989</v>
       </c>
       <c r="D1424" t="n">
-        <v>-0.7202843008983315</v>
+        <v>5.562901006281255</v>
       </c>
       <c r="E1424" t="n">
         <v>1.624960416444692</v>
@@ -24725,7 +24725,7 @@
         <v>366042.8393911172</v>
       </c>
       <c r="D1429" t="n">
-        <v>-3.126531926719132</v>
+        <v>3.156653380460454</v>
       </c>
       <c r="E1429" t="n">
         <v>1.481368026698016</v>
@@ -24742,7 +24742,7 @@
         <v>374540.9334046472</v>
       </c>
       <c r="D1430" t="n">
-        <v>-2.27828311371037</v>
+        <v>4.004902193469216</v>
       </c>
       <c r="E1430" t="n">
         <v>1.497724432381215</v>
@@ -24759,7 +24759,7 @@
         <v>385894.9751080323</v>
       </c>
       <c r="D1431" t="n">
-        <v>-1.478577332142335</v>
+        <v>4.804607975037252</v>
       </c>
       <c r="E1431" t="n">
         <v>1.559157827060099</v>
@@ -24776,7 +24776,7 @@
         <v>397001.5179608521</v>
       </c>
       <c r="D1432" t="n">
-        <v>-0.72160219589257</v>
+        <v>5.561583111287016</v>
       </c>
       <c r="E1432" t="n">
         <v>1.624260001504105</v>
@@ -24861,7 +24861,7 @@
         <v>360254.9912065393</v>
       </c>
       <c r="D1437" t="n">
-        <v>-3.136643407157152</v>
+        <v>3.146541900022434</v>
       </c>
       <c r="E1437" t="n">
         <v>1.48349066931116</v>
@@ -24878,7 +24878,7 @@
         <v>370581.0990446403</v>
       </c>
       <c r="D1438" t="n">
-        <v>-2.261555507478575</v>
+        <v>4.021629799701012</v>
       </c>
       <c r="E1438" t="n">
         <v>1.501839326364457</v>
@@ -24895,7 +24895,7 @@
         <v>386618.4837192821</v>
       </c>
       <c r="D1439" t="n">
-        <v>-1.457616609931219</v>
+        <v>4.825568697248368</v>
       </c>
       <c r="E1439" t="n">
         <v>1.563655217351081</v>
@@ -24912,7 +24912,7 @@
         <v>398932.9709742247</v>
       </c>
       <c r="D1440" t="n">
-        <v>-0.7097603544054039</v>
+        <v>5.573424952774182</v>
       </c>
       <c r="E1440" t="n">
         <v>1.625745000959329</v>
@@ -24997,7 +24997,7 @@
         <v>357638.4572256792</v>
       </c>
       <c r="D1445" t="n">
-        <v>-3.169373380635731</v>
+        <v>3.113811926543856</v>
       </c>
       <c r="E1445" t="n">
         <v>1.484874513950755</v>
@@ -25014,7 +25014,7 @@
         <v>364325.115056188</v>
       </c>
       <c r="D1446" t="n">
-        <v>-2.267934986115796</v>
+        <v>4.015250321063791</v>
       </c>
       <c r="E1446" t="n">
         <v>1.505252734976782</v>
@@ -25031,7 +25031,7 @@
         <v>383382.4977735457</v>
       </c>
       <c r="D1447" t="n">
-        <v>-1.441601568160789</v>
+        <v>4.841583739018796</v>
       </c>
       <c r="E1447" t="n">
         <v>1.569441827941394</v>
@@ -25048,7 +25048,7 @@
         <v>399209.7798186052</v>
       </c>
       <c r="D1448" t="n">
-        <v>-0.6916277881920734</v>
+        <v>5.591557518987512</v>
       </c>
       <c r="E1448" t="n">
         <v>1.629728894458429</v>
@@ -25133,7 +25133,7 @@
         <v>360232.2519830397</v>
       </c>
       <c r="D1453" t="n">
-        <v>-3.202343986875197</v>
+        <v>3.08084132030439</v>
       </c>
       <c r="E1453" t="n">
         <v>1.484019843568162</v>
@@ -25150,7 +25150,7 @@
         <v>360188.4766238768</v>
       </c>
       <c r="D1454" t="n">
-        <v>-2.295924192284645</v>
+        <v>3.987261114894942</v>
       </c>
       <c r="E1454" t="n">
         <v>1.505946980732716</v>
@@ -25167,7 +25167,7 @@
         <v>377902.0579920161</v>
       </c>
       <c r="D1455" t="n">
-        <v>-1.442970331651654</v>
+        <v>4.840214975527932</v>
       </c>
       <c r="E1455" t="n">
         <v>1.573655495742799</v>
@@ -25184,7 +25184,7 @@
         <v>396978.3260486329</v>
       </c>
       <c r="D1456" t="n">
-        <v>-0.6781638226626474</v>
+        <v>5.605021484516939</v>
       </c>
       <c r="E1456" t="n">
         <v>1.634509007345766</v>
@@ -25269,7 +25269,7 @@
         <v>365836.8880216965</v>
       </c>
       <c r="D1461" t="n">
-        <v>-3.214955216966722</v>
+        <v>3.068230090212864</v>
       </c>
       <c r="E1461" t="n">
         <v>1.481603288715372</v>
@@ -25286,7 +25286,7 @@
         <v>360799.1117786215</v>
       </c>
       <c r="D1462" t="n">
-        <v>-2.327135195201246</v>
+        <v>3.956050111978341</v>
       </c>
       <c r="E1462" t="n">
         <v>1.504259967965465</v>
@@ -25303,7 +25303,7 @@
         <v>373497.3500820303</v>
       </c>
       <c r="D1463" t="n">
-        <v>-1.461364703785129</v>
+        <v>4.821820603394457</v>
       </c>
       <c r="E1463" t="n">
         <v>1.574580746663077</v>
@@ -25320,7 +25320,7 @@
         <v>393204.2896819245</v>
       </c>
       <c r="D1464" t="n">
-        <v>-0.6765904318674543</v>
+        <v>5.606594875312132</v>
       </c>
       <c r="E1464" t="n">
         <v>1.637826353494995</v>
@@ -25405,7 +25405,7 @@
         <v>370459.9137930883</v>
       </c>
       <c r="D1469" t="n">
-        <v>-3.203526846288031</v>
+        <v>3.079658460891555</v>
       </c>
       <c r="E1469" t="n">
         <v>1.479550611846988</v>
@@ -25422,7 +25422,7 @@
         <v>365084.8626717904</v>
       </c>
       <c r="D1470" t="n">
-        <v>-2.341512645441592</v>
+        <v>3.941672661737994</v>
       </c>
       <c r="E1470" t="n">
         <v>1.502603603654597</v>
@@ -25439,7 +25439,7 @@
         <v>372685.3077695174</v>
       </c>
       <c r="D1471" t="n">
-        <v>-1.483925257038527</v>
+        <v>4.79926005014106</v>
       </c>
       <c r="E1471" t="n">
         <v>1.573082290751845</v>
@@ -25456,7 +25456,7 @@
         <v>389933.3597306524</v>
       </c>
       <c r="D1472" t="n">
-        <v>-0.685970746730149</v>
+        <v>5.597214560449437</v>
       </c>
       <c r="E1472" t="n">
         <v>1.638453773805126</v>
@@ -25541,7 +25541,7 @@
         <v>371259.9735964328</v>
       </c>
       <c r="D1477" t="n">
-        <v>-3.179790422231427</v>
+        <v>3.103394884948159</v>
       </c>
       <c r="E1477" t="n">
         <v>1.479318744975896</v>
@@ -25558,7 +25558,7 @@
         <v>369502.1501794393</v>
       </c>
       <c r="D1478" t="n">
-        <v>-2.332374082101998</v>
+        <v>3.950811225077588</v>
       </c>
       <c r="E1478" t="n">
         <v>1.503304662700785</v>
@@ -25575,7 +25575,7 @@
         <v>375360.7898824187</v>
       </c>
       <c r="D1479" t="n">
-        <v>-1.49462423502885</v>
+        <v>4.788561072150737</v>
       </c>
       <c r="E1479" t="n">
         <v>1.572048640897671</v>
@@ -25592,7 +25592,7 @@
         <v>388936.2227047094</v>
       </c>
       <c r="D1480" t="n">
-        <v>-0.697701954875654</v>
+        <v>5.585483352303932</v>
       </c>
       <c r="E1480" t="n">
         <v>1.637180406437513</v>
@@ -25677,7 +25677,7 @@
         <v>367952.9876451452</v>
       </c>
       <c r="D1485" t="n">
-        <v>-3.162334616634332</v>
+        <v>3.120850690545254</v>
       </c>
       <c r="E1485" t="n">
         <v>1.480936242874237</v>
@@ -25694,7 +25694,7 @@
         <v>370651.9688812202</v>
       </c>
       <c r="D1486" t="n">
-        <v>-2.308956533549115</v>
+        <v>3.974228773630471</v>
       </c>
       <c r="E1486" t="n">
         <v>1.506912000241408</v>
@@ -25711,7 +25711,7 @@
         <v>378940.4713242237</v>
       </c>
       <c r="D1487" t="n">
-        <v>-1.486018532718527</v>
+        <v>4.79716677446106</v>
       </c>
       <c r="E1487" t="n">
         <v>1.574017007721145</v>
@@ -25728,7 +25728,7 @@
         <v>390451.353879442</v>
       </c>
       <c r="D1488" t="n">
-        <v>-0.7010263676651309</v>
+        <v>5.582158939514455</v>
       </c>
       <c r="E1488" t="n">
         <v>1.636345773668895</v>
@@ -25813,7 +25813,7 @@
         <v>363040.4006085676</v>
       </c>
       <c r="D1493" t="n">
-        <v>-3.167210466888761</v>
+        <v>3.115974840290825</v>
       </c>
       <c r="E1493" t="n">
         <v>1.482955058832658</v>
@@ -25830,7 +25830,7 @@
         <v>367253.0279428759</v>
       </c>
       <c r="D1494" t="n">
-        <v>-2.290209654549793</v>
+        <v>3.992975652629794</v>
       </c>
       <c r="E1494" t="n">
         <v>1.511866007815043</v>
@@ -25847,7 +25847,7 @@
         <v>380139.2099466436</v>
       </c>
       <c r="D1495" t="n">
-        <v>-1.464276186447796</v>
+        <v>4.81890912073179</v>
       </c>
       <c r="E1495" t="n">
         <v>1.579239159408059</v>
@@ -25864,7 +25864,7 @@
         <v>392876.5710623512</v>
       </c>
       <c r="D1496" t="n">
-        <v>-0.6906666787126103</v>
+        <v>5.592518628466976</v>
       </c>
       <c r="E1496" t="n">
         <v>1.637977145905805</v>
@@ -25949,7 +25949,7 @@
         <v>360742.4192115153</v>
       </c>
       <c r="D1501" t="n">
-        <v>-3.19666909771979</v>
+        <v>3.086516209459796</v>
       </c>
       <c r="E1501" t="n">
         <v>1.483391399058029</v>
@@ -25966,7 +25966,7 @@
         <v>361165.0571748588</v>
       </c>
       <c r="D1502" t="n">
-        <v>-2.294958745837246</v>
+        <v>3.988226561342341</v>
       </c>
       <c r="E1502" t="n">
         <v>1.515220808274799</v>
@@ -25983,7 +25983,7 @@
         <v>377053.5519900236</v>
       </c>
       <c r="D1503" t="n">
-        <v>-1.445914369080329</v>
+        <v>4.837270938099257</v>
       </c>
       <c r="E1503" t="n">
         <v>1.585475250241254</v>
@@ -26000,7 +26000,7 @@
         <v>393696.7329437823</v>
       </c>
       <c r="D1504" t="n">
-        <v>-0.6712434527828499</v>
+        <v>5.611941854396736</v>
       </c>
       <c r="E1504" t="n">
         <v>1.642126704088322</v>
@@ -26085,7 +26085,7 @@
         <v>363845.6443188654</v>
       </c>
       <c r="D1509" t="n">
-        <v>-3.232545586124771</v>
+        <v>3.050639721054815</v>
       </c>
       <c r="E1509" t="n">
         <v>1.481583635325037</v>
@@ -26102,7 +26102,7 @@
         <v>356929.3619807136</v>
       </c>
       <c r="D1510" t="n">
-        <v>-2.327905346723915</v>
+        <v>3.955279960455671</v>
       </c>
       <c r="E1510" t="n">
         <v>1.514711433036876</v>
@@ -26119,7 +26119,7 @@
         <v>370764.6456488261</v>
       </c>
       <c r="D1511" t="n">
-        <v>-1.448561409536459</v>
+        <v>4.834623897643127</v>
       </c>
       <c r="E1511" t="n">
         <v>1.589247463365901</v>
@@ -26136,7 +26136,7 @@
         <v>391154.7545091719</v>
       </c>
       <c r="D1512" t="n">
-        <v>-0.6554518557846594</v>
+        <v>5.627733451394927</v>
       </c>
       <c r="E1512" t="n">
         <v>1.646741387565271</v>
@@ -26221,7 +26221,7 @@
         <v>370547.4959810312</v>
       </c>
       <c r="D1517" t="n">
-        <v>-3.249398377788697</v>
+        <v>3.033786929390889</v>
       </c>
       <c r="E1517" t="n">
         <v>1.479152695222351</v>
@@ -26238,7 +26238,7 @@
         <v>358360.9222875198</v>
       </c>
       <c r="D1518" t="n">
-        <v>-2.369440879074862</v>
+        <v>3.913744428104724</v>
       </c>
       <c r="E1518" t="n">
         <v>1.511512095882104</v>
@@ -26255,7 +26255,7 @@
         <v>365415.857739123</v>
       </c>
       <c r="D1519" t="n">
-        <v>-1.476834660270275</v>
+        <v>4.806350646909312</v>
       </c>
       <c r="E1519" t="n">
         <v>1.588471094095308</v>
@@ -26272,7 +26272,7 @@
         <v>385869.5565435952</v>
       </c>
       <c r="D1520" t="n">
-        <v>-0.6561651199345215</v>
+        <v>5.627020187245065</v>
       </c>
       <c r="E1520" t="n">
         <v>1.649083316388632</v>
@@ -26357,7 +26357,7 @@
         <v>375825.7899537722</v>
       </c>
       <c r="D1525" t="n">
-        <v>-3.238821506270225</v>
+        <v>3.044363800909361</v>
       </c>
       <c r="E1525" t="n">
         <v>1.478397092170331</v>
@@ -26374,7 +26374,7 @@
         <v>364270.7662559518</v>
       </c>
       <c r="D1526" t="n">
-        <v>-2.390101606647509</v>
+        <v>3.893083700532078</v>
       </c>
       <c r="E1526" t="n">
         <v>1.509751692678644</v>
@@ -26391,7 +26391,7 @@
         <v>365060.3461408159</v>
       </c>
       <c r="D1527" t="n">
-        <v>-1.512787948275315</v>
+        <v>4.770397358904272</v>
       </c>
       <c r="E1527" t="n">
         <v>1.585198048366224</v>
@@ -26408,7 +26408,7 @@
         <v>381063.6337426629</v>
       </c>
       <c r="D1528" t="n">
-        <v>-0.6751659542984796</v>
+        <v>5.608019352881106</v>
       </c>
       <c r="E1528" t="n">
         <v>1.648058315072404</v>
@@ -26493,7 +26493,7 @@
         <v>376196.9977900115</v>
       </c>
       <c r="D1533" t="n">
-        <v>-3.215321212589143</v>
+        <v>3.067864094590443</v>
       </c>
       <c r="E1533" t="n">
         <v>1.480042664633198</v>
@@ -26510,7 +26510,7 @@
         <v>369430.085654108</v>
       </c>
       <c r="D1534" t="n">
-        <v>-2.380162920663694</v>
+        <v>3.903022386515893</v>
       </c>
       <c r="E1534" t="n">
         <v>1.512112910552158</v>
@@ -26527,7 +26527,7 @@
         <v>369279.745836441</v>
       </c>
       <c r="D1535" t="n">
-        <v>-1.52986685524133</v>
+        <v>4.753318451938256</v>
       </c>
       <c r="E1535" t="n">
         <v>1.584187100407363</v>
@@ -26544,7 +26544,7 @@
         <v>380007.419683893</v>
       </c>
       <c r="D1536" t="n">
-        <v>-0.6980369908302855</v>
+        <v>5.585148316349301</v>
       </c>
       <c r="E1536" t="n">
         <v>1.645685514619833</v>
@@ -26629,7 +26629,7 @@
         <v>372418.7157313193</v>
       </c>
       <c r="D1541" t="n">
-        <v>-3.201643037218359</v>
+        <v>3.081542269961227</v>
       </c>
       <c r="E1541" t="n">
         <v>1.482668638045883</v>
@@ -26646,7 +26646,7 @@
         <v>369804.9687283444</v>
       </c>
       <c r="D1542" t="n">
-        <v>-2.355685687765599</v>
+        <v>3.927499619413988</v>
       </c>
       <c r="E1542" t="n">
         <v>1.517530025829605</v>
@@ -26663,7 +26663,7 @@
         <v>373602.3762621926</v>
       </c>
       <c r="D1543" t="n">
-        <v>-1.519506442304587</v>
+        <v>4.763678864875</v>
       </c>
       <c r="E1543" t="n">
         <v>1.587765443561508</v>
@@ -26680,7 +26680,7 @@
         <v>382639.2913012697</v>
       </c>
       <c r="D1544" t="n">
-        <v>-0.7061182640188535</v>
+        <v>5.577067043160733</v>
       </c>
       <c r="E1544" t="n">
         <v>1.645254337117771</v>
@@ -26765,7 +26765,7 @@
         <v>368411.9046858291</v>
       </c>
       <c r="D1549" t="n">
-        <v>-3.210785313378022</v>
+        <v>3.072399993801564</v>
       </c>
       <c r="E1549" t="n">
         <v>1.483964172858687</v>
@@ -26782,7 +26782,7 @@
         <v>365545.9063920942</v>
       </c>
       <c r="D1550" t="n">
-        <v>-2.341213186558716</v>
+        <v>3.94197212062087</v>
       </c>
       <c r="E1550" t="n">
         <v>1.522635684572657</v>
@@ -26799,7 +26799,7 @@
         <v>374058.4626959409</v>
       </c>
       <c r="D1551" t="n">
-        <v>-1.495806880935529</v>
+        <v>4.787378426244057</v>
       </c>
       <c r="E1551" t="n">
         <v>1.594110900980605</v>
@@ -26816,7 +26816,7 @@
         <v>385752.6660181003</v>
       </c>
       <c r="D1552" t="n">
-        <v>-0.6941979876841606</v>
+        <v>5.588987319495425</v>
       </c>
       <c r="E1552" t="n">
         <v>1.647915591068334</v>
@@ -26901,7 +26901,7 @@
         <v>367957.494154327</v>
       </c>
       <c r="D1557" t="n">
-        <v>-3.236735562819165</v>
+        <v>3.046449744360422</v>
       </c>
       <c r="E1557" t="n">
         <v>1.482849032453801</v>
@@ -26918,7 +26918,7 @@
         <v>360231.5762150119</v>
       </c>
       <c r="D1558" t="n">
-        <v>-2.351507307030905</v>
+        <v>3.931678000148681</v>
       </c>
       <c r="E1558" t="n">
         <v>1.524406190518531</v>
@@ -26935,7 +26935,7 @@
         <v>370046.0549191365</v>
       </c>
       <c r="D1559" t="n">
-        <v>-1.480289075191</v>
+        <v>4.802896231988586</v>
       </c>
       <c r="E1559" t="n">
         <v>1.599588978547836</v>
@@ -26952,7 +26952,7 @@
         <v>386159.550526901</v>
       </c>
       <c r="D1560" t="n">
-        <v>-0.672670168529363</v>
+        <v>5.610515138650223</v>
       </c>
       <c r="E1560" t="n">
         <v>1.652096343300881</v>
@@ -27037,7 +27037,7 @@
         <v>371767.5890723646</v>
       </c>
       <c r="D1565" t="n">
-        <v>-3.260735368717586</v>
+        <v>3.022449938462</v>
       </c>
       <c r="E1565" t="n">
         <v>1.480514564692273</v>
@@ -27054,7 +27054,7 @@
         <v>358046.154336263</v>
       </c>
       <c r="D1566" t="n">
-        <v>-2.382069077004068</v>
+        <v>3.901116230175518</v>
       </c>
       <c r="E1566" t="n">
         <v>1.522505017992962</v>
@@ -27071,7 +27071,7 @@
         <v>364162.2050153171</v>
       </c>
       <c r="D1567" t="n">
-        <v>-1.486935980452743</v>
+        <v>4.796249326726842</v>
       </c>
       <c r="E1567" t="n">
         <v>1.601419377555132</v>
@@ -27088,7 +27088,7 @@
         <v>382928.6466254567</v>
       </c>
       <c r="D1568" t="n">
-        <v>-0.6572108312869096</v>
+        <v>5.625974475892677</v>
       </c>
       <c r="E1568" t="n">
         <v>1.655316837189895</v>
@@ -27173,7 +27173,7 @@
         <v>377374.4478664905</v>
       </c>
       <c r="D1573" t="n">
-        <v>-3.267395091980899</v>
+        <v>3.015790215198688</v>
       </c>
       <c r="E1573" t="n">
         <v>1.479165568055872</v>
@@ -27190,7 +27190,7 @@
         <v>360670.3300759559</v>
       </c>
       <c r="D1574" t="n">
-        <v>-2.413111032093534</v>
+        <v>3.870074275086052</v>
       </c>
       <c r="E1574" t="n">
         <v>1.51970003734844</v>
@@ -27207,7 +27207,7 @@
         <v>360293.9624718454</v>
       </c>
       <c r="D1575" t="n">
-        <v>-1.513970315678445</v>
+        <v>4.769214991501141</v>
       </c>
       <c r="E1575" t="n">
         <v>1.599495854061536</v>
@@ -27224,7 +27224,7 @@
         <v>377631.7275718839</v>
       </c>
       <c r="D1576" t="n">
-        <v>-0.6586438662271039</v>
+        <v>5.624541440952482</v>
       </c>
       <c r="E1576" t="n">
         <v>1.65593328321619</v>
@@ -27309,7 +27309,7 @@
         <v>381413.9105980963</v>
       </c>
       <c r="D1581" t="n">
-        <v>-3.254621629385074</v>
+        <v>3.028563677794512</v>
       </c>
       <c r="E1581" t="n">
         <v>1.480083985192649</v>
@@ -27326,7 +27326,7 @@
         <v>366189.7559650869</v>
       </c>
       <c r="D1582" t="n">
-        <v>-2.425486860276593</v>
+        <v>3.857698446902993</v>
       </c>
       <c r="E1582" t="n">
         <v>1.519421457054005</v>
@@ -27343,7 +27343,7 @@
         <v>360922.9442039776</v>
       </c>
       <c r="D1583" t="n">
-        <v>-1.544650334273107</v>
+        <v>4.738534972906479</v>
       </c>
       <c r="E1583" t="n">
         <v>1.596691576358535</v>
@@ -27360,7 +27360,7 @@
         <v>373295.0479878017</v>
       </c>
       <c r="D1584" t="n">
-        <v>-0.6768044801385904</v>
+        <v>5.606380827040995</v>
       </c>
       <c r="E1584" t="n">
         <v>1.654154495862457</v>
@@ -27445,7 +27445,7 @@
         <v>381840.9916305784</v>
       </c>
       <c r="D1589" t="n">
-        <v>-3.232418817353355</v>
+        <v>3.050766489826231</v>
       </c>
       <c r="E1589" t="n">
         <v>1.482860065804332</v>
@@ -27462,7 +27462,7 @@
         <v>370825.1294015348</v>
       </c>
       <c r="D1590" t="n">
-        <v>-2.414284901573858</v>
+        <v>3.868900405605729</v>
       </c>
       <c r="E1590" t="n">
         <v>1.522971378091315</v>
@@ -27479,7 +27479,7 @@
         <v>365247.5661267301</v>
       </c>
       <c r="D1591" t="n">
-        <v>-1.559240621284521</v>
+        <v>4.723944685895065</v>
       </c>
       <c r="E1591" t="n">
         <v>1.596643431184811</v>
@@ -27496,7 +27496,7 @@
         <v>372472.4656637423</v>
       </c>
       <c r="D1592" t="n">
-        <v>-0.6996670730978694</v>
+        <v>5.583518234081717</v>
       </c>
       <c r="E1592" t="n">
         <v>1.652061055644924</v>
@@ -27581,7 +27581,7 @@
         <v>378982.6094127116</v>
       </c>
       <c r="D1597" t="n">
-        <v>-3.216543990855483</v>
+        <v>3.066641316324104</v>
       </c>
       <c r="E1597" t="n">
         <v>1.485722778142547</v>
@@ -27598,7 +27598,7 @@
         <v>371556.5990623746</v>
       </c>
       <c r="D1598" t="n">
-        <v>-2.390396715995796</v>
+        <v>3.892788591183791</v>
       </c>
       <c r="E1598" t="n">
         <v>1.528895386482296</v>
@@ -27615,7 +27615,7 @@
         <v>369777.5795862654</v>
       </c>
       <c r="D1599" t="n">
-        <v>-1.549876057290541</v>
+        <v>4.733309249889045</v>
       </c>
       <c r="E1599" t="n">
         <v>1.600699626586073</v>
@@ -27632,7 +27632,7 @@
         <v>375279.8425934915</v>
       </c>
       <c r="D1600" t="n">
-        <v>-0.710713427926148</v>
+        <v>5.572471879253438</v>
       </c>
       <c r="E1600" t="n">
         <v>1.652063934184689</v>
@@ -27717,7 +27717,7 @@
         <v>375544.4348143963</v>
       </c>
       <c r="D1605" t="n">
-        <v>-3.219952543627152</v>
+        <v>3.063232763552434</v>
       </c>
       <c r="E1605" t="n">
         <v>1.486596996698871</v>
@@ -27734,7 +27734,7 @@
         <v>367956.6817489205</v>
       </c>
       <c r="D1606" t="n">
-        <v>-2.373897854006074</v>
+        <v>3.909287453173512</v>
       </c>
       <c r="E1606" t="n">
         <v>1.53397926003346</v>
@@ -27751,7 +27751,7 @@
         <v>370794.8179306086</v>
       </c>
       <c r="D1607" t="n">
-        <v>-1.526034951512208</v>
+        <v>4.757150355667378</v>
       </c>
       <c r="E1607" t="n">
         <v>1.607033111903234</v>
@@ -27768,7 +27768,7 @@
         <v>379020.8285518686</v>
       </c>
       <c r="D1608" t="n">
-        <v>-0.7015285428595885</v>
+        <v>5.581656764319998</v>
       </c>
       <c r="E1608" t="n">
         <v>1.654767071514201</v>
@@ -27853,7 +27853,7 @@
         <v>375153.0097690164</v>
       </c>
       <c r="D1613" t="n">
-        <v>-3.242529869413036</v>
+        <v>3.040655437766551</v>
       </c>
       <c r="E1613" t="n">
         <v>1.48485418017284</v>
@@ -27870,7 +27870,7 @@
         <v>362883.8321240388</v>
       </c>
       <c r="D1614" t="n">
-        <v>-2.382685581971172</v>
+        <v>3.900499725208414</v>
       </c>
       <c r="E1614" t="n">
         <v>1.535146919223078</v>
@@ -27887,7 +27887,7 @@
         <v>366883.2487114583</v>
       </c>
       <c r="D1615" t="n">
-        <v>-1.509111300857728</v>
+        <v>4.774074006321857</v>
       </c>
       <c r="E1615" t="n">
         <v>1.612013092539327</v>
@@ -27904,7 +27904,7 @@
         <v>379987.7865180094</v>
       </c>
       <c r="D1616" t="n">
-        <v>-0.6792211533912202</v>
+        <v>5.603964153788366</v>
       </c>
       <c r="E1616" t="n">
         <v>1.658449041628745</v>
@@ -27989,7 +27989,7 @@
         <v>379282.803520821</v>
       </c>
       <c r="D1621" t="n">
-        <v>-3.267650931255547</v>
+        <v>3.015534375924039</v>
       </c>
       <c r="E1621" t="n">
         <v>1.482433727203414</v>
@@ -28006,7 +28006,7 @@
         <v>361094.4987755633</v>
       </c>
       <c r="D1622" t="n">
-        <v>-2.417023910836376</v>
+        <v>3.86616139634321</v>
       </c>
       <c r="E1622" t="n">
         <v>1.532259495789037</v>
@@ -28023,7 +28023,7 @@
         <v>360449.8158377538</v>
       </c>
       <c r="D1623" t="n">
-        <v>-1.51926128936414</v>
+        <v>4.763924017815446</v>
       </c>
       <c r="E1623" t="n">
         <v>1.612617580335921</v>
@@ -28040,7 +28040,7 @@
         <v>376217.6153180511</v>
       </c>
       <c r="D1624" t="n">
-        <v>-0.6627553769792454</v>
+        <v>5.620429930200341</v>
       </c>
       <c r="E1624" t="n">
         <v>1.660531810465725</v>
@@ -28125,7 +28125,7 @@
         <v>385407.1904652418</v>
       </c>
       <c r="D1629" t="n">
-        <v>-3.275963554147435</v>
+        <v>3.007221753032152</v>
       </c>
       <c r="E1629" t="n">
         <v>1.482164074066962</v>
@@ -28142,7 +28142,7 @@
         <v>365017.558289791</v>
       </c>
       <c r="D1630" t="n">
-        <v>-2.453670638275558</v>
+        <v>3.829514668904028</v>
       </c>
       <c r="E1630" t="n">
         <v>1.52928513648857</v>
@@ -28159,7 +28159,7 @@
         <v>356711.6797736102</v>
       </c>
       <c r="D1631" t="n">
-        <v>-1.557187372196632</v>
+        <v>4.725997934982955</v>
       </c>
       <c r="E1631" t="n">
         <v>1.609257255238968</v>
@@ -28176,7 +28176,7 @@
         <v>369496.9407089464</v>
       </c>
       <c r="D1632" t="n">
-        <v>-0.6699768805712143</v>
+        <v>5.613208426608372</v>
       </c>
       <c r="E1632" t="n">
         <v>1.659649344231422</v>
@@ -28261,7 +28261,7 @@
         <v>389386.3495441073</v>
       </c>
       <c r="D1637" t="n">
-        <v>-3.263457682467736</v>
+        <v>3.01972762471185</v>
       </c>
       <c r="E1637" t="n">
         <v>1.484864810406267</v>
@@ -28278,7 +28278,7 @@
         <v>371805.2163911601</v>
       </c>
       <c r="D1638" t="n">
-        <v>-2.466830396405292</v>
+        <v>3.816354910774294</v>
       </c>
       <c r="E1638" t="n">
         <v>1.530412525702342</v>
@@ -28295,7 +28295,7 @@
         <v>358990.3132299948</v>
       </c>
       <c r="D1639" t="n">
-        <v>-1.597521867230399</v>
+        <v>4.685663439949186</v>
       </c>
       <c r="E1639" t="n">
         <v>1.606349574679668</v>
@@ -28312,7 +28312,7 @@
         <v>364618.0144588911</v>
       </c>
       <c r="D1640" t="n">
-        <v>-0.7010816772775708</v>
+        <v>5.582103629902015</v>
       </c>
       <c r="E1640" t="n">
         <v>1.657002696019101</v>
@@ -28397,7 +28397,7 @@
         <v>389296.8528348221</v>
       </c>
       <c r="D1645" t="n">
-        <v>-3.24254994857244</v>
+        <v>3.040635358607146</v>
       </c>
       <c r="E1645" t="n">
         <v>1.488785060258855</v>
@@ -28414,7 +28414,7 @@
         <v>376362.0142969493</v>
       </c>
       <c r="D1646" t="n">
-        <v>-2.453094361002393</v>
+        <v>3.830090946177194</v>
       </c>
       <c r="E1646" t="n">
         <v>1.535730952425419</v>
@@ -28431,7 +28431,7 @@
         <v>364980.154595132</v>
       </c>
       <c r="D1647" t="n">
-        <v>-1.612559571325955</v>
+        <v>4.670625735853632</v>
       </c>
       <c r="E1647" t="n">
         <v>1.607823627171515</v>
@@ -28448,7 +28448,7 @@
         <v>365053.8065804917</v>
       </c>
       <c r="D1648" t="n">
-        <v>-0.7342742734894263</v>
+        <v>5.54891103369016</v>
       </c>
       <c r="E1648" t="n">
         <v>1.655525023474831</v>
@@ -28533,7 +28533,7 @@
         <v>386539.6412948558</v>
       </c>
       <c r="D1653" t="n">
-        <v>-3.229658568561593</v>
+        <v>3.053526738617994</v>
       </c>
       <c r="E1653" t="n">
         <v>1.491297804242746</v>
@@ -28550,7 +28550,7 @@
         <v>376130.2996494259</v>
       </c>
       <c r="D1654" t="n">
-        <v>-2.429663616638266</v>
+        <v>3.85352169054132</v>
       </c>
       <c r="E1654" t="n">
         <v>1.541983308801846</v>
@@ -28567,7 +28567,7 @@
         <v>369517.0282662652</v>
       </c>
       <c r="D1655" t="n">
-        <v>-1.598930555730208</v>
+        <v>4.684254751449378</v>
       </c>
       <c r="E1655" t="n">
         <v>1.613128141694443</v>
@@ -28584,7 +28584,7 @@
         <v>369417.4550542007</v>
       </c>
       <c r="D1656" t="n">
-        <v>-0.7461321155543028</v>
+        <v>5.537053191625283</v>
       </c>
       <c r="E1656" t="n">
         <v>1.656839529690895</v>
@@ -28669,7 +28669,7 @@
         <v>384209.9871553566</v>
       </c>
       <c r="D1661" t="n">
-        <v>-3.23290881295377</v>
+        <v>3.050276494225816</v>
       </c>
       <c r="E1661" t="n">
         <v>1.491053003004991</v>
@@ -28686,7 +28686,7 @@
         <v>372400.3636840153</v>
       </c>
       <c r="D1662" t="n">
-        <v>-2.417284258464048</v>
+        <v>3.865901048715538</v>
       </c>
       <c r="E1662" t="n">
         <v>1.545669068174931</v>
@@ -28703,7 +28703,7 @@
         <v>369445.0959046821</v>
       </c>
       <c r="D1663" t="n">
-        <v>-1.57450362456845</v>
+        <v>4.708681682611136</v>
       </c>
       <c r="E1663" t="n">
         <v>1.618821405147522</v>
@@ -28720,7 +28720,7 @@
         <v>373350.9423569019</v>
       </c>
       <c r="D1664" t="n">
-        <v>-0.7330424740969432</v>
+        <v>5.550142833082643</v>
       </c>
       <c r="E1664" t="n">
         <v>1.659783038063563</v>
@@ -28805,7 +28805,7 @@
         <v>384666.1061911184</v>
       </c>
       <c r="D1669" t="n">
-        <v>-3.24756619545232</v>
+        <v>3.035619111727267</v>
       </c>
       <c r="E1669" t="n">
         <v>1.489099410822226</v>
@@ -28822,7 +28822,7 @@
         <v>368739.6782270663</v>
       </c>
       <c r="D1670" t="n">
-        <v>-2.426263011233563</v>
+        <v>3.856922295946023</v>
       </c>
       <c r="E1670" t="n">
         <v>1.545467850680135</v>
@@ -28839,7 +28839,7 @@
         <v>365266.4007248122</v>
       </c>
       <c r="D1671" t="n">
-        <v>-1.561080230296131</v>
+        <v>4.722105076883455</v>
       </c>
       <c r="E1671" t="n">
         <v>1.621787104555857</v>
@@ -28856,7 +28856,7 @@
         <v>373542.9757149371</v>
       </c>
       <c r="D1672" t="n">
-        <v>-0.7093416246021422</v>
+        <v>5.573843682577444</v>
       </c>
       <c r="E1672" t="n">
         <v>1.662059414710459</v>
@@ -28941,7 +28941,7 @@
         <v>388002.9389012873</v>
       </c>
       <c r="D1677" t="n">
-        <v>-3.261056131228384</v>
+        <v>3.022129175951202</v>
       </c>
       <c r="E1677" t="n">
         <v>1.487925876354154</v>
@@ -28958,7 +28958,7 @@
         <v>368411.1003594418</v>
       </c>
       <c r="D1678" t="n">
-        <v>-2.45080389390842</v>
+        <v>3.832381413271166</v>
       </c>
       <c r="E1678" t="n">
         <v>1.543145102791417</v>
@@ -28975,7 +28975,7 @@
         <v>360202.5563034712</v>
       </c>
       <c r="D1679" t="n">
-        <v>-1.571148760771367</v>
+        <v>4.712036546408219</v>
       </c>
       <c r="E1679" t="n">
         <v>1.621088663402985</v>
@@ -28992,7 +28992,7 @@
         <v>369584.0638431413</v>
       </c>
       <c r="D1680" t="n">
-        <v>-0.694089125000493</v>
+        <v>5.589096182179093</v>
       </c>
       <c r="E1680" t="n">
         <v>1.662207178419334</v>
@@ -29077,7 +29077,7 @@
         <v>392335.7836568713</v>
       </c>
       <c r="D1685" t="n">
-        <v>-3.262774747542516</v>
+        <v>3.02041055963707</v>
       </c>
       <c r="E1685" t="n">
         <v>1.489271656978812</v>
@@ -29094,7 +29094,7 @@
         <v>372142.1540202911</v>
       </c>
       <c r="D1686" t="n">
-        <v>-2.473950179941081</v>
+        <v>3.809235127238506</v>
       </c>
       <c r="E1686" t="n">
         <v>1.54214508254907</v>
@@ -29111,7 +29111,7 @@
         <v>358086.3666632341</v>
       </c>
       <c r="D1687" t="n">
-        <v>-1.600843508599565</v>
+        <v>4.682341798580021</v>
       </c>
       <c r="E1687" t="n">
         <v>1.618492826903694</v>
@@ -29128,7 +29128,7 @@
         <v>363798.8226013295</v>
       </c>
       <c r="D1688" t="n">
-        <v>-0.7002621130280322</v>
+        <v>5.582923194151554</v>
       </c>
       <c r="E1688" t="n">
         <v>1.660401724220769</v>
@@ -29213,7 +29213,7 @@
         <v>395313.7485158716</v>
       </c>
       <c r="D1693" t="n">
-        <v>-3.250625214542291</v>
+        <v>3.032560092637295</v>
       </c>
       <c r="E1693" t="n">
         <v>1.492897209112988</v>
@@ -29230,7 +29230,7 @@
         <v>377750.1174831222</v>
       </c>
       <c r="D1694" t="n">
-        <v>-2.480536854389205</v>
+        <v>3.802648452790382</v>
       </c>
       <c r="E1694" t="n">
         <v>1.544689596219645</v>
@@ -29247,7 +29247,7 @@
         <v>360733.8534226783</v>
       </c>
       <c r="D1695" t="n">
-        <v>-1.631751812115902</v>
+        <v>4.651433495063685</v>
       </c>
       <c r="E1695" t="n">
         <v>1.617293358755355</v>
@@ -29264,7 +29264,7 @@
         <v>359922.9533588671</v>
       </c>
       <c r="D1696" t="n">
-        <v>-0.7272799894533013</v>
+        <v>5.555905317726285</v>
       </c>
       <c r="E1696" t="n">
         <v>1.658296137378907</v>
@@ -29349,7 +29349,7 @@
         <v>395592.8406462077</v>
       </c>
       <c r="D1701" t="n">
-        <v>-3.23135119950248</v>
+        <v>3.051834107677106</v>
       </c>
       <c r="E1701" t="n">
         <v>1.49698846811592</v>
@@ -29366,7 +29366,7 @@
         <v>381853.1922338031</v>
       </c>
       <c r="D1702" t="n">
-        <v>-2.467535366631163</v>
+        <v>3.815649940548424</v>
       </c>
       <c r="E1702" t="n">
         <v>1.550204901714995</v>
@@ -29383,7 +29383,7 @@
         <v>366451.4840068342</v>
       </c>
       <c r="D1703" t="n">
-        <v>-1.644212202309563</v>
+        <v>4.638973104870023</v>
       </c>
       <c r="E1703" t="n">
         <v>1.61959411320882</v>
@@ -29400,7 +29400,7 @@
         <v>360671.3348837111</v>
       </c>
       <c r="D1704" t="n">
-        <v>-0.7590873821694006</v>
+        <v>5.524097925010185</v>
       </c>
       <c r="E1704" t="n">
         <v>1.657867677046661</v>
@@ -29485,7 +29485,7 @@
         <v>393636.4368709705</v>
       </c>
       <c r="D1709" t="n">
-        <v>-3.216506213607821</v>
+        <v>3.066679093571766</v>
       </c>
       <c r="E1709" t="n">
         <v>1.499383997424018</v>
@@ -29502,7 +29502,7 @@
         <v>382155.6475196994</v>
       </c>
       <c r="D1710" t="n">
-        <v>-2.44523826605857</v>
+        <v>3.837947041121017</v>
       </c>
       <c r="E1710" t="n">
         <v>1.556039744077399</v>
@@ -29519,7 +29519,7 @@
         <v>371238.7805077198</v>
       </c>
       <c r="D1711" t="n">
-        <v>-1.632357319929925</v>
+        <v>4.650827987249661</v>
       </c>
       <c r="E1711" t="n">
         <v>1.624579606305908</v>
@@ -29536,7 +29536,7 @@
         <v>365356.0414174285</v>
       </c>
       <c r="D1712" t="n">
-        <v>-0.7743805320396038</v>
+        <v>5.508804775139982</v>
       </c>
       <c r="E1712" t="n">
         <v>1.659648731541519</v>
@@ -29621,7 +29621,7 @@
         <v>391605.5654991935</v>
       </c>
       <c r="D1717" t="n">
-        <v>-3.215436267569981</v>
+        <v>3.067749039609605</v>
       </c>
       <c r="E1717" t="n">
         <v>1.499074062339952</v>
@@ -29638,7 +29638,7 @@
         <v>379013.1972638897</v>
       </c>
       <c r="D1718" t="n">
-        <v>-2.431175697273056</v>
+        <v>3.85200960990653</v>
       </c>
       <c r="E1718" t="n">
         <v>1.559245526983564</v>
@@ -29655,7 +29655,7 @@
         <v>371696.7347239727</v>
       </c>
       <c r="D1719" t="n">
-        <v>-1.608284868668646</v>
+        <v>4.674900438510941</v>
       </c>
       <c r="E1719" t="n">
         <v>1.629378748632961</v>
@@ -29672,7 +29672,7 @@
         <v>370049.005385762</v>
       </c>
       <c r="D1720" t="n">
-        <v>-0.7641845534007841</v>
+        <v>5.519000753778802</v>
       </c>
       <c r="E1720" t="n">
         <v>1.662108895738327</v>
@@ -29757,7 +29757,7 @@
         <v>391935.0256676592</v>
       </c>
       <c r="D1725" t="n">
-        <v>-3.227536552810226</v>
+        <v>3.05564875436936</v>
       </c>
       <c r="E1725" t="n">
         <v>1.497369199286248</v>
@@ -29774,7 +29774,7 @@
         <v>375611.742045029</v>
       </c>
       <c r="D1726" t="n">
-        <v>-2.43878605212003</v>
+        <v>3.844399255059556</v>
       </c>
       <c r="E1726" t="n">
         <v>1.558688919786431</v>
@@ -29791,7 +29791,7 @@
         <v>367564.0365964847</v>
       </c>
       <c r="D1727" t="n">
-        <v>-1.59456160865485</v>
+        <v>4.688623698524736</v>
       </c>
       <c r="E1727" t="n">
         <v>1.631243140708222</v>
@@ -29808,7 +29808,7 @@
         <v>370586.6107749689</v>
       </c>
       <c r="D1728" t="n">
-        <v>-0.7399278788183294</v>
+        <v>5.543257428361256</v>
       </c>
       <c r="E1728" t="n">
         <v>1.663064655623961</v>
@@ -29893,7 +29893,7 @@
         <v>395115.9508579791</v>
       </c>
       <c r="D1733" t="n">
-        <v>-3.241142781089449</v>
+        <v>3.042042526090138</v>
       </c>
       <c r="E1733" t="n">
         <v>1.497143237980277</v>
@@ -29910,7 +29910,7 @@
         <v>375821.243112767</v>
       </c>
       <c r="D1734" t="n">
-        <v>-2.464638066457262</v>
+        <v>3.818547240722324</v>
       </c>
       <c r="E1734" t="n">
         <v>1.556576534887763</v>
@@ -29927,7 +29927,7 @@
         <v>362473.3159157888</v>
       </c>
       <c r="D1735" t="n">
-        <v>-1.608616590773716</v>
+        <v>4.67456871640587</v>
       </c>
       <c r="E1735" t="n">
         <v>1.629671661503259</v>
@@ -29944,7 +29944,7 @@
         <v>365923.8029186546</v>
       </c>
       <c r="D1736" t="n">
-        <v>-0.7257162021585519</v>
+        <v>5.557469105021035</v>
       </c>
       <c r="E1736" t="n">
         <v>1.661641587004303</v>
@@ -30029,7 +30029,7 @@
         <v>399122.9471197297</v>
       </c>
       <c r="D1741" t="n">
-        <v>-3.243739355738027</v>
+        <v>3.039445951441559</v>
       </c>
       <c r="E1741" t="n">
         <v>1.499989161017954</v>
@@ -30046,7 +30046,7 @@
         <v>380448.8665595007</v>
       </c>
       <c r="D1742" t="n">
-        <v>-2.48854420523935</v>
+        <v>3.794641101940236</v>
       </c>
       <c r="E1742" t="n">
         <v>1.55683370912816</v>
@@ -30063,7 +30063,7 @@
         <v>361448.6195825923</v>
       </c>
       <c r="D1743" t="n">
-        <v>-1.645350708148613</v>
+        <v>4.637834599030973</v>
       </c>
       <c r="E1743" t="n">
         <v>1.627298291789879</v>
@@ -30080,7 +30080,7 @@
         <v>359449.2688437024</v>
       </c>
       <c r="D1744" t="n">
-        <v>-0.740377046685158</v>
+        <v>5.542808260494429</v>
       </c>
       <c r="E1744" t="n">
         <v>1.65913629642815</v>
@@ -30165,7 +30165,7 @@
         <v>401508.780979738</v>
       </c>
       <c r="D1749" t="n">
-        <v>-3.232797822451823</v>
+        <v>3.050387484727763</v>
       </c>
       <c r="E1749" t="n">
         <v>1.504657086327687</v>
@@ -30182,7 +30182,7 @@
         <v>386307.7240185416</v>
       </c>
       <c r="D1750" t="n">
-        <v>-2.493016286366772</v>
+        <v>3.790169020812814</v>
       </c>
       <c r="E1750" t="n">
         <v>1.560940065909422</v>
@@ -30199,7 +30199,7 @@
         <v>365960.8244134835</v>
       </c>
       <c r="D1751" t="n">
-        <v>-1.678259022409286</v>
+        <v>4.604926284770301</v>
       </c>
       <c r="E1751" t="n">
         <v>1.627604775920858</v>
@@ -30216,7 +30216,7 @@
         <v>356559.713982648</v>
       </c>
       <c r="D1752" t="n">
-        <v>-0.779075036001672</v>
+        <v>5.504110271177915</v>
       </c>
       <c r="E1752" t="n">
         <v>1.657962967472858</v>
@@ -30301,7 +30301,7 @@
         <v>401480.3350957822</v>
       </c>
       <c r="D1757" t="n">
-        <v>-3.215711644756493</v>
+        <v>3.067473662423093</v>
       </c>
       <c r="E1757" t="n">
         <v>1.508543533021927</v>
@@ -30318,7 +30318,7 @@
         <v>389641.1665785436</v>
       </c>
       <c r="D1758" t="n">
-        <v>-2.478307509157193</v>
+        <v>3.804877798022393</v>
       </c>
       <c r="E1758" t="n">
         <v>1.566813686104891</v>
@@ -30335,7 +30335,7 @@
         <v>372461.0562720782</v>
       </c>
       <c r="D1759" t="n">
-        <v>-1.685970056828945</v>
+        <v>4.597215250350641</v>
       </c>
       <c r="E1759" t="n">
         <v>1.631176602872232</v>
@@ -30352,7 +30352,7 @@
         <v>359488.7537298638</v>
       </c>
       <c r="D1760" t="n">
-        <v>-0.8148058479387394</v>
+        <v>5.468379459240847</v>
       </c>
       <c r="E1760" t="n">
         <v>1.659190913933483</v>
@@ -30437,7 +30437,7 @@
         <v>400002.8347798673</v>
       </c>
       <c r="D1765" t="n">
-        <v>-3.202399803482432</v>
+        <v>3.080785503697154</v>
       </c>
       <c r="E1765" t="n">
         <v>1.510033270750942</v>
@@ -30454,7 +30454,7 @@
         <v>389228.1872734918</v>
       </c>
       <c r="D1766" t="n">
-        <v>-2.457784412188516</v>
+        <v>3.82540089499107</v>
       </c>
       <c r="E1766" t="n">
         <v>1.571402539061548</v>
@@ -30471,7 +30471,7 @@
         <v>376402.3259941174</v>
       </c>
       <c r="D1767" t="n">
-        <v>-1.669934461470743</v>
+        <v>4.613250845708844</v>
       </c>
       <c r="E1767" t="n">
         <v>1.635654033347237</v>
@@ -30488,7 +30488,7 @@
         <v>365306.6985008155</v>
       </c>
       <c r="D1768" t="n">
-        <v>-0.8250243594373994</v>
+        <v>5.458160947742186</v>
       </c>
       <c r="E1768" t="n">
         <v>1.661453665072195</v>
@@ -30573,7 +30573,7 @@
         <v>398718.6582047605</v>
       </c>
       <c r="D1773" t="n">
-        <v>-3.198472587717051</v>
+        <v>3.084712719462535</v>
       </c>
       <c r="E1773" t="n">
         <v>1.509601886691446</v>
@@ -30590,7 +30590,7 @@
         <v>386559.1225471749</v>
       </c>
       <c r="D1774" t="n">
-        <v>-2.445784110859664</v>
+        <v>3.837401196319922</v>
       </c>
       <c r="E1774" t="n">
         <v>1.573142659418303</v>
@@ -30607,7 +30607,7 @@
         <v>375911.3854811525</v>
       </c>
       <c r="D1775" t="n">
-        <v>-1.64691156651286</v>
+        <v>4.636273740666726</v>
       </c>
       <c r="E1775" t="n">
         <v>1.638498792363796</v>
@@ -30624,7 +30624,7 @@
         <v>369395.0341440887</v>
       </c>
       <c r="D1776" t="n">
-        <v>-0.8097867825679654</v>
+        <v>5.473398524611621</v>
       </c>
       <c r="E1776" t="n">
         <v>1.66259404615893</v>
@@ -30709,7 +30709,7 @@
         <v>398823.2445138531</v>
       </c>
       <c r="D1781" t="n">
-        <v>-3.202512162409642</v>
+        <v>3.080673144769944</v>
       </c>
       <c r="E1781" t="n">
         <v>1.509233067593377</v>
@@ -30726,7 +30726,7 @@
         <v>384363.5044479211</v>
       </c>
       <c r="D1782" t="n">
-        <v>-2.44885483041077</v>
+        <v>3.834330476768816</v>
       </c>
       <c r="E1782" t="n">
         <v>1.572761954218447</v>
@@ -30743,7 +30743,7 @@
         <v>372276.5974979961</v>
       </c>
       <c r="D1783" t="n">
-        <v>-1.634875137484648</v>
+        <v>4.648310169694938</v>
       </c>
       <c r="E1783" t="n">
         <v>1.638820502961536</v>
@@ -30760,7 +30760,7 @@
         <v>369151.1294491481</v>
       </c>
       <c r="D1784" t="n">
-        <v>-0.7854659615683688</v>
+        <v>5.497719345611218</v>
       </c>
       <c r="E1784" t="n">
         <v>1.661585326931122</v>
@@ -30845,7 +30845,7 @@
         <v>400444.6563642004</v>
       </c>
       <c r="D1789" t="n">
-        <v>-3.207931347667788</v>
+        <v>3.075253959511798</v>
       </c>
       <c r="E1789" t="n">
         <v>1.510752190559596</v>
@@ -30862,7 +30862,7 @@
         <v>384806.11021394</v>
       </c>
       <c r="D1790" t="n">
-        <v>-2.462702123255969</v>
+        <v>3.820483183923618</v>
       </c>
       <c r="E1790" t="n">
         <v>1.572551920232304</v>
@@ -30879,7 +30879,7 @@
         <v>368713.8439108212</v>
       </c>
       <c r="D1791" t="n">
-        <v>-1.643153070211139</v>
+        <v>4.640032236968447</v>
       </c>
       <c r="E1791" t="n">
         <v>1.637642200091198</v>
@@ -30896,7 +30896,7 @@
         <v>365028.5992673921</v>
       </c>
       <c r="D1792" t="n">
-        <v>-0.7716907017079353</v>
+        <v>5.51149460547165</v>
       </c>
       <c r="E1792" t="n">
         <v>1.6590886950825</v>
@@ -30981,7 +30981,7 @@
         <v>402728.6263957947</v>
       </c>
       <c r="D1797" t="n">
-        <v>-3.207686312037376</v>
+        <v>3.07549899514221</v>
       </c>
       <c r="E1797" t="n">
         <v>1.514423838021734</v>
@@ -30998,7 +30998,7 @@
         <v>388133.811641259</v>
       </c>
       <c r="D1798" t="n">
-        <v>-2.475689745474002</v>
+        <v>3.807495561705584</v>
       </c>
       <c r="E1798" t="n">
         <v>1.574536289103365</v>
@@ -31015,7 +31015,7 @@
         <v>368403.3527112001</v>
       </c>
       <c r="D1799" t="n">
-        <v>-1.667127489933029</v>
+        <v>4.616057817246557</v>
       </c>
       <c r="E1799" t="n">
         <v>1.637072686617373</v>
@@ -31032,7 +31032,7 @@
         <v>359988.9046882958</v>
       </c>
       <c r="D1800" t="n">
-        <v>-0.7812412583813395</v>
+        <v>5.501944048798247</v>
       </c>
       <c r="E1800" t="n">
         <v>1.656946452253266</v>
@@ -31117,7 +31117,7 @@
         <v>404466.7558877816</v>
       </c>
       <c r="D1805" t="n">
-        <v>-3.198751585876551</v>
+        <v>3.084433721303035</v>
       </c>
       <c r="E1805" t="n">
         <v>1.518899706762124</v>
@@ -31134,7 +31134,7 @@
         <v>392574.9991278377</v>
       </c>
       <c r="D1806" t="n">
-        <v>-2.47717975850007</v>
+        <v>3.806005548679516</v>
       </c>
       <c r="E1806" t="n">
         <v>1.578884648811023</v>
@@ -31151,7 +31151,7 @@
         <v>372301.2814100163</v>
       </c>
       <c r="D1807" t="n">
-        <v>-1.690529805106962</v>
+        <v>4.592655502072624</v>
       </c>
       <c r="E1807" t="n">
         <v>1.638658788184567</v>
@@ -31168,7 +31168,7 @@
         <v>357927.7964499385</v>
       </c>
       <c r="D1808" t="n">
-        <v>-0.8118873100779962</v>
+        <v>5.47129799710159</v>
       </c>
       <c r="E1808" t="n">
         <v>1.656878061315012</v>
@@ -31253,7 +31253,7 @@
         <v>404862.2042182437</v>
       </c>
       <c r="D1813" t="n">
-        <v>-3.183871728164891</v>
+        <v>3.099313579014695</v>
       </c>
       <c r="E1813" t="n">
         <v>1.522329690631332</v>
@@ -31270,7 +31270,7 @@
         <v>395610.382660908</v>
       </c>
       <c r="D1814" t="n">
-        <v>-2.464812897053381</v>
+        <v>3.818372410126205</v>
       </c>
       <c r="E1814" t="n">
         <v>1.583942913346675</v>
@@ -31287,7 +31287,7 @@
         <v>378224.919056388</v>
       </c>
       <c r="D1815" t="n">
-        <v>-1.697207952314743</v>
+        <v>4.585977354864843</v>
       </c>
       <c r="E1815" t="n">
         <v>1.642052002174441</v>
@@ -31304,7 +31304,7 @@
         <v>360935.1673179024</v>
       </c>
       <c r="D1816" t="n">
-        <v>-0.8448201381949882</v>
+        <v>5.438365168984598</v>
       </c>
       <c r="E1816" t="n">
         <v>1.658871507874499</v>
@@ -31389,7 +31389,7 @@
         <v>404055.3568877317</v>
       </c>
       <c r="D1821" t="n">
-        <v>-3.16989838488031</v>
+        <v>3.113286922299276</v>
       </c>
       <c r="E1821" t="n">
         <v>1.523714952132349</v>
@@ -31406,7 +31406,7 @@
         <v>395725.707913892</v>
       </c>
       <c r="D1822" t="n">
-        <v>-2.445990140095529</v>
+        <v>3.837195167084058</v>
       </c>
       <c r="E1822" t="n">
         <v>1.587603453176833</v>
@@ -31423,7 +31423,7 @@
         <v>382396.835767788</v>
       </c>
       <c r="D1823" t="n">
-        <v>-1.68362986934632</v>
+        <v>4.599555437833267</v>
       </c>
       <c r="E1823" t="n">
         <v>1.645371539611175</v>
@@ -31440,7 +31440,7 @@
         <v>367127.3468725904</v>
       </c>
       <c r="D1824" t="n">
-        <v>-0.8579105382803918</v>
+        <v>5.425274768899195</v>
       </c>
       <c r="E1824" t="n">
         <v>1.660919490191849</v>
@@ -31525,7 +31525,7 @@
         <v>403052.1957015159</v>
       </c>
       <c r="D1829" t="n">
-        <v>-3.163315167493809</v>
+        <v>3.119870139685777</v>
       </c>
       <c r="E1829" t="n">
         <v>1.523749236526792</v>
@@ -31542,7 +31542,7 @@
         <v>393575.9385326667</v>
       </c>
       <c r="D1830" t="n">
-        <v>-2.433234465237715</v>
+        <v>3.849950841941871</v>
       </c>
       <c r="E1830" t="n">
         <v>1.588872558833004</v>
@@ -31559,7 +31559,7 @@
         <v>382317.4253267965</v>
       </c>
       <c r="D1831" t="n">
-        <v>-1.661579775937273</v>
+        <v>4.621605531242314</v>
       </c>
       <c r="E1831" t="n">
         <v>1.646843913169911</v>
@@ -31576,7 +31576,7 @@
         <v>371876.011718174</v>
       </c>
       <c r="D1832" t="n">
-        <v>-0.8448930567642279</v>
+        <v>5.438292250415358</v>
       </c>
       <c r="E1832" t="n">
         <v>1.660823153624077</v>
@@ -31661,7 +31661,7 @@
         <v>402893.1521798546</v>
       </c>
       <c r="D1837" t="n">
-        <v>-3.165333321917073</v>
+        <v>3.117851985262514</v>
       </c>
       <c r="E1837" t="n">
         <v>1.524451851178647</v>
@@ -31678,7 +31678,7 @@
         <v>391703.359602077</v>
       </c>
       <c r="D1838" t="n">
-        <v>-2.435131226167795</v>
+        <v>3.848054081011791</v>
       </c>
       <c r="E1838" t="n">
         <v>1.588792909080339</v>
@@ -31695,7 +31695,7 @@
         <v>378812.6487180453</v>
       </c>
       <c r="D1839" t="n">
-        <v>-1.650138295043332</v>
+        <v>4.633047012136254</v>
       </c>
       <c r="E1839" t="n">
         <v>1.646269995293887</v>
@@ -31712,7 +31712,7 @@
         <v>371664.2426972592</v>
       </c>
       <c r="D1840" t="n">
-        <v>-0.8207110535148199</v>
+        <v>5.462474253664766</v>
       </c>
       <c r="E1840" t="n">
         <v>1.65817577836026</v>
@@ -31797,7 +31797,7 @@
         <v>403741.5425489177</v>
       </c>
       <c r="D1845" t="n">
-        <v>-3.170848597199292</v>
+        <v>3.112336709980294</v>
       </c>
       <c r="E1845" t="n">
         <v>1.527342292058601</v>
@@ -31814,7 +31814,7 @@
         <v>392462.5694670314</v>
       </c>
       <c r="D1846" t="n">
-        <v>-2.448328918270632</v>
+        <v>3.834856388908954</v>
       </c>
       <c r="E1846" t="n">
         <v>1.589750264014917</v>
@@ -31831,7 +31831,7 @@
         <v>375700.0984957689</v>
       </c>
       <c r="D1847" t="n">
-        <v>-1.660971788517886</v>
+        <v>4.622213518661701</v>
       </c>
       <c r="E1847" t="n">
         <v>1.64532911273193</v>
@@ -31848,7 +31848,7 @@
         <v>367028.4855021227</v>
       </c>
       <c r="D1848" t="n">
-        <v>-0.8099136135646594</v>
+        <v>5.473271693614927</v>
       </c>
       <c r="E1848" t="n">
         <v>1.654837720415708</v>
@@ -31933,7 +31933,7 @@
         <v>404984.6498983501</v>
       </c>
       <c r="D1853" t="n">
-        <v>-3.172750387339241</v>
+        <v>3.110434919840345</v>
       </c>
       <c r="E1853" t="n">
         <v>1.531817670063729</v>
@@ -31950,7 +31950,7 @@
         <v>395781.8959409482</v>
       </c>
       <c r="D1854" t="n">
-        <v>-2.460030973014521</v>
+        <v>3.823154334165065</v>
       </c>
       <c r="E1854" t="n">
         <v>1.593079401646176</v>
@@ -31967,7 +31967,7 @@
         <v>376590.0559655655</v>
       </c>
       <c r="D1855" t="n">
-        <v>-1.686591326533418</v>
+        <v>4.596593980646168</v>
       </c>
       <c r="E1855" t="n">
         <v>1.646093799960188</v>
@@ -31984,7 +31984,7 @@
         <v>362348.1718416528</v>
       </c>
       <c r="D1856" t="n">
-        <v>-0.8270796664900155</v>
+        <v>5.456105640689571</v>
       </c>
       <c r="E1856" t="n">
         <v>1.653526450368924</v>
@@ -32069,7 +32069,7 @@
         <v>406009.9560558379</v>
       </c>
       <c r="D1861" t="n">
-        <v>-3.167036094981677</v>
+        <v>3.116149212197909</v>
       </c>
       <c r="E1861" t="n">
         <v>1.535865819089244</v>
@@ -32086,7 +32086,7 @@
         <v>399474.0731680732</v>
       </c>
       <c r="D1862" t="n">
-        <v>-2.460023452926863</v>
+        <v>3.823161854252723</v>
       </c>
       <c r="E1862" t="n">
         <v>1.597683737233196</v>
@@ -32103,7 +32103,7 @@
         <v>381405.1201183976</v>
       </c>
       <c r="D1863" t="n">
-        <v>-1.706665930653675</v>
+        <v>4.576519376525911</v>
       </c>
       <c r="E1863" t="n">
         <v>1.648799450645319</v>
@@ -32120,7 +32120,7 @@
         <v>362152.4078756016</v>
       </c>
       <c r="D1864" t="n">
-        <v>-0.8625879073714993</v>
+        <v>5.420597399808087</v>
       </c>
       <c r="E1864" t="n">
         <v>1.655141675003734</v>
@@ -32205,7 +32205,7 @@
         <v>406490.8424388177</v>
       </c>
       <c r="D1869" t="n">
-        <v>-3.154743458671047</v>
+        <v>3.128441848508539</v>
       </c>
       <c r="E1869" t="n">
         <v>1.538181764983782</v>
@@ -32222,7 +32222,7 @@
         <v>401507.753426615</v>
       </c>
       <c r="D1870" t="n">
-        <v>-2.448046213550645</v>
+        <v>3.835139093628941</v>
       </c>
       <c r="E1870" t="n">
         <v>1.601492902138471</v>
@@ -32239,7 +32239,7 @@
         <v>386839.4469039183</v>
       </c>
       <c r="D1871" t="n">
-        <v>-1.707744962997358</v>
+        <v>4.575440344182229</v>
       </c>
       <c r="E1871" t="n">
         <v>1.65172896477747</v>
@@ -32256,7 +32256,7 @@
         <v>366877.6388041785</v>
       </c>
       <c r="D1872" t="n">
-        <v>-0.8910463338115542</v>
+        <v>5.392138973368032</v>
       </c>
       <c r="E1872" t="n">
         <v>1.657660251529361</v>
@@ -32341,7 +32341,7 @@
         <v>406291.3736968449</v>
       </c>
       <c r="D1877" t="n">
-        <v>-3.140645775270265</v>
+        <v>3.142539531909321</v>
       </c>
       <c r="E1877" t="n">
         <v>1.539172337492421</v>
@@ -32358,7 +32358,7 @@
         <v>401378.3794628148</v>
       </c>
       <c r="D1878" t="n">
-        <v>-2.431249493213691</v>
+        <v>3.851935813965895</v>
       </c>
       <c r="E1878" t="n">
         <v>1.603506754258304</v>
@@ -32375,7 +32375,7 @@
         <v>389746.4821129257</v>
       </c>
       <c r="D1879" t="n">
-        <v>-1.69207942772443</v>
+        <v>4.591105879455156</v>
       </c>
       <c r="E1879" t="n">
         <v>1.653209162565138</v>
@@ -32392,7 +32392,7 @@
         <v>372964.9690191576</v>
       </c>
       <c r="D1880" t="n">
-        <v>-0.8956453502192483</v>
+        <v>5.387539956960338</v>
       </c>
       <c r="E1880" t="n">
         <v>1.658375033611037</v>
@@ -32409,7 +32409,7 @@
         <v>360071.1048430298</v>
       </c>
       <c r="D1881" t="n">
-        <v>-0.0293556621122355</v>
+        <v>6.25382964506735</v>
       </c>
       <c r="E1881" t="n">
         <v>1.605075833921442</v>
@@ -32477,7 +32477,7 @@
         <v>405515.1806028628</v>
       </c>
       <c r="D1885" t="n">
-        <v>-3.130127263448067</v>
+        <v>3.153058043731519</v>
       </c>
       <c r="E1885" t="n">
         <v>1.540283391856091</v>
@@ -32494,7 +32494,7 @@
         <v>399951.3645353158</v>
       </c>
       <c r="D1886" t="n">
-        <v>-2.418136579407653</v>
+        <v>3.865048727771933</v>
       </c>
       <c r="E1886" t="n">
         <v>1.604330895010382</v>
@@ -32511,7 +32511,7 @@
         <v>389234.5382297962</v>
       </c>
       <c r="D1887" t="n">
-        <v>-1.671624895995105</v>
+        <v>4.611560411184481</v>
       </c>
       <c r="E1887" t="n">
         <v>1.652994416148025</v>
@@ -32528,7 +32528,7 @@
         <v>376531.7485010372</v>
       </c>
       <c r="D1888" t="n">
-        <v>-0.8788893685025068</v>
+        <v>5.404295938677079</v>
       </c>
       <c r="E1888" t="n">
         <v>1.656331357337862</v>
@@ -32545,7 +32545,7 @@
         <v>365598.1003912048</v>
       </c>
       <c r="D1889" t="n">
-        <v>-0.03715518884371338</v>
+        <v>6.246030118335873</v>
       </c>
       <c r="E1889" t="n">
         <v>1.604574193763815</v>
@@ -32613,7 +32613,7 @@
         <v>404546.8070781786</v>
       </c>
       <c r="D1893" t="n">
-        <v>-3.126007510379938</v>
+        <v>3.157177796799648</v>
       </c>
       <c r="E1893" t="n">
         <v>1.542723782327445</v>
@@ -32630,7 +32630,7 @@
         <v>398694.6371961033</v>
       </c>
       <c r="D1894" t="n">
-        <v>-2.413722140964897</v>
+        <v>3.86946316621469</v>
       </c>
       <c r="E1894" t="n">
         <v>1.605421231232812</v>
@@ -32647,7 +32647,7 @@
         <v>386630.2089787501</v>
       </c>
       <c r="D1895" t="n">
-        <v>-1.659121868739802</v>
+        <v>4.624063438439784</v>
       </c>
       <c r="E1895" t="n">
         <v>1.652180874992742</v>
@@ -32664,7 +32664,7 @@
         <v>375970.6930962849</v>
       </c>
       <c r="D1896" t="n">
-        <v>-0.8556715846485687</v>
+        <v>5.427513722531017</v>
       </c>
       <c r="E1896" t="n">
         <v>1.65261524034161</v>
@@ -32681,7 +32681,7 @@
         <v>369468.2052655788</v>
       </c>
       <c r="D1897" t="n">
-        <v>-0.0214301657513607</v>
+        <v>6.261755141428226</v>
       </c>
       <c r="E1897" t="n">
         <v>1.600107977031323</v>
@@ -32749,7 +32749,7 @@
         <v>403881.0478626437</v>
       </c>
       <c r="D1901" t="n">
-        <v>-3.127026332023169</v>
+        <v>3.156158975156417</v>
       </c>
       <c r="E1901" t="n">
         <v>1.546562151544015</v>
@@ -32766,7 +32766,7 @@
         <v>398808.1653063929</v>
       </c>
       <c r="D1902" t="n">
-        <v>-2.417106453244377</v>
+        <v>3.866078853935209</v>
       </c>
       <c r="E1902" t="n">
         <v>1.607896267461552</v>
@@ -32783,7 +32783,7 @@
         <v>384463.1731652289</v>
       </c>
       <c r="D1903" t="n">
-        <v>-1.661372507987846</v>
+        <v>4.621812799191741</v>
       </c>
       <c r="E1903" t="n">
         <v>1.652290476808987</v>
@@ -32800,7 +32800,7 @@
         <v>372368.2173544602</v>
       </c>
       <c r="D1904" t="n">
-        <v>-0.8430655701766505</v>
+        <v>5.440119737002936</v>
       </c>
       <c r="E1904" t="n">
         <v>1.649438049756785</v>
@@ -32885,7 +32885,7 @@
         <v>403850.759021439</v>
       </c>
       <c r="D1909" t="n">
-        <v>-3.128733363758696</v>
+        <v>3.154451943420891</v>
       </c>
       <c r="E1909" t="n">
         <v>1.550705822738477</v>
@@ -32902,7 +32902,7 @@
         <v>400512.1189997083</v>
       </c>
       <c r="D1910" t="n">
-        <v>-2.422300099780271</v>
+        <v>3.860885207399315</v>
       </c>
       <c r="E1910" t="n">
         <v>1.611655161692809</v>
@@ -32919,7 +32919,7 @@
         <v>384978.3980167135</v>
       </c>
       <c r="D1911" t="n">
-        <v>-1.675223824435258</v>
+        <v>4.607961482744328</v>
       </c>
       <c r="E1911" t="n">
         <v>1.654076360388531</v>
@@ -32936,7 +32936,7 @@
         <v>368805.2007157322</v>
       </c>
       <c r="D1912" t="n">
-        <v>-0.8515831442094468</v>
+        <v>5.431602162970139</v>
       </c>
       <c r="E1912" t="n">
         <v>1.648778767837492</v>
@@ -33021,7 +33021,7 @@
         <v>404438.8704560587</v>
       </c>
       <c r="D1917" t="n">
-        <v>-3.126238497139335</v>
+        <v>3.156946810040251</v>
       </c>
       <c r="E1917" t="n">
         <v>1.553799396760567</v>
@@ -33038,7 +33038,7 @@
         <v>402914.2849920409</v>
       </c>
       <c r="D1918" t="n">
-        <v>-2.422265162272483</v>
+        <v>3.860920144907103</v>
       </c>
       <c r="E1918" t="n">
         <v>1.615455914307437</v>
@@ -33055,7 +33055,7 @@
         <v>388563.5465736464</v>
       </c>
       <c r="D1919" t="n">
-        <v>-1.68901593332301</v>
+        <v>4.594169373856576</v>
       </c>
       <c r="E1919" t="n">
         <v>1.656781718935116</v>
@@ -33072,7 +33072,7 @@
         <v>368673.3660517859</v>
       </c>
       <c r="D1920" t="n">
-        <v>-0.8776033241175263</v>
+        <v>5.40558198306206</v>
       </c>
       <c r="E1920" t="n">
         <v>1.65075994323252</v>
@@ -33157,7 +33157,7 @@
         <v>405267.6499727332</v>
       </c>
       <c r="D1925" t="n">
-        <v>-3.117315541911616</v>
+        <v>3.16586976526797</v>
       </c>
       <c r="E1925" t="n">
         <v>1.555391968886526</v>
@@ -33174,7 +33174,7 @@
         <v>404659.8298624816</v>
       </c>
       <c r="D1926" t="n">
-        <v>-2.413759737199265</v>
+        <v>3.869425569980322</v>
       </c>
       <c r="E1926" t="n">
         <v>1.617974870660046</v>
@@ -33191,7 +33191,7 @@
         <v>393265.5399238592</v>
       </c>
       <c r="D1927" t="n">
-        <v>-1.690929942890646</v>
+        <v>4.59225536428894</v>
       </c>
       <c r="E1927" t="n">
         <v>1.658706053357492</v>
@@ -33208,7 +33208,7 @@
         <v>373055.6035651531</v>
       </c>
       <c r="D1928" t="n">
-        <v>-0.9032323779843416</v>
+        <v>5.379952929195245</v>
       </c>
       <c r="E1928" t="n">
         <v>1.653048220556156</v>
@@ -33225,7 +33225,7 @@
         <v>358005.0800304383</v>
       </c>
       <c r="D1929" t="n">
-        <v>-0.03036680026057459</v>
+        <v>6.252818506919011</v>
       </c>
       <c r="E1929" t="n">
         <v>1.591299289359731</v>
